--- a/Generate_IxNetwork_Config-original.xlsx
+++ b/Generate_IxNetwork_Config-original.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moharedd\Downloads\Cisco-cafy\latestcode\tgn_1812_latest\tgn_1812\Bulk-config\Anish\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59193501-4278-480C-8A92-99DAAE5CF189}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B98DE1CA-B01D-4665-917C-138F7E06D4B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" firstSheet="6" activeTab="10" xr2:uid="{7E5D92D4-6857-044F-AF5A-65E71E62F3C3}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" firstSheet="3" activeTab="3" xr2:uid="{7E5D92D4-6857-044F-AF5A-65E71E62F3C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Build_Information" sheetId="1" r:id="rId1"/>
@@ -26,9 +26,9 @@
     <sheet name="IPv4_OSPF" sheetId="19" r:id="rId11"/>
     <sheet name="IPv6_OSPF" sheetId="8" r:id="rId12"/>
     <sheet name="ISIS" sheetId="15" r:id="rId13"/>
-    <sheet name="Network_group" sheetId="4" r:id="rId14"/>
-    <sheet name="IGMP_reciever" sheetId="13" r:id="rId15"/>
-    <sheet name="IGMP_sender" sheetId="14" r:id="rId16"/>
+    <sheet name="Network_Group" sheetId="4" r:id="rId14"/>
+    <sheet name="IGMP_Host" sheetId="13" r:id="rId15"/>
+    <sheet name="IGMP_Querier" sheetId="14" r:id="rId16"/>
     <sheet name="Traffic" sheetId="9" r:id="rId17"/>
     <sheet name="packet_editor" sheetId="17" r:id="rId18"/>
   </sheets>
@@ -328,7 +328,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1154" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1327" uniqueCount="510">
   <si>
     <t>yes</t>
   </si>
@@ -345,9 +345,6 @@
     <t>Physical</t>
   </si>
   <si>
-    <t>Network_group</t>
-  </si>
-  <si>
     <t>Base</t>
   </si>
   <si>
@@ -432,18 +429,9 @@
     <t>Device Group</t>
   </si>
   <si>
-    <t>Multiplyer</t>
-  </si>
-  <si>
     <t>Vlan Header</t>
   </si>
   <si>
-    <t>IP Address</t>
-  </si>
-  <si>
-    <t>Mask</t>
-  </si>
-  <si>
     <t>Gateway IP</t>
   </si>
   <si>
@@ -471,12 +459,6 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Pool</t>
-  </si>
-  <si>
-    <t>Network Address</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
@@ -492,9 +474,6 @@
     <t>Area</t>
   </si>
   <si>
-    <t>Auth Type</t>
-  </si>
-  <si>
     <t>rate</t>
   </si>
   <si>
@@ -519,9 +498,6 @@
     <t>Loopback Adress</t>
   </si>
   <si>
-    <t>Not Started</t>
-  </si>
-  <si>
     <t>BGP_Capabilities</t>
   </si>
   <si>
@@ -555,18 +531,6 @@
     <t>packet_editor</t>
   </si>
   <si>
-    <t xml:space="preserve">Not started </t>
-  </si>
-  <si>
-    <t>IGMP_reciever</t>
-  </si>
-  <si>
-    <t>IGMP Senders Group Configuration</t>
-  </si>
-  <si>
-    <t>IGMP_sender</t>
-  </si>
-  <si>
     <t>Network Type</t>
   </si>
   <si>
@@ -585,18 +549,6 @@
     <t>Validate Receive MTU</t>
   </si>
   <si>
-    <t>Enable BGP Community</t>
-  </si>
-  <si>
-    <t>Last 2 Octets</t>
-  </si>
-  <si>
-    <t>Hostname</t>
-  </si>
-  <si>
-    <t>Enable Wide Metric</t>
-  </si>
-  <si>
     <t>Interface Metric</t>
   </si>
   <si>
@@ -609,12 +561,6 @@
     <t>Enable BFD</t>
   </si>
   <si>
-    <t>Level Hello Timer</t>
-  </si>
-  <si>
-    <t>Level Hold Timer</t>
-  </si>
-  <si>
     <t xml:space="preserve">Not Working </t>
   </si>
   <si>
@@ -624,9 +570,6 @@
     <t>Completed</t>
   </si>
   <si>
-    <t>IGMP Receivers group Configuration</t>
-  </si>
-  <si>
     <t>IxN-1</t>
   </si>
   <si>
@@ -921,72 +864,6 @@
     <t>FE-FANOUT-SW32_GroupG_Client</t>
   </si>
   <si>
-    <t>list;SI-FANOUT-SW12_Vlan2000;SI-FANOUT-SW21_Vlan2000;SI-FANOUT-SW22_Vlan2000;FE-FANOUT-SW31_Vlan2000;FE-FANOUT-SW32_Vlan2000</t>
-  </si>
-  <si>
-    <t>list;SI-FANOUT-SW11_Vlan2000;SI-FANOUT-SW21_Vlan2000;SI-FANOUT-SW22_Vlan2000;FE-FANOUT-SW31_Vlan2000;FE-FANOUT-SW32_Vlan2000</t>
-  </si>
-  <si>
-    <t>list;SI-FANOUT-SW11_Vlan2000;SI-FANOUT-SW12_Vlan2000;SI-FANOUT-SW22_Vlan2000;FE-FANOUT-SW31_Vlan2000;FE-FANOUT-SW32_Vlan2000</t>
-  </si>
-  <si>
-    <t>list;SI-FANOUT-SW11_Vlan2000;SI-FANOUT-SW12_Vlan2000;SI-FANOUT-SW21_Vlan2000;FE-FANOUT-SW31_Vlan2000;FE-FANOUT-SW32_Vlan2000</t>
-  </si>
-  <si>
-    <t>list;SI-FANOUT-SW11_Vlan2000;SI-FANOUT-SW12_Vlan2000;SI-FANOUT-SW21_Vlan2000;SI-FANOUT-SW22_Vlan2000;FE-FANOUT-SW32_Vlan2000</t>
-  </si>
-  <si>
-    <t>list;SI-FANOUT-SW11_Vlan2000;SI-FANOUT-SW12_Vlan2000;SI-FANOUT-SW21_Vlan2000;SI-FANOUT-SW22_Vlan2000;FE-FANOUT-SW31_Vlan2000</t>
-  </si>
-  <si>
-    <t>list;SI-FANOUT-SW12_GroupA-E;SI-FANOUT-SW21_GroupA-E;SI-FANOUT-SW22_GroupA-E;FE-FANOUT-SW31_GroupA-E;FE-FANOUT-SW32_GroupA-E;SI-FANOUT-SW1_GroupA-E;FE-FANOUT-SW1_GroupA-E</t>
-  </si>
-  <si>
-    <t>list;SI-FANOUT-SW11_GroupA-E;SI-FANOUT-SW21_GroupA-E;SI-FANOUT-SW22_GroupA-E;FE-FANOUT-SW31_GroupA-E;FE-FANOUT-SW32_GroupA-E;SI-FANOUT-SW1_GroupA-E;FE-FANOUT-SW1_GroupA-E</t>
-  </si>
-  <si>
-    <t>list;SI-FANOUT-SW11_GroupA-E;SI-FANOUT-SW12_GroupA-E;SI-FANOUT-SW22_GroupA-E;FE-FANOUT-SW31_GroupA-E;FE-FANOUT-SW32_GroupA-E;SI-FANOUT-SW1_GroupA-E;FE-FANOUT-SW1_GroupA-E</t>
-  </si>
-  <si>
-    <t>list;SI-FANOUT-SW11_GroupA-E;SI-FANOUT-SW12_GroupA-E;SI-FANOUT-SW21_GroupA-E;FE-FANOUT-SW31_GroupA-E;FE-FANOUT-SW32_GroupA-E;SI-FANOUT-SW1_GroupA-E;FE-FANOUT-SW1_GroupA-E</t>
-  </si>
-  <si>
-    <t>list;SI-FANOUT-SW11_GroupA-E;SI-FANOUT-SW12_GroupA-E;SI-FANOUT-SW21_GroupA-E;SI-FANOUT-SW22_GroupA-E;SI-FANOUT-SW1_GroupA-E;FE-FANOUT-SW1_GroupA-E</t>
-  </si>
-  <si>
-    <t>list;SI-FANOUT-SW11_GroupA-E;SI-FANOUT-SW12_GroupA-E;SI-FANOUT-SW21_GroupA-E;SI-FANOUT-SW22_GroupA-E;FE-FANOUT-SW31_GroupA-E;SI-FANOUT-SW1_GroupA-E;FE-FANOUT-SW1_GroupA-E</t>
-  </si>
-  <si>
-    <t>list;SI-FANOUT-SW11_GroupA-E;SI-FANOUT-SW12_GroupA-E;SI-FANOUT-SW21_GroupA-E;SI-FANOUT-SW22_GroupA-E;FE-FANOUT-SW31_GroupA-E;FE-FANOUT-SW32_GroupA-E;FE-FANOUT-SW1_GroupA-E</t>
-  </si>
-  <si>
-    <t>list;SI-FANOUT-SW11_GroupA-E;SI-FANOUT-SW12_GroupA-E;SI-FANOUT-SW21_GroupA-E;SI-FANOUT-SW22_GroupA-E;FE-FANOUT-SW31_GroupA-E;FE-FANOUT-SW32_GroupA-E;SI-FANOUT-SW1_GroupA-E</t>
-  </si>
-  <si>
-    <t>list;SI-FANOUT-SW12_GroupF;SI-FANOUT-SW21_GroupF;SI-FANOUT-SW22_GroupF;FE-FANOUT-SW31_GroupF;FE-FANOUT-SW32_GroupF</t>
-  </si>
-  <si>
-    <t>list;SI-FANOUT-SW11_GroupF;SI-FANOUT-SW21_GroupF;SI-FANOUT-SW22_GroupF;FE-FANOUT-SW31_GroupF;FE-FANOUT-SW32_GroupF</t>
-  </si>
-  <si>
-    <t>list;SI-FANOUT-SW11_GroupF;SI-FANOUT-SW12_GroupF;SI-FANOUT-SW22_GroupF;FE-FANOUT-SW31_GroupF;FE-FANOUT-SW32_GroupF</t>
-  </si>
-  <si>
-    <t>list;SI-FANOUT-SW11_GroupF;SI-FANOUT-SW12_GroupF;SI-FANOUT-SW21_GroupF;FE-FANOUT-SW31_GroupF;FE-FANOUT-SW32_GroupF</t>
-  </si>
-  <si>
-    <t>list;SI-FANOUT-SW11_GroupF;SI-FANOUT-SW12_GroupF;SI-FANOUT-SW21_GroupF;SI-FANOUT-SW22_GroupF;FE-FANOUT-SW32_GroupF</t>
-  </si>
-  <si>
-    <t>list;SI-FANOUT-SW11_GroupF;SI-FANOUT-SW12_GroupF;SI-FANOUT-SW21_GroupF;SI-FANOUT-SW22_GroupF;FE-FANOUT-SW31_GroupF</t>
-  </si>
-  <si>
-    <t>list;SI-FANOUT-SW12_GroupG_Server;FE-FANOUT-SW32_GroupG_Server</t>
-  </si>
-  <si>
-    <t>list;SI-FANOUT-SW11_GroupA-E;SI-FANOUT-SW12_GroupA-E;SI-FANOUT-SW21_GroupA-E;SI-FANOUT-SW22_GroupA-E;FE-FANOUT-SW32_GroupA-E;SI-FANOUT-SW1_GroupA-E;FE-FANOUT-SW1_GroupA-E</t>
-  </si>
-  <si>
     <t>Resolve Gateway</t>
   </si>
   <si>
@@ -1597,6 +1474,390 @@
   </si>
   <si>
     <t>tri</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Dut IP</t>
+  </si>
+  <si>
+    <t>BGP Id</t>
+  </si>
+  <si>
+    <t>Local AS</t>
+  </si>
+  <si>
+    <t>Enable As 4bytes</t>
+  </si>
+  <si>
+    <t>Local AS 4byte</t>
+  </si>
+  <si>
+    <t>As Mode</t>
+  </si>
+  <si>
+    <t>BFD Mode</t>
+  </si>
+  <si>
+    <t>Config Keepalive</t>
+  </si>
+  <si>
+    <t>Update Interval</t>
+  </si>
+  <si>
+    <t>TTL</t>
+  </si>
+  <si>
+    <t>seq</t>
+  </si>
+  <si>
+    <t>set</t>
+  </si>
+  <si>
+    <t>multihop</t>
+  </si>
+  <si>
+    <t>Neighbor IP</t>
+  </si>
+  <si>
+    <t>Enable Hold Time</t>
+  </si>
+  <si>
+    <t>Enable MT</t>
+  </si>
+  <si>
+    <t>Enable Adj Sid</t>
+  </si>
+  <si>
+    <t>Adj Sid</t>
+  </si>
+  <si>
+    <t>Ipv6 Metric</t>
+  </si>
+  <si>
+    <t>Level 1 Hello Interval</t>
+  </si>
+  <si>
+    <t>Level 1 Dead Interval</t>
+  </si>
+  <si>
+    <t>Max Sl Msd</t>
+  </si>
+  <si>
+    <t>Level 2 Hello Interval</t>
+  </si>
+  <si>
+    <t>Authentication Type</t>
+  </si>
+  <si>
+    <t>Enable 3WayHandshake</t>
+  </si>
+  <si>
+    <t>level1</t>
+  </si>
+  <si>
+    <t>level2</t>
+  </si>
+  <si>
+    <t>Weight</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>ixia</t>
+  </si>
+  <si>
+    <t>ixia1</t>
+  </si>
+  <si>
+    <t>ixia2</t>
+  </si>
+  <si>
+    <t>Level 2 Dead Interval</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>No Of Group Ranges</t>
+  </si>
+  <si>
+    <t>Join/Leave Multiplier</t>
+  </si>
+  <si>
+    <t>Start Group Address</t>
+  </si>
+  <si>
+    <t>Group Address Incr</t>
+  </si>
+  <si>
+    <t>Group Address Count</t>
+  </si>
+  <si>
+    <t>Source Mode</t>
+  </si>
+  <si>
+    <t>No Of Source Ranges</t>
+  </si>
+  <si>
+    <t>Start Source Address</t>
+  </si>
+  <si>
+    <t>Source Address Incr</t>
+  </si>
+  <si>
+    <t>Source Address Count</t>
+  </si>
+  <si>
+    <t>Query Count</t>
+  </si>
+  <si>
+    <t>Query Interval</t>
+  </si>
+  <si>
+    <t>Router Alert</t>
+  </si>
+  <si>
+    <t>Robustness</t>
+  </si>
+  <si>
+    <t>Query Response Interval</t>
+  </si>
+  <si>
+    <t>Transmission Count</t>
+  </si>
+  <si>
+    <t>version1</t>
+  </si>
+  <si>
+    <t>version2</t>
+  </si>
+  <si>
+    <t>version3</t>
+  </si>
+  <si>
+    <t>225.0.0.1</t>
+  </si>
+  <si>
+    <t>226.0.0.1</t>
+  </si>
+  <si>
+    <t>227.0.0.1</t>
+  </si>
+  <si>
+    <t>228.0.0.1</t>
+  </si>
+  <si>
+    <t>0.0.0.1</t>
+  </si>
+  <si>
+    <t>0.0.0.2</t>
+  </si>
+  <si>
+    <t>0.0.0.3</t>
+  </si>
+  <si>
+    <t>0.0.0.4</t>
+  </si>
+  <si>
+    <t>exclude</t>
+  </si>
+  <si>
+    <t>include</t>
+  </si>
+  <si>
+    <t>10.10.10.10</t>
+  </si>
+  <si>
+    <t>10.10.11.10</t>
+  </si>
+  <si>
+    <t>10.10.12.10</t>
+  </si>
+  <si>
+    <t>10.10.13.10</t>
+  </si>
+  <si>
+    <t>0.0.1.0</t>
+  </si>
+  <si>
+    <t>0.0.2.0</t>
+  </si>
+  <si>
+    <t>0.0.3.0</t>
+  </si>
+  <si>
+    <t>0.0.4.0</t>
+  </si>
+  <si>
+    <t>IGMP_Host</t>
+  </si>
+  <si>
+    <t>IGMP_Querier</t>
+  </si>
+  <si>
+    <t>IGMP Senders group Configuration</t>
+  </si>
+  <si>
+    <t>IGMP Receivers Group Configuration</t>
+  </si>
+  <si>
+    <t>Protocol</t>
+  </si>
+  <si>
+    <t>Step</t>
+  </si>
+  <si>
+    <t>Address Count</t>
+  </si>
+  <si>
+    <t>Multiplier</t>
+  </si>
+  <si>
+    <t>Ipv6 Address</t>
+  </si>
+  <si>
+    <t>Ipv4 Address</t>
+  </si>
+  <si>
+    <t>Ipv4 Prefix</t>
+  </si>
+  <si>
+    <t>Ipv6 Prefix</t>
+  </si>
+  <si>
+    <t>ipv4;ipv6</t>
+  </si>
+  <si>
+    <t>ospfgroup</t>
+  </si>
+  <si>
+    <t>bgpgroup</t>
+  </si>
+  <si>
+    <t>isisgroup</t>
+  </si>
+  <si>
+    <t>isis</t>
+  </si>
+  <si>
+    <t>bgpv4</t>
+  </si>
+  <si>
+    <t>ospfv3</t>
+  </si>
+  <si>
+    <t>ospfv2</t>
+  </si>
+  <si>
+    <t>bgpv6</t>
+  </si>
+  <si>
+    <t>200.0.0.1</t>
+  </si>
+  <si>
+    <t>222.0.0.1</t>
+  </si>
+  <si>
+    <t>3a03:cc00:16:2000::23</t>
+  </si>
+  <si>
+    <t>4a03:cc00:16:2000::23</t>
+  </si>
+  <si>
+    <t>5a03:cc00:16:2000::23</t>
+  </si>
+  <si>
+    <t>223.0.0.1</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>221.0.0.1</t>
+  </si>
+  <si>
+    <t>6a03:cc00:16:2000::23</t>
+  </si>
+  <si>
+    <t>0.0.0.5</t>
+  </si>
+  <si>
+    <t>0.0.0.6</t>
+  </si>
+  <si>
+    <t>Network_Group</t>
+  </si>
+  <si>
+    <t>SI-FANOUT-SW12_Vlan2000;SI-FANOUT-SW21_Vlan2000;SI-FANOUT-SW22_Vlan2000;FE-FANOUT-SW31_Vlan2000;FE-FANOUT-SW32_Vlan2000</t>
+  </si>
+  <si>
+    <t>SI-FANOUT-SW11_Vlan2000;SI-FANOUT-SW21_Vlan2000;SI-FANOUT-SW22_Vlan2000;FE-FANOUT-SW31_Vlan2000;FE-FANOUT-SW32_Vlan2000</t>
+  </si>
+  <si>
+    <t>SI-FANOUT-SW11_Vlan2000;SI-FANOUT-SW12_Vlan2000;SI-FANOUT-SW22_Vlan2000;FE-FANOUT-SW31_Vlan2000;FE-FANOUT-SW32_Vlan2000</t>
+  </si>
+  <si>
+    <t>SI-FANOUT-SW11_Vlan2000;SI-FANOUT-SW12_Vlan2000;SI-FANOUT-SW21_Vlan2000;FE-FANOUT-SW31_Vlan2000;FE-FANOUT-SW32_Vlan2000</t>
+  </si>
+  <si>
+    <t>SI-FANOUT-SW11_Vlan2000;SI-FANOUT-SW12_Vlan2000;SI-FANOUT-SW21_Vlan2000;SI-FANOUT-SW22_Vlan2000;FE-FANOUT-SW32_Vlan2000</t>
+  </si>
+  <si>
+    <t>SI-FANOUT-SW11_Vlan2000;SI-FANOUT-SW12_Vlan2000;SI-FANOUT-SW21_Vlan2000;SI-FANOUT-SW22_Vlan2000;FE-FANOUT-SW31_Vlan2000</t>
+  </si>
+  <si>
+    <t>SI-FANOUT-SW12_GroupA-E;SI-FANOUT-SW21_GroupA-E;SI-FANOUT-SW22_GroupA-E;FE-FANOUT-SW31_GroupA-E;FE-FANOUT-SW32_GroupA-E;SI-FANOUT-SW1_GroupA-E;FE-FANOUT-SW1_GroupA-E</t>
+  </si>
+  <si>
+    <t>SI-FANOUT-SW11_GroupA-E;SI-FANOUT-SW12_GroupA-E;SI-FANOUT-SW22_GroupA-E;FE-FANOUT-SW31_GroupA-E;FE-FANOUT-SW32_GroupA-E;SI-FANOUT-SW1_GroupA-E;FE-FANOUT-SW1_GroupA-E</t>
+  </si>
+  <si>
+    <t>SI-FANOUT-SW11_GroupA-E;SI-FANOUT-SW21_GroupA-E;SI-FANOUT-SW22_GroupA-E;FE-FANOUT-SW31_GroupA-E;FE-FANOUT-SW32_GroupA-E;SI-FANOUT-SW1_GroupA-E;FE-FANOUT-SW1_GroupA-E</t>
+  </si>
+  <si>
+    <t>SI-FANOUT-SW11_GroupA-E;SI-FANOUT-SW12_GroupA-E;SI-FANOUT-SW21_GroupA-E;FE-FANOUT-SW31_GroupA-E;FE-FANOUT-SW32_GroupA-E;SI-FANOUT-SW1_GroupA-E;FE-FANOUT-SW1_GroupA-E</t>
+  </si>
+  <si>
+    <t>SI-FANOUT-SW11_GroupA-E;SI-FANOUT-SW12_GroupA-E;SI-FANOUT-SW21_GroupA-E;SI-FANOUT-SW22_GroupA-E;FE-FANOUT-SW31_GroupA-E;SI-FANOUT-SW1_GroupA-E;FE-FANOUT-SW1_GroupA-E</t>
+  </si>
+  <si>
+    <t>SI-FANOUT-SW11_GroupA-E;SI-FANOUT-SW12_GroupA-E;SI-FANOUT-SW21_GroupA-E;SI-FANOUT-SW22_GroupA-E;FE-FANOUT-SW32_GroupA-E;SI-FANOUT-SW1_GroupA-E;FE-FANOUT-SW1_GroupA-E</t>
+  </si>
+  <si>
+    <t>SI-FANOUT-SW11_GroupA-E;SI-FANOUT-SW12_GroupA-E;SI-FANOUT-SW21_GroupA-E;SI-FANOUT-SW22_GroupA-E;FE-FANOUT-SW31_GroupA-E;FE-FANOUT-SW32_GroupA-E;FE-FANOUT-SW1_GroupA-E</t>
+  </si>
+  <si>
+    <t>SI-FANOUT-SW11_GroupA-E;SI-FANOUT-SW12_GroupA-E;SI-FANOUT-SW21_GroupA-E;SI-FANOUT-SW22_GroupA-E;FE-FANOUT-SW31_GroupA-E;FE-FANOUT-SW32_GroupA-E;SI-FANOUT-SW1_GroupA-E</t>
+  </si>
+  <si>
+    <t>SI-FANOUT-SW11_GroupA-E;SI-FANOUT-SW12_GroupA-E;SI-FANOUT-SW21_GroupA-E;SI-FANOUT-SW22_GroupA-E;SI-FANOUT-SW1_GroupA-E;FE-FANOUT-SW1_GroupA-E</t>
+  </si>
+  <si>
+    <t>SI-FANOUT-SW11_GroupF;SI-FANOUT-SW21_GroupF;SI-FANOUT-SW22_GroupF;FE-FANOUT-SW31_GroupF;FE-FANOUT-SW32_GroupF</t>
+  </si>
+  <si>
+    <t>SI-FANOUT-SW12_GroupF;SI-FANOUT-SW21_GroupF;SI-FANOUT-SW22_GroupF;FE-FANOUT-SW31_GroupF;FE-FANOUT-SW32_GroupF</t>
+  </si>
+  <si>
+    <t>SI-FANOUT-SW11_GroupF;SI-FANOUT-SW12_GroupF;SI-FANOUT-SW22_GroupF;FE-FANOUT-SW31_GroupF;FE-FANOUT-SW32_GroupF</t>
+  </si>
+  <si>
+    <t>SI-FANOUT-SW11_GroupF;SI-FANOUT-SW12_GroupF;SI-FANOUT-SW21_GroupF;FE-FANOUT-SW31_GroupF;FE-FANOUT-SW32_GroupF</t>
+  </si>
+  <si>
+    <t>SI-FANOUT-SW11_GroupF;SI-FANOUT-SW12_GroupF;SI-FANOUT-SW21_GroupF;SI-FANOUT-SW22_GroupF;FE-FANOUT-SW32_GroupF</t>
+  </si>
+  <si>
+    <t>SI-FANOUT-SW11_GroupF;SI-FANOUT-SW12_GroupF;SI-FANOUT-SW21_GroupF;SI-FANOUT-SW22_GroupF;FE-FANOUT-SW31_GroupF</t>
+  </si>
+  <si>
+    <t>SI-FANOUT-SW12_GroupG_Server;FE-FANOUT-SW32_GroupG_Server</t>
   </si>
 </sst>
 </file>
@@ -1730,7 +1991,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1771,12 +2032,6 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor theme="4"/>
       </patternFill>
     </fill>
     <fill>
@@ -1964,7 +2219,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1996,38 +2251,29 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="12" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="13" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="12" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="6" fillId="13" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="14" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="15" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="15" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="16" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="16" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="14" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="14" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="15" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="15" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="5" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -2036,13 +2282,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2453,8 +2702,8 @@
   </sheetPr>
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1875" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -2467,16 +2716,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="30.75" x14ac:dyDescent="0.9">
       <c r="A1" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="30.75" x14ac:dyDescent="0.9">
@@ -2487,10 +2736,10 @@
         <v>2</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="30.75" x14ac:dyDescent="0.9">
@@ -2504,7 +2753,7 @@
         <v>4</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="30.75" x14ac:dyDescent="0.9">
@@ -2512,13 +2761,13 @@
         <v>0</v>
       </c>
       <c r="B4" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="16" t="s">
-        <v>31</v>
-      </c>
       <c r="D4" s="16" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="30.75" x14ac:dyDescent="0.9">
@@ -2526,13 +2775,13 @@
         <v>0</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="30.75" x14ac:dyDescent="0.9">
@@ -2540,13 +2789,13 @@
         <v>0</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="30.75" x14ac:dyDescent="0.9">
@@ -2554,13 +2803,13 @@
         <v>0</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>221</v>
+        <v>180</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>220</v>
+        <v>179</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="30.75" x14ac:dyDescent="0.9">
@@ -2568,13 +2817,13 @@
         <v>0</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>223</v>
+        <v>182</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>224</v>
+        <v>183</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="30.75" x14ac:dyDescent="0.9">
@@ -2582,13 +2831,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>229</v>
+        <v>188</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>228</v>
+        <v>187</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="30.75" x14ac:dyDescent="0.9">
@@ -2596,13 +2845,13 @@
         <v>0</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="30.75" x14ac:dyDescent="0.9">
@@ -2610,13 +2859,13 @@
         <v>0</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>386</v>
+        <v>345</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>420</v>
+        <v>379</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="30.75" x14ac:dyDescent="0.9">
@@ -2624,69 +2873,69 @@
         <v>0</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>387</v>
+        <v>346</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>421</v>
+        <v>380</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="30.75" x14ac:dyDescent="0.9">
       <c r="A13" s="17" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>9</v>
-      </c>
       <c r="D13" s="16" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="30.75" x14ac:dyDescent="0.9">
       <c r="A14" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B14" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="21" t="s">
-        <v>96</v>
+        <v>0</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>487</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="30.75" x14ac:dyDescent="0.9">
       <c r="A15" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="C15" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="D15" s="21" t="s">
-        <v>63</v>
+        <v>0</v>
+      </c>
+      <c r="B15" s="27" t="s">
+        <v>457</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>455</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="30.75" x14ac:dyDescent="0.9">
       <c r="A16" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B16" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="C16" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="D16" s="25" t="s">
-        <v>75</v>
+        <v>0</v>
+      </c>
+      <c r="B16" s="27" t="s">
+        <v>458</v>
+      </c>
+      <c r="C16" s="28" t="s">
+        <v>456</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="30.75" x14ac:dyDescent="0.9">
@@ -2694,27 +2943,27 @@
         <v>0</v>
       </c>
       <c r="B17" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="37" t="s">
-        <v>97</v>
+      <c r="D17" s="34" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="30.75" x14ac:dyDescent="0.9">
-      <c r="A18" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="C18" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="D18" s="25" t="s">
-        <v>96</v>
+      <c r="A18" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -2732,8 +2981,8 @@
   </sheetPr>
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1875" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -2749,34 +2998,34 @@
   <sheetData>
     <row r="1" spans="1:10" ht="30.75" x14ac:dyDescent="0.9">
       <c r="A1" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>225</v>
+        <v>184</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>226</v>
+        <v>185</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>227</v>
+        <v>186</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="21" x14ac:dyDescent="0.65">
@@ -2794,14 +3043,14 @@
   </sheetPr>
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1875" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="31.8125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.3125" customWidth="1"/>
+    <col min="2" max="2" width="21.5" customWidth="1"/>
     <col min="4" max="8" width="28.5" customWidth="1"/>
     <col min="9" max="9" width="40.8125" customWidth="1"/>
     <col min="10" max="10" width="28.8125" customWidth="1"/>
@@ -2810,54 +3059,54 @@
   <sheetData>
     <row r="1" spans="1:12" ht="30.75" x14ac:dyDescent="0.9">
       <c r="A1" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>39</v>
+        <v>397</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="J1" s="12" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="K1" s="11" t="s">
-        <v>382</v>
+        <v>341</v>
       </c>
       <c r="L1" s="11" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="21" x14ac:dyDescent="0.65">
       <c r="A2" s="1" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="B2" t="s">
-        <v>307</v>
+        <v>266</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>414</v>
+        <v>373</v>
       </c>
       <c r="E2">
         <v>20</v>
@@ -2872,30 +3121,30 @@
         <v>1200</v>
       </c>
       <c r="I2" t="s">
-        <v>310</v>
+        <v>269</v>
       </c>
       <c r="J2" t="s">
-        <v>308</v>
+        <v>267</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>419</v>
+        <v>378</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="21" x14ac:dyDescent="0.65">
       <c r="A3" s="1" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="B3" t="s">
-        <v>311</v>
+        <v>270</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>415</v>
+        <v>374</v>
       </c>
       <c r="E3">
         <v>10</v>
@@ -2910,30 +3159,30 @@
         <v>1300</v>
       </c>
       <c r="I3" t="s">
-        <v>416</v>
+        <v>375</v>
       </c>
       <c r="J3" t="s">
-        <v>417</v>
+        <v>376</v>
       </c>
       <c r="K3">
         <v>2</v>
       </c>
       <c r="L3" t="s">
-        <v>419</v>
+        <v>378</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="21" x14ac:dyDescent="0.65">
       <c r="A4" s="1" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="B4" t="s">
-        <v>312</v>
+        <v>271</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>414</v>
+        <v>373</v>
       </c>
       <c r="E4">
         <v>20</v>
@@ -2948,30 +3197,30 @@
         <v>1300</v>
       </c>
       <c r="I4" t="s">
-        <v>416</v>
+        <v>375</v>
       </c>
       <c r="J4" t="s">
-        <v>417</v>
+        <v>376</v>
       </c>
       <c r="K4">
         <v>3</v>
       </c>
       <c r="L4" t="s">
-        <v>419</v>
+        <v>378</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="21" x14ac:dyDescent="0.65">
       <c r="A5" s="1" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="B5" t="s">
-        <v>313</v>
+        <v>272</v>
       </c>
       <c r="C5">
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>415</v>
+        <v>374</v>
       </c>
       <c r="E5">
         <v>20</v>
@@ -2986,24 +3235,24 @@
         <v>1300</v>
       </c>
       <c r="I5" t="s">
-        <v>416</v>
+        <v>375</v>
       </c>
       <c r="J5" t="s">
-        <v>418</v>
+        <v>377</v>
       </c>
       <c r="K5">
         <v>4</v>
       </c>
       <c r="L5" t="s">
-        <v>419</v>
+        <v>378</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="21" x14ac:dyDescent="0.65">
       <c r="A6" s="1" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="B6" t="s">
-        <v>314</v>
+        <v>273</v>
       </c>
       <c r="C6">
         <v>4</v>
@@ -3011,10 +3260,10 @@
     </row>
     <row r="7" spans="1:12" ht="21" x14ac:dyDescent="0.65">
       <c r="A7" s="1" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="B7" t="s">
-        <v>315</v>
+        <v>274</v>
       </c>
       <c r="C7">
         <v>5</v>
@@ -3022,10 +3271,10 @@
     </row>
     <row r="8" spans="1:12" ht="21" x14ac:dyDescent="0.65">
       <c r="A8" s="1" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="B8" t="s">
-        <v>316</v>
+        <v>275</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -3033,10 +3282,10 @@
     </row>
     <row r="9" spans="1:12" ht="21" x14ac:dyDescent="0.65">
       <c r="A9" s="1" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="B9" t="s">
-        <v>317</v>
+        <v>276</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -3044,10 +3293,10 @@
     </row>
     <row r="10" spans="1:12" ht="21" x14ac:dyDescent="0.65">
       <c r="A10" s="1" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="B10" t="s">
-        <v>318</v>
+        <v>277</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -3055,10 +3304,10 @@
     </row>
     <row r="11" spans="1:12" ht="21" x14ac:dyDescent="0.65">
       <c r="A11" s="1" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="B11" t="s">
-        <v>319</v>
+        <v>278</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -3066,10 +3315,10 @@
     </row>
     <row r="12" spans="1:12" ht="21" x14ac:dyDescent="0.65">
       <c r="A12" s="1" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="B12" t="s">
-        <v>320</v>
+        <v>279</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -3077,10 +3326,10 @@
     </row>
     <row r="13" spans="1:12" ht="21" x14ac:dyDescent="0.65">
       <c r="A13" s="1" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="B13" t="s">
-        <v>321</v>
+        <v>280</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -3088,10 +3337,10 @@
     </row>
     <row r="14" spans="1:12" ht="21" x14ac:dyDescent="0.65">
       <c r="A14" s="1" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="B14" t="s">
-        <v>322</v>
+        <v>281</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -3099,10 +3348,10 @@
     </row>
     <row r="15" spans="1:12" ht="21" x14ac:dyDescent="0.65">
       <c r="A15" s="1" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="B15" t="s">
-        <v>323</v>
+        <v>282</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -3110,10 +3359,10 @@
     </row>
     <row r="16" spans="1:12" ht="21" x14ac:dyDescent="0.65">
       <c r="A16" s="1" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="B16" t="s">
-        <v>324</v>
+        <v>283</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -3121,10 +3370,10 @@
     </row>
     <row r="17" spans="1:3" ht="21" x14ac:dyDescent="0.65">
       <c r="A17" s="1" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="B17" t="s">
-        <v>325</v>
+        <v>284</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -3132,10 +3381,10 @@
     </row>
     <row r="18" spans="1:3" ht="21" x14ac:dyDescent="0.65">
       <c r="A18" s="1" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="B18" t="s">
-        <v>326</v>
+        <v>285</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -3143,10 +3392,10 @@
     </row>
     <row r="19" spans="1:3" ht="21" x14ac:dyDescent="0.65">
       <c r="A19" s="1" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="B19" t="s">
-        <v>327</v>
+        <v>286</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -3154,10 +3403,10 @@
     </row>
     <row r="20" spans="1:3" ht="21" x14ac:dyDescent="0.65">
       <c r="A20" s="1" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="B20" t="s">
-        <v>328</v>
+        <v>287</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -3165,76 +3414,76 @@
     </row>
     <row r="21" spans="1:3" ht="21" x14ac:dyDescent="0.65">
       <c r="A21" s="1" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="B21" t="s">
-        <v>329</v>
+        <v>288</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="21" x14ac:dyDescent="0.65">
-      <c r="A22" s="34" t="s">
-        <v>191</v>
+      <c r="A22" s="31" t="s">
+        <v>172</v>
       </c>
       <c r="B22" t="s">
-        <v>330</v>
+        <v>289</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="21" x14ac:dyDescent="0.65">
-      <c r="A23" s="34" t="s">
-        <v>192</v>
+      <c r="A23" s="31" t="s">
+        <v>173</v>
       </c>
       <c r="B23" t="s">
-        <v>331</v>
+        <v>290</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="21" x14ac:dyDescent="0.65">
-      <c r="A24" s="34" t="s">
-        <v>193</v>
+      <c r="A24" s="31" t="s">
+        <v>174</v>
       </c>
       <c r="B24" t="s">
-        <v>332</v>
+        <v>291</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="21" x14ac:dyDescent="0.65">
-      <c r="A25" s="34" t="s">
-        <v>194</v>
+      <c r="A25" s="31" t="s">
+        <v>175</v>
       </c>
       <c r="B25" t="s">
-        <v>333</v>
+        <v>292</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="21" x14ac:dyDescent="0.65">
-      <c r="A26" s="34" t="s">
-        <v>195</v>
+      <c r="A26" s="31" t="s">
+        <v>176</v>
       </c>
       <c r="B26" t="s">
-        <v>334</v>
+        <v>293</v>
       </c>
       <c r="C26">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="21" x14ac:dyDescent="0.65">
-      <c r="A27" s="34" t="s">
-        <v>196</v>
+      <c r="A27" s="31" t="s">
+        <v>177</v>
       </c>
       <c r="B27" t="s">
-        <v>335</v>
+        <v>294</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -3242,10 +3491,10 @@
     </row>
     <row r="28" spans="1:3" ht="21" x14ac:dyDescent="0.65">
       <c r="A28" s="1" t="s">
-        <v>245</v>
+        <v>204</v>
       </c>
       <c r="B28" t="s">
-        <v>336</v>
+        <v>295</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -3253,10 +3502,10 @@
     </row>
     <row r="29" spans="1:3" ht="21" x14ac:dyDescent="0.65">
       <c r="A29" s="1" t="s">
-        <v>246</v>
+        <v>205</v>
       </c>
       <c r="B29" t="s">
-        <v>337</v>
+        <v>296</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -3275,14 +3524,14 @@
   </sheetPr>
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1875" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="31.8125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.3125" customWidth="1"/>
+    <col min="1" max="1" width="47.9375" customWidth="1"/>
+    <col min="2" max="2" width="23.6875" customWidth="1"/>
     <col min="4" max="7" width="28.5" customWidth="1"/>
     <col min="8" max="8" width="28.8125" customWidth="1"/>
     <col min="9" max="9" width="33.9375" customWidth="1"/>
@@ -3291,51 +3540,51 @@
   <sheetData>
     <row r="1" spans="1:11" ht="30.75" x14ac:dyDescent="0.9">
       <c r="A1" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>39</v>
+        <v>397</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>385</v>
+        <v>344</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>384</v>
+        <v>343</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>383</v>
+        <v>342</v>
       </c>
       <c r="K1" s="11" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="21" x14ac:dyDescent="0.65">
       <c r="A2" s="1" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="B2" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>414</v>
+        <v>373</v>
       </c>
       <c r="E2">
         <v>20</v>
@@ -3347,30 +3596,30 @@
         <v>30</v>
       </c>
       <c r="H2" t="s">
-        <v>308</v>
+        <v>267</v>
       </c>
       <c r="I2" t="s">
-        <v>422</v>
+        <v>381</v>
       </c>
       <c r="J2">
         <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>419</v>
+        <v>378</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="21" x14ac:dyDescent="0.65">
       <c r="A3" s="1" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="B3" t="s">
-        <v>288</v>
+        <v>247</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>415</v>
+        <v>374</v>
       </c>
       <c r="E3">
         <v>10</v>
@@ -3382,27 +3631,27 @@
         <v>30</v>
       </c>
       <c r="H3" t="s">
-        <v>417</v>
+        <v>376</v>
       </c>
       <c r="J3">
         <v>2</v>
       </c>
       <c r="K3" t="s">
-        <v>419</v>
+        <v>378</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="21" x14ac:dyDescent="0.65">
       <c r="A4" s="1" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="B4" t="s">
-        <v>388</v>
+        <v>347</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>414</v>
+        <v>373</v>
       </c>
       <c r="E4">
         <v>20</v>
@@ -3414,27 +3663,27 @@
         <v>30</v>
       </c>
       <c r="H4" t="s">
-        <v>418</v>
+        <v>377</v>
       </c>
       <c r="J4">
         <v>3</v>
       </c>
       <c r="K4" t="s">
-        <v>419</v>
+        <v>378</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="21" x14ac:dyDescent="0.65">
       <c r="A5" s="1" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="B5" t="s">
-        <v>389</v>
+        <v>348</v>
       </c>
       <c r="C5">
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>415</v>
+        <v>374</v>
       </c>
       <c r="E5">
         <v>20</v>
@@ -3446,21 +3695,21 @@
         <v>30</v>
       </c>
       <c r="H5" t="s">
-        <v>417</v>
+        <v>376</v>
       </c>
       <c r="J5">
         <v>4</v>
       </c>
       <c r="K5" t="s">
-        <v>419</v>
+        <v>378</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="21" x14ac:dyDescent="0.65">
       <c r="A6" s="1" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="B6" t="s">
-        <v>390</v>
+        <v>349</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -3468,10 +3717,10 @@
     </row>
     <row r="7" spans="1:11" ht="21" x14ac:dyDescent="0.65">
       <c r="A7" s="1" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="B7" t="s">
-        <v>391</v>
+        <v>350</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -3479,10 +3728,10 @@
     </row>
     <row r="8" spans="1:11" ht="21" x14ac:dyDescent="0.65">
       <c r="A8" s="1" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="B8" t="s">
-        <v>392</v>
+        <v>351</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -3490,10 +3739,10 @@
     </row>
     <row r="9" spans="1:11" ht="21" x14ac:dyDescent="0.65">
       <c r="A9" s="1" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="B9" t="s">
-        <v>393</v>
+        <v>352</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -3501,10 +3750,10 @@
     </row>
     <row r="10" spans="1:11" ht="21" x14ac:dyDescent="0.65">
       <c r="A10" s="1" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="B10" t="s">
-        <v>394</v>
+        <v>353</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -3512,10 +3761,10 @@
     </row>
     <row r="11" spans="1:11" ht="21" x14ac:dyDescent="0.65">
       <c r="A11" s="1" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="B11" t="s">
-        <v>395</v>
+        <v>354</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -3523,10 +3772,10 @@
     </row>
     <row r="12" spans="1:11" ht="21" x14ac:dyDescent="0.65">
       <c r="A12" s="1" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="B12" t="s">
-        <v>396</v>
+        <v>355</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -3534,10 +3783,10 @@
     </row>
     <row r="13" spans="1:11" ht="21" x14ac:dyDescent="0.65">
       <c r="A13" s="1" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="B13" t="s">
-        <v>397</v>
+        <v>356</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -3545,10 +3794,10 @@
     </row>
     <row r="14" spans="1:11" ht="21" x14ac:dyDescent="0.65">
       <c r="A14" s="1" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="B14" t="s">
-        <v>398</v>
+        <v>357</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -3556,10 +3805,10 @@
     </row>
     <row r="15" spans="1:11" ht="21" x14ac:dyDescent="0.65">
       <c r="A15" s="1" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="B15" t="s">
-        <v>399</v>
+        <v>358</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -3567,10 +3816,10 @@
     </row>
     <row r="16" spans="1:11" ht="21" x14ac:dyDescent="0.65">
       <c r="A16" s="1" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="B16" t="s">
-        <v>400</v>
+        <v>359</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -3578,10 +3827,10 @@
     </row>
     <row r="17" spans="1:3" ht="21" x14ac:dyDescent="0.65">
       <c r="A17" s="1" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="B17" t="s">
-        <v>401</v>
+        <v>360</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -3589,10 +3838,10 @@
     </row>
     <row r="18" spans="1:3" ht="21" x14ac:dyDescent="0.65">
       <c r="A18" s="1" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="B18" t="s">
-        <v>402</v>
+        <v>361</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -3600,10 +3849,10 @@
     </row>
     <row r="19" spans="1:3" ht="21" x14ac:dyDescent="0.65">
       <c r="A19" s="1" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="B19" t="s">
-        <v>403</v>
+        <v>362</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -3611,10 +3860,10 @@
     </row>
     <row r="20" spans="1:3" ht="21" x14ac:dyDescent="0.65">
       <c r="A20" s="1" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="B20" t="s">
-        <v>404</v>
+        <v>363</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -3622,76 +3871,76 @@
     </row>
     <row r="21" spans="1:3" ht="21" x14ac:dyDescent="0.65">
       <c r="A21" s="1" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="B21" t="s">
-        <v>405</v>
+        <v>364</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="21" x14ac:dyDescent="0.65">
-      <c r="A22" s="34" t="s">
-        <v>191</v>
+      <c r="A22" s="31" t="s">
+        <v>172</v>
       </c>
       <c r="B22" t="s">
-        <v>406</v>
+        <v>365</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="21" x14ac:dyDescent="0.65">
-      <c r="A23" s="34" t="s">
-        <v>192</v>
+      <c r="A23" s="31" t="s">
+        <v>173</v>
       </c>
       <c r="B23" t="s">
-        <v>407</v>
+        <v>366</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="21" x14ac:dyDescent="0.65">
-      <c r="A24" s="34" t="s">
-        <v>193</v>
+      <c r="A24" s="31" t="s">
+        <v>174</v>
       </c>
       <c r="B24" t="s">
-        <v>408</v>
+        <v>367</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="21" x14ac:dyDescent="0.65">
-      <c r="A25" s="34" t="s">
-        <v>194</v>
+      <c r="A25" s="31" t="s">
+        <v>175</v>
       </c>
       <c r="B25" t="s">
-        <v>409</v>
+        <v>368</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="21" x14ac:dyDescent="0.65">
-      <c r="A26" s="34" t="s">
-        <v>195</v>
+      <c r="A26" s="31" t="s">
+        <v>176</v>
       </c>
       <c r="B26" t="s">
-        <v>410</v>
+        <v>369</v>
       </c>
       <c r="C26">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="21" x14ac:dyDescent="0.65">
-      <c r="A27" s="34" t="s">
-        <v>196</v>
+      <c r="A27" s="31" t="s">
+        <v>177</v>
       </c>
       <c r="B27" t="s">
-        <v>411</v>
+        <v>370</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -3699,10 +3948,10 @@
     </row>
     <row r="28" spans="1:3" ht="21" x14ac:dyDescent="0.65">
       <c r="A28" s="1" t="s">
-        <v>245</v>
+        <v>204</v>
       </c>
       <c r="B28" t="s">
-        <v>412</v>
+        <v>371</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -3710,10 +3959,10 @@
     </row>
     <row r="29" spans="1:3" ht="21" x14ac:dyDescent="0.65">
       <c r="A29" s="1" t="s">
-        <v>246</v>
+        <v>205</v>
       </c>
       <c r="B29" t="s">
-        <v>413</v>
+        <v>372</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -3731,63 +3980,647 @@
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="A6" sqref="A6:A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1875" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="27.3125" customWidth="1"/>
-    <col min="2" max="2" width="30.5" customWidth="1"/>
-    <col min="3" max="3" width="36.3125" customWidth="1"/>
+    <col min="1" max="1" width="34.5" customWidth="1"/>
+    <col min="2" max="2" width="36.3125" customWidth="1"/>
+    <col min="3" max="3" width="42.5625" customWidth="1"/>
     <col min="4" max="4" width="29.8125" customWidth="1"/>
-    <col min="5" max="5" width="38.8125" customWidth="1"/>
-    <col min="6" max="6" width="27" customWidth="1"/>
-    <col min="7" max="7" width="21.5" customWidth="1"/>
-    <col min="8" max="9" width="30.5" customWidth="1"/>
-    <col min="10" max="10" width="23" customWidth="1"/>
-    <col min="11" max="11" width="24" customWidth="1"/>
-    <col min="12" max="12" width="12.8125" customWidth="1"/>
+    <col min="5" max="9" width="38.8125" customWidth="1"/>
+    <col min="10" max="10" width="27" customWidth="1"/>
+    <col min="11" max="12" width="21.5" customWidth="1"/>
+    <col min="13" max="13" width="36.75" customWidth="1"/>
+    <col min="14" max="15" width="38.375" customWidth="1"/>
+    <col min="16" max="16" width="27.375" customWidth="1"/>
+    <col min="17" max="18" width="38.75" customWidth="1"/>
+    <col min="19" max="19" width="34.25" customWidth="1"/>
+    <col min="20" max="20" width="12.8125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="30.75" x14ac:dyDescent="0.9">
+    <row r="1" spans="1:20" ht="30.75" x14ac:dyDescent="0.9">
       <c r="A1" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="C1" s="33" t="s">
-        <v>88</v>
-      </c>
-      <c r="D1" s="32" t="s">
-        <v>89</v>
-      </c>
-      <c r="E1" s="32" t="s">
-        <v>90</v>
-      </c>
-      <c r="F1" s="32" t="s">
-        <v>79</v>
+        <v>32</v>
+      </c>
+      <c r="B1" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="43" t="s">
+        <v>408</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>398</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1" s="30" t="s">
+        <v>399</v>
       </c>
       <c r="G1" s="30" t="s">
-        <v>91</v>
+        <v>400</v>
       </c>
       <c r="H1" s="30" t="s">
-        <v>93</v>
+        <v>401</v>
       </c>
       <c r="I1" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="J1" s="32" t="s">
-        <v>92</v>
-      </c>
-      <c r="K1" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="L1" s="11" t="s">
-        <v>45</v>
+        <v>402</v>
+      </c>
+      <c r="J1" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="K1" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="L1" s="29" t="s">
+        <v>411</v>
+      </c>
+      <c r="M1" s="29" t="s">
+        <v>403</v>
+      </c>
+      <c r="N1" s="29" t="s">
+        <v>404</v>
+      </c>
+      <c r="O1" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="P1" s="30" t="s">
+        <v>405</v>
+      </c>
+      <c r="Q1" s="30" t="s">
+        <v>406</v>
+      </c>
+      <c r="R1" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="S1" s="11" t="s">
+        <v>407</v>
+      </c>
+      <c r="T1" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="21" x14ac:dyDescent="0.65">
+      <c r="A2" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>30</v>
+      </c>
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>9001</v>
+      </c>
+      <c r="I2">
+        <v>10</v>
+      </c>
+      <c r="J2" t="s">
+        <v>373</v>
+      </c>
+      <c r="K2" t="s">
+        <v>409</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>10</v>
+      </c>
+      <c r="N2">
+        <v>30</v>
+      </c>
+      <c r="O2" t="b">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>3</v>
+      </c>
+      <c r="Q2">
+        <v>20</v>
+      </c>
+      <c r="R2">
+        <v>30</v>
+      </c>
+      <c r="S2" t="s">
+        <v>412</v>
+      </c>
+      <c r="T2" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="21" x14ac:dyDescent="0.65">
+      <c r="A3" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B3">
+        <v>20</v>
+      </c>
+      <c r="C3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>20</v>
+      </c>
+      <c r="F3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>8001</v>
+      </c>
+      <c r="I3">
+        <v>20</v>
+      </c>
+      <c r="J3" t="s">
+        <v>374</v>
+      </c>
+      <c r="K3" t="s">
+        <v>410</v>
+      </c>
+      <c r="L3">
+        <v>2</v>
+      </c>
+      <c r="M3">
+        <v>20</v>
+      </c>
+      <c r="N3">
+        <v>40</v>
+      </c>
+      <c r="O3" t="b">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>4</v>
+      </c>
+      <c r="Q3">
+        <v>30</v>
+      </c>
+      <c r="R3">
+        <v>40</v>
+      </c>
+      <c r="S3" t="s">
+        <v>377</v>
+      </c>
+      <c r="T3" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="21" x14ac:dyDescent="0.65">
+      <c r="A4" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B4">
+        <v>30</v>
+      </c>
+      <c r="C4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>40</v>
+      </c>
+      <c r="F4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>7001</v>
+      </c>
+      <c r="I4">
+        <v>30</v>
+      </c>
+      <c r="J4" t="s">
+        <v>373</v>
+      </c>
+      <c r="K4" t="s">
+        <v>409</v>
+      </c>
+      <c r="L4">
+        <v>3</v>
+      </c>
+      <c r="M4">
+        <v>20</v>
+      </c>
+      <c r="N4">
+        <v>50</v>
+      </c>
+      <c r="O4" t="b">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>5</v>
+      </c>
+      <c r="Q4">
+        <v>40</v>
+      </c>
+      <c r="R4">
+        <v>50</v>
+      </c>
+      <c r="S4" t="s">
+        <v>376</v>
+      </c>
+      <c r="T4" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="21" x14ac:dyDescent="0.65">
+      <c r="A5" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B5">
+        <v>40</v>
+      </c>
+      <c r="C5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>50</v>
+      </c>
+      <c r="F5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>6001</v>
+      </c>
+      <c r="I5">
+        <v>40</v>
+      </c>
+      <c r="J5" t="s">
+        <v>374</v>
+      </c>
+      <c r="K5" t="s">
+        <v>410</v>
+      </c>
+      <c r="L5">
+        <v>4</v>
+      </c>
+      <c r="M5">
+        <v>30</v>
+      </c>
+      <c r="N5">
+        <v>60</v>
+      </c>
+      <c r="O5" t="b">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>6</v>
+      </c>
+      <c r="Q5">
+        <v>50</v>
+      </c>
+      <c r="R5">
+        <v>60</v>
+      </c>
+      <c r="S5" t="s">
+        <v>412</v>
+      </c>
+      <c r="T5" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="21" x14ac:dyDescent="0.65">
+      <c r="A6" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B6">
+        <v>50</v>
+      </c>
+      <c r="C6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>60</v>
+      </c>
+      <c r="F6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>5001</v>
+      </c>
+      <c r="I6">
+        <v>50</v>
+      </c>
+      <c r="J6" t="s">
+        <v>373</v>
+      </c>
+      <c r="K6" t="s">
+        <v>409</v>
+      </c>
+      <c r="L6">
+        <v>5</v>
+      </c>
+      <c r="M6">
+        <v>40</v>
+      </c>
+      <c r="N6">
+        <v>70</v>
+      </c>
+      <c r="O6" t="b">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>7</v>
+      </c>
+      <c r="Q6">
+        <v>60</v>
+      </c>
+      <c r="R6">
+        <v>30</v>
+      </c>
+      <c r="S6" t="s">
+        <v>377</v>
+      </c>
+      <c r="T6" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="21" x14ac:dyDescent="0.65">
+      <c r="A7" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B7">
+        <v>60</v>
+      </c>
+      <c r="C7" t="b">
+        <v>0</v>
+      </c>
+      <c r="D7" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>70</v>
+      </c>
+      <c r="F7" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>9001</v>
+      </c>
+      <c r="I7">
+        <v>10</v>
+      </c>
+      <c r="J7" t="s">
+        <v>374</v>
+      </c>
+      <c r="K7" t="s">
+        <v>410</v>
+      </c>
+      <c r="L7">
+        <v>6</v>
+      </c>
+      <c r="M7">
+        <v>50</v>
+      </c>
+      <c r="N7">
+        <v>40</v>
+      </c>
+      <c r="O7" t="b">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>8</v>
+      </c>
+      <c r="Q7">
+        <v>20</v>
+      </c>
+      <c r="R7">
+        <v>40</v>
+      </c>
+      <c r="S7" t="s">
+        <v>376</v>
+      </c>
+      <c r="T7" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="21" x14ac:dyDescent="0.65">
+      <c r="A8" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B8">
+        <v>10</v>
+      </c>
+      <c r="C8" t="b">
+        <v>1</v>
+      </c>
+      <c r="D8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>30</v>
+      </c>
+      <c r="F8" t="b">
+        <v>1</v>
+      </c>
+      <c r="G8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>8001</v>
+      </c>
+      <c r="I8">
+        <v>20</v>
+      </c>
+      <c r="J8" t="s">
+        <v>373</v>
+      </c>
+      <c r="K8" t="s">
+        <v>409</v>
+      </c>
+      <c r="L8">
+        <v>7</v>
+      </c>
+      <c r="M8">
+        <v>20</v>
+      </c>
+      <c r="N8">
+        <v>50</v>
+      </c>
+      <c r="O8" t="b">
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <v>4</v>
+      </c>
+      <c r="Q8">
+        <v>30</v>
+      </c>
+      <c r="R8">
+        <v>50</v>
+      </c>
+      <c r="S8" t="s">
+        <v>412</v>
+      </c>
+      <c r="T8" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="21" x14ac:dyDescent="0.65">
+      <c r="A9" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B9">
+        <v>20</v>
+      </c>
+      <c r="C9" t="b">
+        <v>0</v>
+      </c>
+      <c r="D9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>40</v>
+      </c>
+      <c r="F9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>7001</v>
+      </c>
+      <c r="I9">
+        <v>30</v>
+      </c>
+      <c r="J9" t="s">
+        <v>374</v>
+      </c>
+      <c r="K9" t="s">
+        <v>410</v>
+      </c>
+      <c r="L9">
+        <v>8</v>
+      </c>
+      <c r="M9">
+        <v>30</v>
+      </c>
+      <c r="N9">
+        <v>60</v>
+      </c>
+      <c r="O9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>5</v>
+      </c>
+      <c r="Q9">
+        <v>40</v>
+      </c>
+      <c r="R9">
+        <v>60</v>
+      </c>
+      <c r="S9" t="s">
+        <v>377</v>
+      </c>
+      <c r="T9" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="21" x14ac:dyDescent="0.65">
+      <c r="A10" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B10">
+        <v>30</v>
+      </c>
+      <c r="C10" t="b">
+        <v>1</v>
+      </c>
+      <c r="D10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>50</v>
+      </c>
+      <c r="F10" t="b">
+        <v>1</v>
+      </c>
+      <c r="G10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>6001</v>
+      </c>
+      <c r="I10">
+        <v>40</v>
+      </c>
+      <c r="J10" t="s">
+        <v>373</v>
+      </c>
+      <c r="K10" t="s">
+        <v>409</v>
+      </c>
+      <c r="L10">
+        <v>9</v>
+      </c>
+      <c r="M10">
+        <v>40</v>
+      </c>
+      <c r="N10">
+        <v>70</v>
+      </c>
+      <c r="O10" t="b">
+        <v>1</v>
+      </c>
+      <c r="P10">
+        <v>6</v>
+      </c>
+      <c r="Q10">
+        <v>50</v>
+      </c>
+      <c r="R10">
+        <v>70</v>
+      </c>
+      <c r="S10" t="s">
+        <v>376</v>
+      </c>
+      <c r="T10" t="s">
+        <v>415</v>
       </c>
     </row>
   </sheetData>
@@ -3800,10 +4633,10 @@
   <sheetPr>
     <tabColor theme="7" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G3"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1875" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -3811,54 +4644,255 @@
     <col min="1" max="2" width="33" customWidth="1"/>
     <col min="3" max="3" width="18.5" customWidth="1"/>
     <col min="4" max="4" width="20.3125" customWidth="1"/>
-    <col min="6" max="6" width="31.3125" customWidth="1"/>
-    <col min="7" max="7" width="20.3125" customWidth="1"/>
-    <col min="8" max="8" width="42.5" customWidth="1"/>
-    <col min="11" max="11" width="24.8125" customWidth="1"/>
+    <col min="5" max="5" width="16.75" customWidth="1"/>
+    <col min="6" max="10" width="31.3125" customWidth="1"/>
+    <col min="11" max="11" width="20.3125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="30.75" x14ac:dyDescent="0.9">
       <c r="A1" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>230</v>
+        <v>189</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>34</v>
+        <v>462</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>47</v>
+        <v>459</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>48</v>
+        <v>464</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="H1" s="31" t="s">
-        <v>85</v>
-      </c>
-      <c r="I1" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="J1" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="K1" s="31" t="s">
-        <v>86</v>
+        <v>463</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>465</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>466</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>461</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="21" x14ac:dyDescent="0.65">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
+      <c r="A2" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" t="s">
+        <v>468</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>474</v>
+      </c>
+      <c r="F2" t="s">
+        <v>476</v>
+      </c>
+      <c r="G2" t="s">
+        <v>482</v>
+      </c>
+      <c r="H2">
+        <v>32</v>
+      </c>
+      <c r="I2">
+        <v>64</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2" t="s">
+        <v>441</v>
+      </c>
     </row>
     <row r="3" spans="1:11" ht="21" x14ac:dyDescent="0.65">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
+      <c r="A3" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="C3" t="s">
+        <v>469</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>472</v>
+      </c>
+      <c r="F3" t="s">
+        <v>477</v>
+      </c>
+      <c r="G3" t="s">
+        <v>478</v>
+      </c>
+      <c r="H3">
+        <v>24</v>
+      </c>
+      <c r="I3">
+        <v>128</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
+      <c r="K3" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="21" x14ac:dyDescent="0.65">
+      <c r="A4" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" t="s">
+        <v>470</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>471</v>
+      </c>
+      <c r="F4" t="s">
+        <v>482</v>
+      </c>
+      <c r="G4" t="s">
+        <v>479</v>
+      </c>
+      <c r="H4">
+        <v>24</v>
+      </c>
+      <c r="I4">
+        <v>64</v>
+      </c>
+      <c r="J4">
+        <v>3</v>
+      </c>
+      <c r="K4" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="21" x14ac:dyDescent="0.65">
+      <c r="A5" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C5" t="s">
+        <v>468</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>473</v>
+      </c>
+      <c r="F5" t="s">
+        <v>482</v>
+      </c>
+      <c r="G5" t="s">
+        <v>480</v>
+      </c>
+      <c r="H5">
+        <v>32</v>
+      </c>
+      <c r="I5">
+        <v>128</v>
+      </c>
+      <c r="J5">
+        <v>4</v>
+      </c>
+      <c r="K5" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="21" x14ac:dyDescent="0.65">
+      <c r="A6" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="C6" t="s">
+        <v>469</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>475</v>
+      </c>
+      <c r="F6" t="s">
+        <v>483</v>
+      </c>
+      <c r="G6" t="s">
+        <v>484</v>
+      </c>
+      <c r="H6">
+        <v>24</v>
+      </c>
+      <c r="I6">
+        <v>64</v>
+      </c>
+      <c r="J6">
+        <v>5</v>
+      </c>
+      <c r="K6" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="21" x14ac:dyDescent="0.65">
+      <c r="A7" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" t="s">
+        <v>470</v>
+      </c>
+      <c r="D7">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>471</v>
+      </c>
+      <c r="F7" t="s">
+        <v>481</v>
+      </c>
+      <c r="G7" t="s">
+        <v>482</v>
+      </c>
+      <c r="H7">
+        <v>32</v>
+      </c>
+      <c r="I7">
+        <v>128</v>
+      </c>
+      <c r="J7">
+        <v>6</v>
+      </c>
+      <c r="K7" t="s">
+        <v>486</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3867,28 +4901,368 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3896283-34F3-AB41-894D-003D59D0ADEE}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R39" sqref="R39"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1875" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="36.9375" customWidth="1"/>
+    <col min="2" max="2" width="23.75" customWidth="1"/>
+    <col min="3" max="3" width="37.6875" customWidth="1"/>
+    <col min="4" max="4" width="36.5625" customWidth="1"/>
+    <col min="5" max="11" width="34.8125" customWidth="1"/>
+    <col min="12" max="12" width="37.3125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="30.75" x14ac:dyDescent="0.9">
+      <c r="A1" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>417</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>418</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>419</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>420</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>421</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>422</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>423</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>424</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>425</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>426</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="21" x14ac:dyDescent="0.65">
+      <c r="A2" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B2" t="s">
+        <v>434</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>437</v>
+      </c>
+      <c r="F2" t="s">
+        <v>441</v>
+      </c>
+      <c r="G2">
+        <v>10</v>
+      </c>
+      <c r="H2" t="s">
+        <v>445</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s">
+        <v>447</v>
+      </c>
+      <c r="K2" t="s">
+        <v>451</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="21" x14ac:dyDescent="0.65">
+      <c r="A3" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B3" t="s">
+        <v>435</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>438</v>
+      </c>
+      <c r="F3" t="s">
+        <v>442</v>
+      </c>
+      <c r="G3">
+        <v>11</v>
+      </c>
+      <c r="H3" t="s">
+        <v>446</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="J3" t="s">
+        <v>448</v>
+      </c>
+      <c r="K3" t="s">
+        <v>452</v>
+      </c>
+      <c r="L3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="21" x14ac:dyDescent="0.65">
+      <c r="A4" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B4" t="s">
+        <v>436</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>439</v>
+      </c>
+      <c r="F4" t="s">
+        <v>443</v>
+      </c>
+      <c r="G4">
+        <v>12</v>
+      </c>
+      <c r="H4" t="s">
+        <v>445</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
+      <c r="J4" t="s">
+        <v>449</v>
+      </c>
+      <c r="K4" t="s">
+        <v>453</v>
+      </c>
+      <c r="L4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="21" x14ac:dyDescent="0.65">
+      <c r="A5" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B5" t="s">
+        <v>435</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>440</v>
+      </c>
+      <c r="F5" t="s">
+        <v>444</v>
+      </c>
+      <c r="G5">
+        <v>13</v>
+      </c>
+      <c r="H5" t="s">
+        <v>446</v>
+      </c>
+      <c r="I5">
+        <v>4</v>
+      </c>
+      <c r="J5" t="s">
+        <v>450</v>
+      </c>
+      <c r="K5" t="s">
+        <v>454</v>
+      </c>
+      <c r="L5">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{523580F9-28C2-7B4E-B104-7491CDA3D7B9}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S37" sqref="S37"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1875" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="37.3125" customWidth="1"/>
+    <col min="2" max="2" width="18.5" customWidth="1"/>
+    <col min="3" max="3" width="28.9375" customWidth="1"/>
+    <col min="4" max="4" width="25.75" customWidth="1"/>
+    <col min="5" max="5" width="22.9375" customWidth="1"/>
+    <col min="6" max="6" width="21.6875" customWidth="1"/>
+    <col min="7" max="7" width="44.8125" customWidth="1"/>
+    <col min="8" max="8" width="38.8125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="30.75" x14ac:dyDescent="0.9">
+      <c r="A1" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>417</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>428</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>429</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>430</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>431</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>432</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.65">
+      <c r="A2" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B2" t="s">
+        <v>434</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>125</v>
+      </c>
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <v>10000</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.65">
+      <c r="A3" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B3" t="s">
+        <v>435</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>126</v>
+      </c>
+      <c r="E3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+      <c r="G3">
+        <v>11000</v>
+      </c>
+      <c r="H3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="21" x14ac:dyDescent="0.65">
+      <c r="A4" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B4" t="s">
+        <v>436</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>127</v>
+      </c>
+      <c r="E4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>4</v>
+      </c>
+      <c r="G4">
+        <v>12000</v>
+      </c>
+      <c r="H4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="21" x14ac:dyDescent="0.65">
+      <c r="A5" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B5" t="s">
+        <v>434</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>128</v>
+      </c>
+      <c r="E5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="G5">
+        <v>13000</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3901,7 +5275,7 @@
   <dimension ref="A1:H53"/>
   <sheetViews>
     <sheetView zoomScale="99" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1875" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -3918,45 +5292,45 @@
   <sheetData>
     <row r="1" spans="1:8" ht="30.75" x14ac:dyDescent="0.9">
       <c r="A1" s="9" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="F1" s="38" t="s">
-        <v>55</v>
+        <v>53</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>48</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="H1" s="20" t="s">
-        <v>58</v>
+        <v>49</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.65">
       <c r="A2" s="1" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="B2" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="E2" t="s">
-        <v>197</v>
+        <v>488</v>
       </c>
       <c r="F2">
         <v>1000</v>
@@ -3964,25 +5338,25 @@
       <c r="G2">
         <v>128</v>
       </c>
-      <c r="H2" s="36" t="s">
-        <v>170</v>
+      <c r="H2" s="33" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.65">
       <c r="A3" s="1" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="B3" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="E3" t="s">
-        <v>198</v>
+        <v>489</v>
       </c>
       <c r="F3">
         <v>1000</v>
@@ -3990,25 +5364,25 @@
       <c r="G3">
         <v>128</v>
       </c>
-      <c r="H3" s="36" t="s">
-        <v>170</v>
+      <c r="H3" s="33" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="21" x14ac:dyDescent="0.65">
       <c r="A4" s="1" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="B4" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="C4" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="E4" t="s">
-        <v>199</v>
+        <v>490</v>
       </c>
       <c r="F4">
         <v>1000</v>
@@ -4016,25 +5390,25 @@
       <c r="G4">
         <v>128</v>
       </c>
-      <c r="H4" s="36" t="s">
-        <v>170</v>
+      <c r="H4" s="33" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="21" x14ac:dyDescent="0.65">
       <c r="A5" s="1" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="B5" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="C5" t="s">
         <v>0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="E5" t="s">
-        <v>200</v>
+        <v>491</v>
       </c>
       <c r="F5">
         <v>1000</v>
@@ -4042,25 +5416,25 @@
       <c r="G5">
         <v>128</v>
       </c>
-      <c r="H5" s="36" t="s">
-        <v>170</v>
+      <c r="H5" s="33" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="21" x14ac:dyDescent="0.65">
       <c r="A6" s="1" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="B6" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="C6" t="s">
         <v>0</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="E6" t="s">
-        <v>201</v>
+        <v>492</v>
       </c>
       <c r="F6">
         <v>1000</v>
@@ -4068,25 +5442,25 @@
       <c r="G6">
         <v>128</v>
       </c>
-      <c r="H6" s="36" t="s">
-        <v>170</v>
+      <c r="H6" s="33" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="21" x14ac:dyDescent="0.65">
       <c r="A7" s="1" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="B7" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="C7" t="s">
         <v>0</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="E7" t="s">
-        <v>202</v>
+        <v>493</v>
       </c>
       <c r="F7">
         <v>1000</v>
@@ -4094,25 +5468,25 @@
       <c r="G7">
         <v>128</v>
       </c>
-      <c r="H7" s="36" t="s">
-        <v>170</v>
+      <c r="H7" s="33" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="21" x14ac:dyDescent="0.65">
       <c r="A8" s="1" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="B8" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="C8" t="s">
         <v>0</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="E8" t="s">
-        <v>197</v>
+        <v>488</v>
       </c>
       <c r="F8">
         <v>1000</v>
@@ -4120,25 +5494,25 @@
       <c r="G8">
         <v>128</v>
       </c>
-      <c r="H8" s="36" t="s">
-        <v>170</v>
+      <c r="H8" s="33" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="21" x14ac:dyDescent="0.65">
       <c r="A9" s="1" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="B9" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="C9" t="s">
         <v>0</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="E9" t="s">
-        <v>198</v>
+        <v>489</v>
       </c>
       <c r="F9">
         <v>1000</v>
@@ -4146,25 +5520,25 @@
       <c r="G9">
         <v>128</v>
       </c>
-      <c r="H9" s="36" t="s">
-        <v>170</v>
+      <c r="H9" s="33" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="21" x14ac:dyDescent="0.65">
       <c r="A10" s="1" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="B10" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="C10" t="s">
         <v>0</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="E10" t="s">
-        <v>199</v>
+        <v>490</v>
       </c>
       <c r="F10">
         <v>1000</v>
@@ -4172,25 +5546,25 @@
       <c r="G10">
         <v>128</v>
       </c>
-      <c r="H10" s="36" t="s">
-        <v>170</v>
+      <c r="H10" s="33" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="21" x14ac:dyDescent="0.65">
       <c r="A11" s="1" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="B11" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="C11" t="s">
         <v>0</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="E11" t="s">
-        <v>200</v>
+        <v>491</v>
       </c>
       <c r="F11">
         <v>1000</v>
@@ -4198,25 +5572,25 @@
       <c r="G11">
         <v>128</v>
       </c>
-      <c r="H11" s="36" t="s">
-        <v>170</v>
+      <c r="H11" s="33" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="21" x14ac:dyDescent="0.65">
       <c r="A12" s="1" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="B12" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="C12" t="s">
         <v>0</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="E12" t="s">
-        <v>201</v>
+        <v>492</v>
       </c>
       <c r="F12">
         <v>1000</v>
@@ -4224,25 +5598,25 @@
       <c r="G12">
         <v>128</v>
       </c>
-      <c r="H12" s="36" t="s">
-        <v>170</v>
+      <c r="H12" s="33" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="21" x14ac:dyDescent="0.65">
       <c r="A13" s="1" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="B13" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="C13" t="s">
         <v>0</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="E13" t="s">
-        <v>202</v>
+        <v>493</v>
       </c>
       <c r="F13">
         <v>1000</v>
@@ -4250,25 +5624,25 @@
       <c r="G13">
         <v>128</v>
       </c>
-      <c r="H13" s="36" t="s">
-        <v>170</v>
+      <c r="H13" s="33" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="21" x14ac:dyDescent="0.65">
       <c r="A14" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="B14" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="C14" t="s">
         <v>0</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="E14" t="s">
-        <v>203</v>
+        <v>494</v>
       </c>
       <c r="F14">
         <v>1000</v>
@@ -4276,25 +5650,25 @@
       <c r="G14">
         <v>128</v>
       </c>
-      <c r="H14" s="36" t="s">
-        <v>170</v>
+      <c r="H14" s="33" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="21" x14ac:dyDescent="0.65">
       <c r="A15" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="B15" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="C15" t="s">
         <v>0</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="E15" t="s">
-        <v>204</v>
+        <v>496</v>
       </c>
       <c r="F15">
         <v>1000</v>
@@ -4302,25 +5676,25 @@
       <c r="G15">
         <v>128</v>
       </c>
-      <c r="H15" s="36" t="s">
-        <v>170</v>
+      <c r="H15" s="33" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="21" x14ac:dyDescent="0.65">
       <c r="A16" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="B16" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="C16" t="s">
         <v>0</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="E16" s="43" t="s">
-        <v>205</v>
+        <v>160</v>
+      </c>
+      <c r="E16" s="40" t="s">
+        <v>495</v>
       </c>
       <c r="F16">
         <v>1000</v>
@@ -4328,25 +5702,25 @@
       <c r="G16">
         <v>128</v>
       </c>
-      <c r="H16" s="36" t="s">
-        <v>170</v>
+      <c r="H16" s="33" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="21" x14ac:dyDescent="0.65">
       <c r="A17" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="B17" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="C17" t="s">
         <v>0</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="E17" s="43" t="s">
-        <v>206</v>
+        <v>161</v>
+      </c>
+      <c r="E17" s="40" t="s">
+        <v>497</v>
       </c>
       <c r="F17">
         <v>1000</v>
@@ -4354,25 +5728,25 @@
       <c r="G17">
         <v>128</v>
       </c>
-      <c r="H17" s="36" t="s">
-        <v>170</v>
+      <c r="H17" s="33" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="21" x14ac:dyDescent="0.65">
       <c r="A18" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="B18" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="C18" t="s">
         <v>0</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="E18" s="43" t="s">
-        <v>218</v>
+        <v>162</v>
+      </c>
+      <c r="E18" s="40" t="s">
+        <v>499</v>
       </c>
       <c r="F18">
         <v>1000</v>
@@ -4380,25 +5754,25 @@
       <c r="G18">
         <v>128</v>
       </c>
-      <c r="H18" s="36" t="s">
-        <v>170</v>
+      <c r="H18" s="33" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="21" x14ac:dyDescent="0.65">
       <c r="A19" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="B19" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="C19" t="s">
         <v>0</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="E19" s="43" t="s">
-        <v>208</v>
+        <v>163</v>
+      </c>
+      <c r="E19" s="40" t="s">
+        <v>498</v>
       </c>
       <c r="F19">
         <v>1000</v>
@@ -4406,25 +5780,25 @@
       <c r="G19">
         <v>128</v>
       </c>
-      <c r="H19" s="36" t="s">
-        <v>170</v>
+      <c r="H19" s="33" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="21" x14ac:dyDescent="0.65">
       <c r="A20" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="B20" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="C20" t="s">
         <v>0</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="E20" s="43" t="s">
-        <v>209</v>
+        <v>164</v>
+      </c>
+      <c r="E20" s="40" t="s">
+        <v>500</v>
       </c>
       <c r="F20">
         <v>1000</v>
@@ -4432,25 +5806,25 @@
       <c r="G20">
         <v>128</v>
       </c>
-      <c r="H20" s="36" t="s">
-        <v>170</v>
+      <c r="H20" s="33" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="21" x14ac:dyDescent="0.65">
       <c r="A21" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="B21" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="C21" t="s">
         <v>0</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="E21" s="43" t="s">
-        <v>210</v>
+        <v>165</v>
+      </c>
+      <c r="E21" s="40" t="s">
+        <v>501</v>
       </c>
       <c r="F21">
         <v>1000</v>
@@ -4458,25 +5832,25 @@
       <c r="G21">
         <v>128</v>
       </c>
-      <c r="H21" s="36" t="s">
-        <v>170</v>
+      <c r="H21" s="33" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="21" x14ac:dyDescent="0.65">
       <c r="A22" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="B22" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="C22" t="s">
         <v>0</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="E22" s="43" t="s">
-        <v>203</v>
+        <v>158</v>
+      </c>
+      <c r="E22" s="40" t="s">
+        <v>494</v>
       </c>
       <c r="F22">
         <v>1000</v>
@@ -4484,25 +5858,25 @@
       <c r="G22">
         <v>128</v>
       </c>
-      <c r="H22" s="36" t="s">
-        <v>170</v>
+      <c r="H22" s="33" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="21" x14ac:dyDescent="0.65">
       <c r="A23" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="B23" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="C23" t="s">
         <v>0</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="E23" s="43" t="s">
-        <v>204</v>
+        <v>159</v>
+      </c>
+      <c r="E23" s="40" t="s">
+        <v>496</v>
       </c>
       <c r="F23">
         <v>1000</v>
@@ -4510,25 +5884,25 @@
       <c r="G23">
         <v>128</v>
       </c>
-      <c r="H23" s="36" t="s">
-        <v>170</v>
+      <c r="H23" s="33" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="21" x14ac:dyDescent="0.65">
       <c r="A24" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="B24" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="C24" t="s">
         <v>0</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="E24" s="43" t="s">
-        <v>205</v>
+        <v>160</v>
+      </c>
+      <c r="E24" s="40" t="s">
+        <v>495</v>
       </c>
       <c r="F24">
         <v>1000</v>
@@ -4536,25 +5910,25 @@
       <c r="G24">
         <v>128</v>
       </c>
-      <c r="H24" s="36" t="s">
-        <v>170</v>
+      <c r="H24" s="33" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="21" x14ac:dyDescent="0.65">
       <c r="A25" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="B25" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="C25" t="s">
         <v>0</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="E25" s="43" t="s">
-        <v>206</v>
+        <v>161</v>
+      </c>
+      <c r="E25" s="40" t="s">
+        <v>497</v>
       </c>
       <c r="F25">
         <v>1000</v>
@@ -4562,25 +5936,25 @@
       <c r="G25">
         <v>128</v>
       </c>
-      <c r="H25" s="36" t="s">
-        <v>170</v>
+      <c r="H25" s="33" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="21" x14ac:dyDescent="0.65">
       <c r="A26" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="B26" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="C26" t="s">
         <v>0</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="E26" s="43" t="s">
-        <v>207</v>
+        <v>162</v>
+      </c>
+      <c r="E26" s="40" t="s">
+        <v>502</v>
       </c>
       <c r="F26">
         <v>1000</v>
@@ -4588,25 +5962,25 @@
       <c r="G26">
         <v>128</v>
       </c>
-      <c r="H26" s="36" t="s">
-        <v>170</v>
+      <c r="H26" s="33" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="21" x14ac:dyDescent="0.65">
       <c r="A27" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="B27" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="C27" t="s">
         <v>0</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="E27" s="43" t="s">
-        <v>208</v>
+        <v>163</v>
+      </c>
+      <c r="E27" s="40" t="s">
+        <v>498</v>
       </c>
       <c r="F27">
         <v>1000</v>
@@ -4614,25 +5988,25 @@
       <c r="G27">
         <v>128</v>
       </c>
-      <c r="H27" s="36" t="s">
-        <v>170</v>
+      <c r="H27" s="33" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="21" x14ac:dyDescent="0.65">
       <c r="A28" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="B28" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="C28" t="s">
         <v>0</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="E28" s="43" t="s">
-        <v>209</v>
+        <v>164</v>
+      </c>
+      <c r="E28" s="40" t="s">
+        <v>500</v>
       </c>
       <c r="F28">
         <v>1000</v>
@@ -4640,25 +6014,25 @@
       <c r="G28">
         <v>128</v>
       </c>
-      <c r="H28" s="36" t="s">
-        <v>170</v>
+      <c r="H28" s="33" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="22.05" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A29" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="B29" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="C29" t="s">
         <v>0</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="E29" s="43" t="s">
-        <v>210</v>
+        <v>165</v>
+      </c>
+      <c r="E29" s="40" t="s">
+        <v>501</v>
       </c>
       <c r="F29">
         <v>1000</v>
@@ -4666,25 +6040,25 @@
       <c r="G29">
         <v>128</v>
       </c>
-      <c r="H29" s="36" t="s">
-        <v>170</v>
+      <c r="H29" s="33" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="21" x14ac:dyDescent="0.65">
       <c r="A30" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="B30" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="C30" t="s">
         <v>0</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="E30" s="43" t="s">
-        <v>211</v>
+        <v>166</v>
+      </c>
+      <c r="E30" s="40" t="s">
+        <v>504</v>
       </c>
       <c r="F30">
         <v>1000</v>
@@ -4692,25 +6066,25 @@
       <c r="G30">
         <v>128</v>
       </c>
-      <c r="H30" s="36" t="s">
-        <v>170</v>
+      <c r="H30" s="33" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="21" x14ac:dyDescent="0.65">
       <c r="A31" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="B31" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="C31" t="s">
         <v>0</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="E31" s="43" t="s">
-        <v>212</v>
+        <v>167</v>
+      </c>
+      <c r="E31" s="40" t="s">
+        <v>503</v>
       </c>
       <c r="F31">
         <v>1000</v>
@@ -4718,25 +6092,25 @@
       <c r="G31">
         <v>128</v>
       </c>
-      <c r="H31" s="36" t="s">
-        <v>170</v>
+      <c r="H31" s="33" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="21" x14ac:dyDescent="0.65">
       <c r="A32" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="B32" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="C32" t="s">
         <v>0</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="E32" s="43" t="s">
-        <v>213</v>
+        <v>168</v>
+      </c>
+      <c r="E32" s="40" t="s">
+        <v>505</v>
       </c>
       <c r="F32">
         <v>1000</v>
@@ -4744,25 +6118,25 @@
       <c r="G32">
         <v>128</v>
       </c>
-      <c r="H32" s="36" t="s">
-        <v>170</v>
+      <c r="H32" s="33" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="21" x14ac:dyDescent="0.65">
       <c r="A33" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="B33" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="C33" t="s">
         <v>0</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="E33" s="43" t="s">
-        <v>214</v>
+        <v>169</v>
+      </c>
+      <c r="E33" s="40" t="s">
+        <v>506</v>
       </c>
       <c r="F33">
         <v>1000</v>
@@ -4770,25 +6144,25 @@
       <c r="G33">
         <v>128</v>
       </c>
-      <c r="H33" s="36" t="s">
-        <v>170</v>
+      <c r="H33" s="33" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="21" x14ac:dyDescent="0.65">
       <c r="A34" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="B34" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="C34" t="s">
         <v>0</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="E34" s="43" t="s">
-        <v>215</v>
+        <v>170</v>
+      </c>
+      <c r="E34" s="40" t="s">
+        <v>507</v>
       </c>
       <c r="F34">
         <v>1000</v>
@@ -4796,25 +6170,25 @@
       <c r="G34">
         <v>128</v>
       </c>
-      <c r="H34" s="36" t="s">
-        <v>170</v>
+      <c r="H34" s="33" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="21" x14ac:dyDescent="0.65">
       <c r="A35" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="B35" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="C35" t="s">
         <v>0</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="E35" s="43" t="s">
-        <v>216</v>
+        <v>171</v>
+      </c>
+      <c r="E35" s="40" t="s">
+        <v>508</v>
       </c>
       <c r="F35">
         <v>1000</v>
@@ -4822,25 +6196,25 @@
       <c r="G35">
         <v>128</v>
       </c>
-      <c r="H35" s="36" t="s">
-        <v>170</v>
+      <c r="H35" s="33" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="21" x14ac:dyDescent="0.65">
       <c r="A36" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="B36" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="C36" t="s">
         <v>0</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="E36" s="44" t="s">
-        <v>211</v>
+        <v>166</v>
+      </c>
+      <c r="E36" s="41" t="s">
+        <v>504</v>
       </c>
       <c r="F36">
         <v>1000</v>
@@ -4848,25 +6222,25 @@
       <c r="G36">
         <v>128</v>
       </c>
-      <c r="H36" s="36" t="s">
-        <v>170</v>
+      <c r="H36" s="33" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="21" x14ac:dyDescent="0.65">
       <c r="A37" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="B37" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="C37" t="s">
         <v>0</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="E37" s="44" t="s">
-        <v>212</v>
+        <v>167</v>
+      </c>
+      <c r="E37" s="41" t="s">
+        <v>503</v>
       </c>
       <c r="F37">
         <v>1000</v>
@@ -4874,25 +6248,25 @@
       <c r="G37">
         <v>128</v>
       </c>
-      <c r="H37" s="36" t="s">
-        <v>170</v>
+      <c r="H37" s="33" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="21" x14ac:dyDescent="0.65">
       <c r="A38" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="B38" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="C38" t="s">
         <v>0</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="E38" s="44" t="s">
-        <v>213</v>
+        <v>168</v>
+      </c>
+      <c r="E38" s="41" t="s">
+        <v>505</v>
       </c>
       <c r="F38">
         <v>1000</v>
@@ -4900,25 +6274,25 @@
       <c r="G38">
         <v>128</v>
       </c>
-      <c r="H38" s="36" t="s">
-        <v>170</v>
+      <c r="H38" s="33" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="21" x14ac:dyDescent="0.65">
       <c r="A39" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="B39" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="C39" t="s">
         <v>0</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="E39" s="44" t="s">
-        <v>214</v>
+        <v>169</v>
+      </c>
+      <c r="E39" s="41" t="s">
+        <v>506</v>
       </c>
       <c r="F39">
         <v>1000</v>
@@ -4926,25 +6300,25 @@
       <c r="G39">
         <v>128</v>
       </c>
-      <c r="H39" s="36" t="s">
-        <v>170</v>
+      <c r="H39" s="33" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="21" x14ac:dyDescent="0.65">
       <c r="A40" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="B40" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="C40" t="s">
         <v>0</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="E40" s="44" t="s">
-        <v>215</v>
+        <v>170</v>
+      </c>
+      <c r="E40" s="41" t="s">
+        <v>507</v>
       </c>
       <c r="F40">
         <v>1000</v>
@@ -4952,25 +6326,25 @@
       <c r="G40">
         <v>128</v>
       </c>
-      <c r="H40" s="36" t="s">
-        <v>170</v>
+      <c r="H40" s="33" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="21" x14ac:dyDescent="0.65">
       <c r="A41" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="B41" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="C41" t="s">
         <v>0</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="E41" s="44" t="s">
-        <v>216</v>
+        <v>171</v>
+      </c>
+      <c r="E41" s="41" t="s">
+        <v>508</v>
       </c>
       <c r="F41">
         <v>1000</v>
@@ -4978,25 +6352,25 @@
       <c r="G41">
         <v>128</v>
       </c>
-      <c r="H41" s="36" t="s">
-        <v>170</v>
+      <c r="H41" s="33" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="21" x14ac:dyDescent="0.65">
       <c r="A42" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="B42" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="C42" t="s">
         <v>0</v>
       </c>
-      <c r="D42" s="34" t="s">
-        <v>191</v>
-      </c>
-      <c r="E42" s="43" t="s">
-        <v>217</v>
+      <c r="D42" s="31" t="s">
+        <v>172</v>
+      </c>
+      <c r="E42" s="40" t="s">
+        <v>509</v>
       </c>
       <c r="F42">
         <v>1000</v>
@@ -5004,25 +6378,25 @@
       <c r="G42">
         <v>128</v>
       </c>
-      <c r="H42" s="36" t="s">
-        <v>170</v>
+      <c r="H42" s="33" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="21" x14ac:dyDescent="0.65">
       <c r="A43" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="B43" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="C43" t="s">
         <v>0</v>
       </c>
-      <c r="D43" s="34" t="s">
-        <v>192</v>
-      </c>
-      <c r="E43" s="43" t="s">
-        <v>217</v>
+      <c r="D43" s="31" t="s">
+        <v>173</v>
+      </c>
+      <c r="E43" s="40" t="s">
+        <v>509</v>
       </c>
       <c r="F43">
         <v>1000</v>
@@ -5030,25 +6404,25 @@
       <c r="G43">
         <v>128</v>
       </c>
-      <c r="H43" s="36" t="s">
-        <v>170</v>
+      <c r="H43" s="33" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="21" x14ac:dyDescent="0.65">
       <c r="A44" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="B44" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="C44" t="s">
         <v>0</v>
       </c>
-      <c r="D44" s="34" t="s">
-        <v>193</v>
-      </c>
-      <c r="E44" s="43" t="s">
-        <v>217</v>
+      <c r="D44" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="E44" s="40" t="s">
+        <v>509</v>
       </c>
       <c r="F44">
         <v>1000</v>
@@ -5056,25 +6430,25 @@
       <c r="G44">
         <v>128</v>
       </c>
-      <c r="H44" s="36" t="s">
-        <v>170</v>
+      <c r="H44" s="33" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="21" x14ac:dyDescent="0.65">
       <c r="A45" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="B45" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="C45" t="s">
         <v>0</v>
       </c>
-      <c r="D45" s="34" t="s">
-        <v>194</v>
-      </c>
-      <c r="E45" s="43" t="s">
-        <v>217</v>
+      <c r="D45" s="31" t="s">
+        <v>175</v>
+      </c>
+      <c r="E45" s="40" t="s">
+        <v>509</v>
       </c>
       <c r="F45">
         <v>1000</v>
@@ -5082,25 +6456,25 @@
       <c r="G45">
         <v>128</v>
       </c>
-      <c r="H45" s="36" t="s">
-        <v>170</v>
+      <c r="H45" s="33" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="21" x14ac:dyDescent="0.65">
       <c r="A46" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="B46" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="C46" t="s">
         <v>0</v>
       </c>
-      <c r="D46" s="34" t="s">
-        <v>195</v>
-      </c>
-      <c r="E46" s="43" t="s">
-        <v>217</v>
+      <c r="D46" s="31" t="s">
+        <v>176</v>
+      </c>
+      <c r="E46" s="40" t="s">
+        <v>509</v>
       </c>
       <c r="F46">
         <v>1000</v>
@@ -5108,25 +6482,25 @@
       <c r="G46">
         <v>128</v>
       </c>
-      <c r="H46" s="36" t="s">
-        <v>170</v>
+      <c r="H46" s="33" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="21" x14ac:dyDescent="0.65">
       <c r="A47" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="B47" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="C47" t="s">
         <v>0</v>
       </c>
-      <c r="D47" s="34" t="s">
-        <v>196</v>
-      </c>
-      <c r="E47" s="43" t="s">
-        <v>217</v>
+      <c r="D47" s="31" t="s">
+        <v>177</v>
+      </c>
+      <c r="E47" s="40" t="s">
+        <v>509</v>
       </c>
       <c r="F47">
         <v>1000</v>
@@ -5134,25 +6508,25 @@
       <c r="G47">
         <v>128</v>
       </c>
-      <c r="H47" s="36" t="s">
-        <v>170</v>
+      <c r="H47" s="33" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="21" x14ac:dyDescent="0.65">
       <c r="A48" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="B48" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="C48" t="s">
         <v>0</v>
       </c>
-      <c r="D48" s="34" t="s">
-        <v>191</v>
-      </c>
-      <c r="E48" s="43" t="s">
-        <v>217</v>
+      <c r="D48" s="31" t="s">
+        <v>172</v>
+      </c>
+      <c r="E48" s="40" t="s">
+        <v>509</v>
       </c>
       <c r="F48">
         <v>1000</v>
@@ -5160,25 +6534,25 @@
       <c r="G48">
         <v>128</v>
       </c>
-      <c r="H48" s="36" t="s">
-        <v>170</v>
+      <c r="H48" s="33" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="21" x14ac:dyDescent="0.65">
       <c r="A49" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="B49" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="C49" t="s">
         <v>0</v>
       </c>
-      <c r="D49" s="34" t="s">
-        <v>192</v>
-      </c>
-      <c r="E49" s="43" t="s">
-        <v>217</v>
+      <c r="D49" s="31" t="s">
+        <v>173</v>
+      </c>
+      <c r="E49" s="40" t="s">
+        <v>509</v>
       </c>
       <c r="F49">
         <v>1000</v>
@@ -5186,25 +6560,25 @@
       <c r="G49">
         <v>128</v>
       </c>
-      <c r="H49" s="36" t="s">
-        <v>170</v>
+      <c r="H49" s="33" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="21" x14ac:dyDescent="0.65">
       <c r="A50" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="B50" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="C50" t="s">
         <v>0</v>
       </c>
-      <c r="D50" s="34" t="s">
-        <v>193</v>
-      </c>
-      <c r="E50" s="43" t="s">
-        <v>217</v>
+      <c r="D50" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="E50" s="40" t="s">
+        <v>509</v>
       </c>
       <c r="F50">
         <v>1000</v>
@@ -5212,25 +6586,25 @@
       <c r="G50">
         <v>128</v>
       </c>
-      <c r="H50" s="36" t="s">
-        <v>170</v>
+      <c r="H50" s="33" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="21" x14ac:dyDescent="0.65">
       <c r="A51" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="B51" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="C51" t="s">
         <v>0</v>
       </c>
-      <c r="D51" s="34" t="s">
-        <v>194</v>
-      </c>
-      <c r="E51" s="43" t="s">
-        <v>217</v>
+      <c r="D51" s="31" t="s">
+        <v>175</v>
+      </c>
+      <c r="E51" s="40" t="s">
+        <v>509</v>
       </c>
       <c r="F51">
         <v>1000</v>
@@ -5238,25 +6612,25 @@
       <c r="G51">
         <v>128</v>
       </c>
-      <c r="H51" s="36" t="s">
-        <v>170</v>
+      <c r="H51" s="33" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="21" x14ac:dyDescent="0.65">
       <c r="A52" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="B52" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="C52" t="s">
         <v>0</v>
       </c>
-      <c r="D52" s="34" t="s">
-        <v>195</v>
-      </c>
-      <c r="E52" s="43" t="s">
-        <v>217</v>
+      <c r="D52" s="31" t="s">
+        <v>176</v>
+      </c>
+      <c r="E52" s="40" t="s">
+        <v>509</v>
       </c>
       <c r="F52">
         <v>1000</v>
@@ -5264,25 +6638,25 @@
       <c r="G52">
         <v>128</v>
       </c>
-      <c r="H52" s="36" t="s">
-        <v>170</v>
+      <c r="H52" s="33" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="21" x14ac:dyDescent="0.65">
       <c r="A53" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="B53" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="C53" t="s">
         <v>0</v>
       </c>
-      <c r="D53" s="34" t="s">
-        <v>196</v>
-      </c>
-      <c r="E53" s="43" t="s">
-        <v>217</v>
+      <c r="D53" s="31" t="s">
+        <v>177</v>
+      </c>
+      <c r="E53" s="40" t="s">
+        <v>509</v>
       </c>
       <c r="F53">
         <v>1000</v>
@@ -5290,8 +6664,8 @@
       <c r="G53">
         <v>128</v>
       </c>
-      <c r="H53" s="36" t="s">
-        <v>170</v>
+      <c r="H53" s="33" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -5309,7 +6683,7 @@
   <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1875" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -5323,27 +6697,27 @@
   <sheetData>
     <row r="1" spans="1:5" ht="30.75" x14ac:dyDescent="0.9">
       <c r="A1" s="9" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="E1" s="41" t="s">
-        <v>222</v>
+        <v>88</v>
+      </c>
+      <c r="E1" s="38" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="21" x14ac:dyDescent="0.65">
       <c r="A2" s="1" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="B2" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="C2">
         <v>63</v>
@@ -5354,10 +6728,10 @@
     </row>
     <row r="3" spans="1:5" ht="21" x14ac:dyDescent="0.65">
       <c r="A3" s="1" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="B3" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="C3">
         <v>63</v>
@@ -5368,10 +6742,10 @@
     </row>
     <row r="4" spans="1:5" ht="21" x14ac:dyDescent="0.65">
       <c r="A4" s="1" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="B4" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="C4">
         <v>63</v>
@@ -5382,10 +6756,10 @@
     </row>
     <row r="5" spans="1:5" ht="21" x14ac:dyDescent="0.65">
       <c r="A5" s="1" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="B5" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="C5">
         <v>63</v>
@@ -5396,10 +6770,10 @@
     </row>
     <row r="6" spans="1:5" ht="21" x14ac:dyDescent="0.65">
       <c r="A6" s="1" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="B6" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="C6">
         <v>63</v>
@@ -5410,10 +6784,10 @@
     </row>
     <row r="7" spans="1:5" ht="21" x14ac:dyDescent="0.65">
       <c r="A7" s="1" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="B7" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="C7">
         <v>63</v>
@@ -5424,10 +6798,10 @@
     </row>
     <row r="8" spans="1:5" ht="21" x14ac:dyDescent="0.65">
       <c r="A8" s="1" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="B8" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="C8">
         <v>63</v>
@@ -5438,10 +6812,10 @@
     </row>
     <row r="9" spans="1:5" ht="21" x14ac:dyDescent="0.65">
       <c r="A9" s="1" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="B9" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="C9">
         <v>63</v>
@@ -5452,10 +6826,10 @@
     </row>
     <row r="10" spans="1:5" ht="21" x14ac:dyDescent="0.65">
       <c r="A10" s="1" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="B10" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="C10">
         <v>63</v>
@@ -5466,10 +6840,10 @@
     </row>
     <row r="11" spans="1:5" ht="21" x14ac:dyDescent="0.65">
       <c r="A11" s="1" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="B11" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="C11">
         <v>63</v>
@@ -5480,10 +6854,10 @@
     </row>
     <row r="12" spans="1:5" ht="21" x14ac:dyDescent="0.65">
       <c r="A12" s="1" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="B12" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="C12">
         <v>63</v>
@@ -5494,10 +6868,10 @@
     </row>
     <row r="13" spans="1:5" ht="21" x14ac:dyDescent="0.65">
       <c r="A13" s="1" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="B13" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="C13">
         <v>63</v>
@@ -5508,10 +6882,10 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="B14" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="C14">
         <v>63</v>
@@ -5522,10 +6896,10 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="B15" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="C15">
         <v>63</v>
@@ -5536,10 +6910,10 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="B16" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="C16">
         <v>63</v>
@@ -5550,10 +6924,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="B17" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="C17">
         <v>63</v>
@@ -5564,10 +6938,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="B18" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="C18">
         <v>63</v>
@@ -5578,10 +6952,10 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="B19" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="C19">
         <v>63</v>
@@ -5592,10 +6966,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="B20" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="C20">
         <v>63</v>
@@ -5606,10 +6980,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A21" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="B21" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="C21">
         <v>63</v>
@@ -5620,10 +6994,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A22" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="B22" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="C22">
         <v>63</v>
@@ -5634,10 +7008,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A23" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="B23" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="C23">
         <v>63</v>
@@ -5648,10 +7022,10 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A24" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="B24" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="C24">
         <v>63</v>
@@ -5662,10 +7036,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A25" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="B25" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="C25">
         <v>63</v>
@@ -5676,10 +7050,10 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A26" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="B26" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="C26">
         <v>63</v>
@@ -5690,10 +7064,10 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A27" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="B27" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="C27">
         <v>63</v>
@@ -5704,10 +7078,10 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A28" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="B28" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="C28">
         <v>63</v>
@@ -5718,10 +7092,10 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A29" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="B29" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="C29">
         <v>63</v>
@@ -5732,10 +7106,10 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A30" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="B30" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="C30">
         <v>63</v>
@@ -5746,10 +7120,10 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A31" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="B31" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="C31">
         <v>63</v>
@@ -5760,10 +7134,10 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A32" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="B32" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="C32">
         <v>63</v>
@@ -5774,10 +7148,10 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A33" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="B33" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="C33">
         <v>63</v>
@@ -5788,10 +7162,10 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A34" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="B34" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="C34">
         <v>63</v>
@@ -5802,10 +7176,10 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A35" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="B35" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="C35">
         <v>63</v>
@@ -5816,10 +7190,10 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A36" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="B36" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="C36">
         <v>63</v>
@@ -5830,10 +7204,10 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A37" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="B37" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="C37">
         <v>63</v>
@@ -5844,10 +7218,10 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A38" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="B38" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="C38">
         <v>63</v>
@@ -5858,10 +7232,10 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A39" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="B39" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="C39">
         <v>63</v>
@@ -5872,10 +7246,10 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A40" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="B40" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="C40">
         <v>63</v>
@@ -5886,10 +7260,10 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A41" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="B41" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="C41">
         <v>63</v>
@@ -5900,10 +7274,10 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A42" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="B42" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="C42">
         <v>63</v>
@@ -5914,10 +7288,10 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A43" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="B43" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="C43">
         <v>63</v>
@@ -5928,10 +7302,10 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A44" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="B44" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="C44">
         <v>63</v>
@@ -5942,10 +7316,10 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A45" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="B45" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="C45">
         <v>63</v>
@@ -5956,10 +7330,10 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A46" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="B46" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="C46">
         <v>63</v>
@@ -5970,10 +7344,10 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A47" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="B47" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="C47">
         <v>63</v>
@@ -5984,10 +7358,10 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A48" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="B48" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="C48">
         <v>63</v>
@@ -5998,10 +7372,10 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A49" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="B49" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="C49">
         <v>63</v>
@@ -6012,10 +7386,10 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A50" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="B50" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="C50">
         <v>63</v>
@@ -6026,10 +7400,10 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A51" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="B51" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="C51">
         <v>63</v>
@@ -6040,10 +7414,10 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A52" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="B52" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="C52">
         <v>63</v>
@@ -6054,10 +7428,10 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A53" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="B53" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="C53">
         <v>63</v>
@@ -6078,7 +7452,9 @@
   </sheetPr>
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1875" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
@@ -6088,23 +7464,23 @@
   <sheetData>
     <row r="1" spans="1:2" ht="25.5" x14ac:dyDescent="0.75">
       <c r="A1" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="25.5" x14ac:dyDescent="0.75">
       <c r="A2" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>304</v>
+        <v>263</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="25.5" x14ac:dyDescent="0.75">
       <c r="A3" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" s="18">
         <v>11009</v>
@@ -6112,47 +7488,47 @@
     </row>
     <row r="4" spans="1:2" ht="25.5" x14ac:dyDescent="0.75">
       <c r="A4" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="25.5" x14ac:dyDescent="0.75">
       <c r="A5" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="25.5" x14ac:dyDescent="0.75">
       <c r="A6" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="39" t="s">
-        <v>306</v>
+        <v>16</v>
+      </c>
+      <c r="B6" s="36" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="25.5" x14ac:dyDescent="0.75">
       <c r="A7" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="25.5" x14ac:dyDescent="0.75">
       <c r="A8" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="25.5" x14ac:dyDescent="0.75">
       <c r="A9" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" s="18" t="b">
         <v>0</v>
@@ -6160,10 +7536,10 @@
     </row>
     <row r="10" spans="1:2" ht="25.5" x14ac:dyDescent="0.75">
       <c r="A10" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>305</v>
+        <v>264</v>
       </c>
     </row>
   </sheetData>
@@ -6179,7 +7555,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD12"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1875" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -6193,175 +7569,175 @@
   <sheetData>
     <row r="1" spans="1:5" ht="30.75" x14ac:dyDescent="0.9">
       <c r="A1" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="D1" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" s="10" t="s">
+      <c r="E1" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="11" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="2" spans="1:5" ht="23.25" x14ac:dyDescent="0.7">
-      <c r="A2" s="39" t="s">
-        <v>306</v>
-      </c>
-      <c r="B2" s="34">
+      <c r="A2" s="36" t="s">
+        <v>265</v>
+      </c>
+      <c r="B2" s="31">
         <v>11</v>
       </c>
-      <c r="C2" s="34">
+      <c r="C2" s="31">
         <v>17</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="23.25" x14ac:dyDescent="0.7">
-      <c r="A3" s="39" t="s">
-        <v>306</v>
-      </c>
-      <c r="B3" s="34">
+      <c r="A3" s="36" t="s">
+        <v>265</v>
+      </c>
+      <c r="B3" s="31">
         <v>11</v>
       </c>
-      <c r="C3" s="34">
+      <c r="C3" s="31">
         <v>18</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>231</v>
+        <v>190</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="23.25" x14ac:dyDescent="0.7">
-      <c r="A4" s="39" t="s">
-        <v>306</v>
-      </c>
-      <c r="B4" s="34">
+      <c r="A4" s="36" t="s">
+        <v>265</v>
+      </c>
+      <c r="B4" s="31">
         <v>11</v>
       </c>
-      <c r="C4" s="34">
+      <c r="C4" s="31">
         <v>19</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>232</v>
+        <v>191</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>233</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="23.25" x14ac:dyDescent="0.7">
-      <c r="A5" s="39" t="s">
-        <v>306</v>
-      </c>
-      <c r="B5" s="34">
+      <c r="A5" s="36" t="s">
+        <v>265</v>
+      </c>
+      <c r="B5" s="31">
         <v>11</v>
       </c>
-      <c r="C5" s="34">
+      <c r="C5" s="31">
         <v>20</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>234</v>
+        <v>193</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>235</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="23.25" x14ac:dyDescent="0.7">
-      <c r="A6" s="39" t="s">
-        <v>306</v>
-      </c>
-      <c r="B6" s="34">
+      <c r="A6" s="36" t="s">
+        <v>265</v>
+      </c>
+      <c r="B6" s="31">
         <v>11</v>
       </c>
-      <c r="C6" s="34">
+      <c r="C6" s="31">
         <v>21</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>236</v>
+        <v>195</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>237</v>
+        <v>196</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="23.25" x14ac:dyDescent="0.7">
-      <c r="A7" s="39" t="s">
-        <v>306</v>
-      </c>
-      <c r="B7" s="34">
+      <c r="A7" s="36" t="s">
+        <v>265</v>
+      </c>
+      <c r="B7" s="31">
         <v>11</v>
       </c>
-      <c r="C7" s="34">
+      <c r="C7" s="31">
         <v>22</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>238</v>
+        <v>197</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>239</v>
+        <v>198</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="23.25" x14ac:dyDescent="0.7">
-      <c r="A8" s="39" t="s">
-        <v>306</v>
-      </c>
-      <c r="B8" s="34">
+      <c r="A8" s="36" t="s">
+        <v>265</v>
+      </c>
+      <c r="B8" s="31">
         <v>11</v>
       </c>
-      <c r="C8" s="34">
+      <c r="C8" s="31">
         <v>23</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>240</v>
+        <v>199</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>241</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="23.25" x14ac:dyDescent="0.7">
-      <c r="A9" s="39" t="s">
-        <v>306</v>
-      </c>
-      <c r="B9" s="34">
+      <c r="A9" s="36" t="s">
+        <v>265</v>
+      </c>
+      <c r="B9" s="31">
         <v>11</v>
       </c>
-      <c r="C9" s="34">
+      <c r="C9" s="31">
         <v>24</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>242</v>
+        <v>201</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>243</v>
+        <v>202</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="23.25" x14ac:dyDescent="0.7">
-      <c r="A10" s="39"/>
-      <c r="B10" s="34"/>
-      <c r="C10" s="34"/>
+      <c r="A10" s="36"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" ht="23.25" x14ac:dyDescent="0.7">
-      <c r="A11" s="39"/>
-      <c r="B11" s="34"/>
-      <c r="C11" s="34"/>
+      <c r="A11" s="36"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" ht="23.25" x14ac:dyDescent="0.7">
-      <c r="A12" s="39"/>
-      <c r="B12" s="34"/>
-      <c r="C12" s="34"/>
+      <c r="A12" s="36"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
@@ -6378,8 +7754,8 @@
   </sheetPr>
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1875" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -6393,25 +7769,25 @@
   <sheetData>
     <row r="1" spans="1:5" ht="30.75" x14ac:dyDescent="0.9">
       <c r="A1" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="C1" s="10" t="s">
+        <v>462</v>
+      </c>
+      <c r="D1" s="10" t="s">
         <v>33</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>35</v>
       </c>
       <c r="E1" s="7"/>
     </row>
     <row r="2" spans="1:5" ht="21" x14ac:dyDescent="0.65">
       <c r="A2" s="1" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>244</v>
+        <v>203</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -6422,10 +7798,10 @@
     </row>
     <row r="3" spans="1:5" ht="21" x14ac:dyDescent="0.65">
       <c r="A3" s="1" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -6436,10 +7812,10 @@
     </row>
     <row r="4" spans="1:5" ht="21" x14ac:dyDescent="0.65">
       <c r="A4" s="1" t="s">
-        <v>233</v>
+        <v>192</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -6450,10 +7826,10 @@
     </row>
     <row r="5" spans="1:5" ht="21" x14ac:dyDescent="0.65">
       <c r="A5" s="1" t="s">
-        <v>235</v>
+        <v>194</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -6464,10 +7840,10 @@
     </row>
     <row r="6" spans="1:5" ht="21" x14ac:dyDescent="0.65">
       <c r="A6" s="1" t="s">
-        <v>237</v>
+        <v>196</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -6478,10 +7854,10 @@
     </row>
     <row r="7" spans="1:5" ht="21" x14ac:dyDescent="0.65">
       <c r="A7" s="1" t="s">
-        <v>239</v>
+        <v>198</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -6492,94 +7868,94 @@
     </row>
     <row r="8" spans="1:5" ht="21" x14ac:dyDescent="0.65">
       <c r="A8" s="1" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="C8">
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>338</v>
+        <v>297</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="21" x14ac:dyDescent="0.65">
       <c r="A9" s="1" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="C9">
         <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>338</v>
+        <v>297</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="21" x14ac:dyDescent="0.65">
       <c r="A10" s="1" t="s">
-        <v>233</v>
+        <v>192</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="C10">
         <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>338</v>
+        <v>297</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="21" x14ac:dyDescent="0.65">
       <c r="A11" s="1" t="s">
-        <v>235</v>
+        <v>194</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="C11">
         <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>339</v>
+        <v>298</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="21" x14ac:dyDescent="0.65">
       <c r="A12" s="1" t="s">
-        <v>237</v>
+        <v>196</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="C12">
         <v>7</v>
       </c>
       <c r="D12" t="s">
-        <v>340</v>
+        <v>299</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="21" x14ac:dyDescent="0.65">
       <c r="A13" s="1" t="s">
-        <v>239</v>
+        <v>198</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="C13">
         <v>7</v>
       </c>
       <c r="D13" t="s">
-        <v>338</v>
+        <v>297</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="21" x14ac:dyDescent="0.65">
       <c r="A14" s="1" t="s">
-        <v>241</v>
+        <v>200</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -6590,10 +7966,10 @@
     </row>
     <row r="15" spans="1:5" ht="21" x14ac:dyDescent="0.65">
       <c r="A15" s="1" t="s">
-        <v>243</v>
+        <v>202</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -6604,94 +7980,94 @@
     </row>
     <row r="16" spans="1:5" ht="21" x14ac:dyDescent="0.65">
       <c r="A16" s="1" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="C16">
         <v>2</v>
       </c>
       <c r="D16" t="s">
-        <v>341</v>
+        <v>300</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="21" x14ac:dyDescent="0.65">
       <c r="A17" s="1" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="C17">
         <v>2</v>
       </c>
       <c r="D17" t="s">
-        <v>341</v>
+        <v>300</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="21" x14ac:dyDescent="0.65">
       <c r="A18" s="1" t="s">
-        <v>233</v>
+        <v>192</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="C18">
         <v>2</v>
       </c>
       <c r="D18" t="s">
-        <v>341</v>
+        <v>300</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="21" x14ac:dyDescent="0.65">
       <c r="A19" s="1" t="s">
-        <v>235</v>
+        <v>194</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="C19">
         <v>2</v>
       </c>
       <c r="D19" t="s">
-        <v>341</v>
+        <v>300</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="21" x14ac:dyDescent="0.65">
       <c r="A20" s="1" t="s">
-        <v>237</v>
+        <v>196</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="C20">
         <v>2</v>
       </c>
       <c r="D20" t="s">
-        <v>341</v>
+        <v>300</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="21" x14ac:dyDescent="0.65">
       <c r="A21" s="1" t="s">
-        <v>239</v>
+        <v>198</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="C21">
         <v>2</v>
       </c>
       <c r="D21" t="s">
-        <v>341</v>
+        <v>300</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="21" x14ac:dyDescent="0.65">
       <c r="A22" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B22" s="34" t="s">
-        <v>191</v>
+        <v>90</v>
+      </c>
+      <c r="B22" s="31" t="s">
+        <v>172</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -6702,10 +8078,10 @@
     </row>
     <row r="23" spans="1:4" ht="21" x14ac:dyDescent="0.65">
       <c r="A23" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B23" s="34" t="s">
-        <v>192</v>
+        <v>91</v>
+      </c>
+      <c r="B23" s="31" t="s">
+        <v>173</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -6716,10 +8092,10 @@
     </row>
     <row r="24" spans="1:4" ht="21" x14ac:dyDescent="0.65">
       <c r="A24" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="B24" s="34" t="s">
-        <v>193</v>
+        <v>192</v>
+      </c>
+      <c r="B24" s="31" t="s">
+        <v>174</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -6730,10 +8106,10 @@
     </row>
     <row r="25" spans="1:4" ht="21" x14ac:dyDescent="0.65">
       <c r="A25" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="B25" s="34" t="s">
         <v>194</v>
+      </c>
+      <c r="B25" s="31" t="s">
+        <v>175</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -6744,10 +8120,10 @@
     </row>
     <row r="26" spans="1:4" ht="21" x14ac:dyDescent="0.65">
       <c r="A26" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="B26" s="34" t="s">
-        <v>195</v>
+        <v>196</v>
+      </c>
+      <c r="B26" s="31" t="s">
+        <v>176</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -6758,10 +8134,10 @@
     </row>
     <row r="27" spans="1:4" ht="21" x14ac:dyDescent="0.65">
       <c r="A27" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="B27" s="34" t="s">
-        <v>196</v>
+        <v>198</v>
+      </c>
+      <c r="B27" s="31" t="s">
+        <v>177</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -6772,10 +8148,10 @@
     </row>
     <row r="28" spans="1:4" ht="21" x14ac:dyDescent="0.65">
       <c r="A28" s="1" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>245</v>
+        <v>204</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -6786,10 +8162,10 @@
     </row>
     <row r="29" spans="1:4" ht="21" x14ac:dyDescent="0.65">
       <c r="A29" s="1" t="s">
-        <v>239</v>
+        <v>198</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>246</v>
+        <v>205</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -6799,129 +8175,129 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A30" s="42" t="s">
-        <v>109</v>
+      <c r="A30" s="39" t="s">
+        <v>90</v>
       </c>
       <c r="B30" t="s">
-        <v>247</v>
+        <v>206</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
-      <c r="D30" s="35">
+      <c r="D30" s="32">
         <v>2001</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A31" s="42" t="s">
-        <v>110</v>
+      <c r="A31" s="39" t="s">
+        <v>91</v>
       </c>
       <c r="B31" t="s">
-        <v>248</v>
+        <v>207</v>
       </c>
       <c r="C31">
         <v>1</v>
       </c>
-      <c r="D31" s="35">
+      <c r="D31" s="32">
         <v>2001</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A32" s="42" t="s">
-        <v>233</v>
+      <c r="A32" s="39" t="s">
+        <v>192</v>
       </c>
       <c r="B32" t="s">
-        <v>249</v>
+        <v>208</v>
       </c>
       <c r="C32">
         <v>1</v>
       </c>
-      <c r="D32" s="35">
+      <c r="D32" s="32">
         <v>2001</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A33" s="42" t="s">
-        <v>235</v>
+      <c r="A33" s="39" t="s">
+        <v>194</v>
       </c>
       <c r="B33" t="s">
-        <v>250</v>
+        <v>209</v>
       </c>
       <c r="C33">
         <v>1</v>
       </c>
-      <c r="D33" s="35">
+      <c r="D33" s="32">
         <v>2001</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A34" s="42" t="s">
-        <v>237</v>
+      <c r="A34" s="39" t="s">
+        <v>196</v>
       </c>
       <c r="B34" t="s">
-        <v>251</v>
+        <v>210</v>
       </c>
       <c r="C34">
         <v>1</v>
       </c>
-      <c r="D34" s="35">
+      <c r="D34" s="32">
         <v>2001</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A35" s="42" t="s">
-        <v>239</v>
+      <c r="A35" s="39" t="s">
+        <v>198</v>
       </c>
       <c r="B35" t="s">
-        <v>252</v>
+        <v>211</v>
       </c>
       <c r="C35">
         <v>1</v>
       </c>
-      <c r="D35" s="35">
+      <c r="D35" s="32">
         <v>2001</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A36" s="35" t="s">
-        <v>109</v>
+      <c r="A36" s="32" t="s">
+        <v>90</v>
       </c>
       <c r="B36" t="s">
-        <v>253</v>
+        <v>212</v>
       </c>
       <c r="C36">
         <v>2</v>
       </c>
       <c r="D36" t="s">
-        <v>342</v>
+        <v>301</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A37" s="35" t="s">
-        <v>110</v>
+      <c r="A37" s="32" t="s">
+        <v>91</v>
       </c>
       <c r="B37" t="s">
-        <v>254</v>
+        <v>213</v>
       </c>
       <c r="C37">
         <v>2</v>
       </c>
       <c r="D37" t="s">
-        <v>342</v>
+        <v>301</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A38" s="35" t="s">
-        <v>233</v>
+      <c r="A38" s="32" t="s">
+        <v>192</v>
       </c>
       <c r="B38" t="s">
-        <v>255</v>
+        <v>214</v>
       </c>
       <c r="C38">
         <v>2</v>
       </c>
       <c r="D38" t="s">
-        <v>342</v>
+        <v>301</v>
       </c>
     </row>
   </sheetData>
@@ -6937,8 +8313,8 @@
   </sheetPr>
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1875" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -6952,33 +8328,33 @@
   <sheetData>
     <row r="1" spans="1:5" ht="30.75" x14ac:dyDescent="0.9">
       <c r="A1" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>36</v>
+        <v>383</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>219</v>
+        <v>178</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="21" x14ac:dyDescent="0.65">
       <c r="A2" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="B2" s="35" t="s">
-        <v>113</v>
+        <v>152</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>94</v>
       </c>
       <c r="C2">
         <v>27</v>
       </c>
-      <c r="D2" s="35" t="s">
-        <v>112</v>
+      <c r="D2" s="32" t="s">
+        <v>93</v>
       </c>
       <c r="E2" t="s">
         <v>1</v>
@@ -6986,16 +8362,16 @@
     </row>
     <row r="3" spans="1:5" ht="21" x14ac:dyDescent="0.65">
       <c r="A3" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="B3" s="35" t="s">
-        <v>111</v>
+        <v>153</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>92</v>
       </c>
       <c r="C3">
         <v>27</v>
       </c>
-      <c r="D3" s="35" t="s">
-        <v>112</v>
+      <c r="D3" s="32" t="s">
+        <v>93</v>
       </c>
       <c r="E3" t="s">
         <v>1</v>
@@ -7003,16 +8379,16 @@
     </row>
     <row r="4" spans="1:5" ht="21" x14ac:dyDescent="0.65">
       <c r="A4" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="B4" s="35" t="s">
-        <v>256</v>
+        <v>154</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>215</v>
       </c>
       <c r="C4">
         <v>27</v>
       </c>
-      <c r="D4" s="35" t="s">
-        <v>112</v>
+      <c r="D4" s="32" t="s">
+        <v>93</v>
       </c>
       <c r="E4" t="s">
         <v>1</v>
@@ -7020,16 +8396,16 @@
     </row>
     <row r="5" spans="1:5" ht="21" x14ac:dyDescent="0.65">
       <c r="A5" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="B5" s="35" t="s">
-        <v>257</v>
+        <v>155</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>216</v>
       </c>
       <c r="C5">
         <v>27</v>
       </c>
-      <c r="D5" s="35" t="s">
-        <v>112</v>
+      <c r="D5" s="32" t="s">
+        <v>93</v>
       </c>
       <c r="E5" t="s">
         <v>1</v>
@@ -7037,16 +8413,16 @@
     </row>
     <row r="6" spans="1:5" ht="21" x14ac:dyDescent="0.65">
       <c r="A6" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B6" s="35" t="s">
-        <v>258</v>
+        <v>156</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>217</v>
       </c>
       <c r="C6">
         <v>27</v>
       </c>
-      <c r="D6" s="35" t="s">
-        <v>112</v>
+      <c r="D6" s="32" t="s">
+        <v>93</v>
       </c>
       <c r="E6" t="s">
         <v>1</v>
@@ -7054,16 +8430,16 @@
     </row>
     <row r="7" spans="1:5" ht="21" x14ac:dyDescent="0.65">
       <c r="A7" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="B7" s="35" t="s">
-        <v>259</v>
+        <v>157</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>218</v>
       </c>
       <c r="C7">
         <v>27</v>
       </c>
-      <c r="D7" s="35" t="s">
-        <v>112</v>
+      <c r="D7" s="32" t="s">
+        <v>93</v>
       </c>
       <c r="E7" t="s">
         <v>1</v>
@@ -7071,16 +8447,16 @@
     </row>
     <row r="8" spans="1:5" ht="21" x14ac:dyDescent="0.65">
       <c r="A8" s="1" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="B8" t="s">
-        <v>346</v>
+        <v>305</v>
       </c>
       <c r="C8">
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>358</v>
+        <v>317</v>
       </c>
       <c r="E8" t="s">
         <v>0</v>
@@ -7088,16 +8464,16 @@
     </row>
     <row r="9" spans="1:5" ht="21" x14ac:dyDescent="0.65">
       <c r="A9" s="1" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="B9" t="s">
-        <v>347</v>
+        <v>306</v>
       </c>
       <c r="C9">
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>358</v>
+        <v>317</v>
       </c>
       <c r="E9" t="s">
         <v>0</v>
@@ -7105,16 +8481,16 @@
     </row>
     <row r="10" spans="1:5" ht="21" x14ac:dyDescent="0.65">
       <c r="A10" s="1" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="B10" t="s">
-        <v>348</v>
+        <v>307</v>
       </c>
       <c r="C10">
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>358</v>
+        <v>317</v>
       </c>
       <c r="E10" t="s">
         <v>0</v>
@@ -7122,16 +8498,16 @@
     </row>
     <row r="11" spans="1:5" ht="21" x14ac:dyDescent="0.65">
       <c r="A11" s="1" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="B11" t="s">
-        <v>343</v>
+        <v>302</v>
       </c>
       <c r="C11">
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>359</v>
+        <v>318</v>
       </c>
       <c r="E11" t="s">
         <v>0</v>
@@ -7139,16 +8515,16 @@
     </row>
     <row r="12" spans="1:5" ht="21" x14ac:dyDescent="0.65">
       <c r="A12" s="1" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="B12" t="s">
-        <v>344</v>
+        <v>303</v>
       </c>
       <c r="C12">
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>359</v>
+        <v>318</v>
       </c>
       <c r="E12" t="s">
         <v>0</v>
@@ -7156,16 +8532,16 @@
     </row>
     <row r="13" spans="1:5" ht="21" x14ac:dyDescent="0.65">
       <c r="A13" s="1" t="s">
-        <v>182</v>
+        <v>382</v>
       </c>
       <c r="B13" t="s">
-        <v>345</v>
+        <v>304</v>
       </c>
       <c r="C13">
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>359</v>
+        <v>318</v>
       </c>
       <c r="E13" t="s">
         <v>0</v>
@@ -7173,16 +8549,16 @@
     </row>
     <row r="14" spans="1:5" ht="21" x14ac:dyDescent="0.65">
       <c r="A14" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B14" s="35" t="s">
-        <v>260</v>
+        <v>164</v>
+      </c>
+      <c r="B14" s="32" t="s">
+        <v>219</v>
       </c>
       <c r="C14">
         <v>27</v>
       </c>
-      <c r="D14" s="35" t="s">
-        <v>261</v>
+      <c r="D14" s="32" t="s">
+        <v>220</v>
       </c>
       <c r="E14" t="s">
         <v>0</v>
@@ -7190,16 +8566,16 @@
     </row>
     <row r="15" spans="1:5" ht="21" x14ac:dyDescent="0.65">
       <c r="A15" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="B15" s="35" t="s">
-        <v>262</v>
+        <v>165</v>
+      </c>
+      <c r="B15" s="32" t="s">
+        <v>221</v>
       </c>
       <c r="C15">
         <v>27</v>
       </c>
-      <c r="D15" s="35" t="s">
-        <v>261</v>
+      <c r="D15" s="32" t="s">
+        <v>220</v>
       </c>
       <c r="E15" t="s">
         <v>0</v>
@@ -7207,16 +8583,16 @@
     </row>
     <row r="16" spans="1:5" ht="21" x14ac:dyDescent="0.65">
       <c r="A16" s="1" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="B16" t="s">
-        <v>349</v>
+        <v>308</v>
       </c>
       <c r="C16">
         <v>27</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>361</v>
+        <v>320</v>
       </c>
       <c r="E16" t="s">
         <v>0</v>
@@ -7224,16 +8600,16 @@
     </row>
     <row r="17" spans="1:5" ht="21" x14ac:dyDescent="0.65">
       <c r="A17" s="1" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="B17" t="s">
-        <v>350</v>
+        <v>309</v>
       </c>
       <c r="C17">
         <v>27</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>361</v>
+        <v>320</v>
       </c>
       <c r="E17" t="s">
         <v>0</v>
@@ -7241,16 +8617,16 @@
     </row>
     <row r="18" spans="1:5" ht="21" x14ac:dyDescent="0.65">
       <c r="A18" s="1" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="B18" t="s">
-        <v>351</v>
+        <v>310</v>
       </c>
       <c r="C18">
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>361</v>
+        <v>320</v>
       </c>
       <c r="E18" t="s">
         <v>0</v>
@@ -7258,16 +8634,16 @@
     </row>
     <row r="19" spans="1:5" ht="21" x14ac:dyDescent="0.65">
       <c r="A19" s="1" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="B19" t="s">
-        <v>352</v>
+        <v>311</v>
       </c>
       <c r="C19">
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>361</v>
+        <v>320</v>
       </c>
       <c r="E19" t="s">
         <v>0</v>
@@ -7275,16 +8651,16 @@
     </row>
     <row r="20" spans="1:5" ht="21" x14ac:dyDescent="0.65">
       <c r="A20" s="1" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="B20" t="s">
-        <v>353</v>
+        <v>312</v>
       </c>
       <c r="C20">
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>361</v>
+        <v>320</v>
       </c>
       <c r="E20" t="s">
         <v>0</v>
@@ -7292,118 +8668,118 @@
     </row>
     <row r="21" spans="1:5" ht="21" x14ac:dyDescent="0.65">
       <c r="A21" s="1" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="B21" t="s">
-        <v>354</v>
+        <v>313</v>
       </c>
       <c r="C21">
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>361</v>
+        <v>320</v>
       </c>
       <c r="E21" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="21" x14ac:dyDescent="0.65">
-      <c r="A22" s="34" t="s">
-        <v>191</v>
-      </c>
-      <c r="B22" s="35" t="s">
-        <v>263</v>
+      <c r="A22" s="31" t="s">
+        <v>172</v>
+      </c>
+      <c r="B22" s="32" t="s">
+        <v>222</v>
       </c>
       <c r="C22">
         <v>27</v>
       </c>
-      <c r="D22" s="35" t="s">
-        <v>264</v>
+      <c r="D22" s="32" t="s">
+        <v>223</v>
       </c>
       <c r="E22" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="21" x14ac:dyDescent="0.65">
-      <c r="A23" s="34" t="s">
-        <v>192</v>
-      </c>
-      <c r="B23" s="35" t="s">
-        <v>265</v>
+      <c r="A23" s="31" t="s">
+        <v>173</v>
+      </c>
+      <c r="B23" s="32" t="s">
+        <v>224</v>
       </c>
       <c r="C23">
         <v>27</v>
       </c>
-      <c r="D23" s="35" t="s">
-        <v>264</v>
+      <c r="D23" s="32" t="s">
+        <v>223</v>
       </c>
       <c r="E23" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="21" x14ac:dyDescent="0.65">
-      <c r="A24" s="34" t="s">
-        <v>193</v>
-      </c>
-      <c r="B24" s="35" t="s">
-        <v>266</v>
+      <c r="A24" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="B24" s="32" t="s">
+        <v>225</v>
       </c>
       <c r="C24">
         <v>27</v>
       </c>
-      <c r="D24" s="35" t="s">
-        <v>264</v>
+      <c r="D24" s="32" t="s">
+        <v>223</v>
       </c>
       <c r="E24" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="21" x14ac:dyDescent="0.65">
-      <c r="A25" s="34" t="s">
-        <v>194</v>
-      </c>
-      <c r="B25" s="35" t="s">
-        <v>267</v>
+      <c r="A25" s="31" t="s">
+        <v>175</v>
+      </c>
+      <c r="B25" s="32" t="s">
+        <v>226</v>
       </c>
       <c r="C25">
         <v>27</v>
       </c>
-      <c r="D25" s="35" t="s">
-        <v>264</v>
+      <c r="D25" s="32" t="s">
+        <v>223</v>
       </c>
       <c r="E25" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="21" x14ac:dyDescent="0.65">
-      <c r="A26" s="34" t="s">
-        <v>195</v>
-      </c>
-      <c r="B26" s="35" t="s">
-        <v>268</v>
+      <c r="A26" s="31" t="s">
+        <v>176</v>
+      </c>
+      <c r="B26" s="32" t="s">
+        <v>227</v>
       </c>
       <c r="C26">
         <v>27</v>
       </c>
-      <c r="D26" s="35" t="s">
-        <v>264</v>
+      <c r="D26" s="32" t="s">
+        <v>223</v>
       </c>
       <c r="E26" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="21" x14ac:dyDescent="0.65">
-      <c r="A27" s="34" t="s">
-        <v>196</v>
-      </c>
-      <c r="B27" s="35" t="s">
-        <v>269</v>
+      <c r="A27" s="31" t="s">
+        <v>177</v>
+      </c>
+      <c r="B27" s="32" t="s">
+        <v>228</v>
       </c>
       <c r="C27">
         <v>27</v>
       </c>
-      <c r="D27" s="35" t="s">
-        <v>264</v>
+      <c r="D27" s="32" t="s">
+        <v>223</v>
       </c>
       <c r="E27" t="s">
         <v>1</v>
@@ -7411,16 +8787,16 @@
     </row>
     <row r="28" spans="1:5" ht="21" x14ac:dyDescent="0.65">
       <c r="A28" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="B28" s="35" t="s">
-        <v>270</v>
+        <v>204</v>
+      </c>
+      <c r="B28" s="32" t="s">
+        <v>229</v>
       </c>
       <c r="C28">
         <v>27</v>
       </c>
-      <c r="D28" s="35" t="s">
-        <v>264</v>
+      <c r="D28" s="32" t="s">
+        <v>223</v>
       </c>
       <c r="E28" t="s">
         <v>1</v>
@@ -7428,118 +8804,118 @@
     </row>
     <row r="29" spans="1:5" ht="21" x14ac:dyDescent="0.65">
       <c r="A29" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="B29" s="35" t="s">
-        <v>271</v>
+        <v>205</v>
+      </c>
+      <c r="B29" s="32" t="s">
+        <v>230</v>
       </c>
       <c r="C29">
         <v>27</v>
       </c>
-      <c r="D29" s="35" t="s">
-        <v>264</v>
+      <c r="D29" s="32" t="s">
+        <v>223</v>
       </c>
       <c r="E29" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A30" s="42" t="s">
-        <v>272</v>
-      </c>
-      <c r="B30" s="35" t="s">
-        <v>273</v>
+      <c r="A30" s="39" t="s">
+        <v>231</v>
+      </c>
+      <c r="B30" s="32" t="s">
+        <v>232</v>
       </c>
       <c r="C30">
         <v>27</v>
       </c>
-      <c r="D30" s="35" t="s">
-        <v>274</v>
+      <c r="D30" s="32" t="s">
+        <v>233</v>
       </c>
       <c r="E30" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A31" s="42" t="s">
-        <v>275</v>
-      </c>
-      <c r="B31" s="35" t="s">
-        <v>276</v>
+      <c r="A31" s="39" t="s">
+        <v>234</v>
+      </c>
+      <c r="B31" s="32" t="s">
+        <v>235</v>
       </c>
       <c r="C31">
         <v>27</v>
       </c>
-      <c r="D31" s="35" t="s">
-        <v>274</v>
+      <c r="D31" s="32" t="s">
+        <v>233</v>
       </c>
       <c r="E31" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A32" s="42" t="s">
-        <v>277</v>
-      </c>
-      <c r="B32" s="35" t="s">
-        <v>278</v>
+      <c r="A32" s="39" t="s">
+        <v>236</v>
+      </c>
+      <c r="B32" s="32" t="s">
+        <v>237</v>
       </c>
       <c r="C32">
         <v>27</v>
       </c>
-      <c r="D32" s="35" t="s">
-        <v>274</v>
+      <c r="D32" s="32" t="s">
+        <v>233</v>
       </c>
       <c r="E32" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A33" s="42" t="s">
-        <v>279</v>
-      </c>
-      <c r="B33" s="35" t="s">
-        <v>280</v>
+      <c r="A33" s="39" t="s">
+        <v>238</v>
+      </c>
+      <c r="B33" s="32" t="s">
+        <v>239</v>
       </c>
       <c r="C33">
         <v>27</v>
       </c>
-      <c r="D33" s="35" t="s">
-        <v>274</v>
+      <c r="D33" s="32" t="s">
+        <v>233</v>
       </c>
       <c r="E33" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A34" s="42" t="s">
-        <v>281</v>
-      </c>
-      <c r="B34" s="35" t="s">
-        <v>282</v>
+      <c r="A34" s="39" t="s">
+        <v>240</v>
+      </c>
+      <c r="B34" s="32" t="s">
+        <v>241</v>
       </c>
       <c r="C34">
         <v>27</v>
       </c>
-      <c r="D34" s="35" t="s">
-        <v>274</v>
+      <c r="D34" s="32" t="s">
+        <v>233</v>
       </c>
       <c r="E34" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A35" s="42" t="s">
-        <v>283</v>
-      </c>
-      <c r="B35" s="35" t="s">
-        <v>284</v>
+      <c r="A35" s="39" t="s">
+        <v>242</v>
+      </c>
+      <c r="B35" s="32" t="s">
+        <v>243</v>
       </c>
       <c r="C35">
         <v>27</v>
       </c>
-      <c r="D35" s="35" t="s">
-        <v>274</v>
+      <c r="D35" s="32" t="s">
+        <v>233</v>
       </c>
       <c r="E35" t="s">
         <v>0</v>
@@ -7547,16 +8923,16 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A36" t="s">
-        <v>285</v>
+        <v>244</v>
       </c>
       <c r="B36" t="s">
-        <v>355</v>
+        <v>314</v>
       </c>
       <c r="C36">
         <v>27</v>
       </c>
       <c r="D36" t="s">
-        <v>360</v>
+        <v>319</v>
       </c>
       <c r="E36" t="s">
         <v>0</v>
@@ -7564,16 +8940,16 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A37" t="s">
-        <v>286</v>
+        <v>245</v>
       </c>
       <c r="B37" t="s">
-        <v>356</v>
+        <v>315</v>
       </c>
       <c r="C37">
         <v>27</v>
       </c>
       <c r="D37" t="s">
-        <v>360</v>
+        <v>319</v>
       </c>
       <c r="E37" t="s">
         <v>0</v>
@@ -7581,16 +8957,16 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A38" t="s">
-        <v>287</v>
+        <v>246</v>
       </c>
       <c r="B38" t="s">
-        <v>357</v>
+        <v>316</v>
       </c>
       <c r="C38">
         <v>27</v>
       </c>
       <c r="D38" t="s">
-        <v>360</v>
+        <v>319</v>
       </c>
       <c r="E38" t="s">
         <v>0</v>
@@ -7609,8 +8985,8 @@
   </sheetPr>
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1875" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -7624,33 +9000,33 @@
   <sheetData>
     <row r="1" spans="1:5" ht="30.75" x14ac:dyDescent="0.9">
       <c r="A1" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>36</v>
+        <v>383</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>219</v>
+        <v>178</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="21" x14ac:dyDescent="0.65">
       <c r="A2" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="B2" s="35" t="s">
-        <v>116</v>
+        <v>152</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>97</v>
       </c>
       <c r="C2">
         <v>64</v>
       </c>
-      <c r="D2" s="35" t="s">
-        <v>115</v>
+      <c r="D2" s="32" t="s">
+        <v>96</v>
       </c>
       <c r="E2" t="s">
         <v>1</v>
@@ -7658,16 +9034,16 @@
     </row>
     <row r="3" spans="1:5" ht="21" x14ac:dyDescent="0.65">
       <c r="A3" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="B3" s="45" t="s">
-        <v>114</v>
+        <v>153</v>
+      </c>
+      <c r="B3" s="42" t="s">
+        <v>95</v>
       </c>
       <c r="C3">
         <v>64</v>
       </c>
-      <c r="D3" s="35" t="s">
-        <v>115</v>
+      <c r="D3" s="32" t="s">
+        <v>96</v>
       </c>
       <c r="E3" t="s">
         <v>1</v>
@@ -7675,16 +9051,16 @@
     </row>
     <row r="4" spans="1:5" ht="21" x14ac:dyDescent="0.65">
       <c r="A4" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="B4" s="35" t="s">
-        <v>288</v>
+        <v>154</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>247</v>
       </c>
       <c r="C4">
         <v>64</v>
       </c>
-      <c r="D4" s="35" t="s">
-        <v>115</v>
+      <c r="D4" s="32" t="s">
+        <v>96</v>
       </c>
       <c r="E4" t="s">
         <v>1</v>
@@ -7692,16 +9068,16 @@
     </row>
     <row r="5" spans="1:5" ht="21" x14ac:dyDescent="0.65">
       <c r="A5" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="B5" s="35" t="s">
-        <v>289</v>
+        <v>155</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>248</v>
       </c>
       <c r="C5">
         <v>64</v>
       </c>
-      <c r="D5" s="35" t="s">
-        <v>115</v>
+      <c r="D5" s="32" t="s">
+        <v>96</v>
       </c>
       <c r="E5" t="s">
         <v>1</v>
@@ -7709,16 +9085,16 @@
     </row>
     <row r="6" spans="1:5" ht="21" x14ac:dyDescent="0.65">
       <c r="A6" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B6" s="35" t="s">
-        <v>290</v>
+        <v>156</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>249</v>
       </c>
       <c r="C6">
         <v>64</v>
       </c>
-      <c r="D6" s="35" t="s">
-        <v>115</v>
+      <c r="D6" s="32" t="s">
+        <v>96</v>
       </c>
       <c r="E6" t="s">
         <v>1</v>
@@ -7726,16 +9102,16 @@
     </row>
     <row r="7" spans="1:5" ht="21" x14ac:dyDescent="0.65">
       <c r="A7" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="B7" s="35" t="s">
-        <v>291</v>
+        <v>157</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>250</v>
       </c>
       <c r="C7">
         <v>64</v>
       </c>
-      <c r="D7" s="35" t="s">
-        <v>115</v>
+      <c r="D7" s="32" t="s">
+        <v>96</v>
       </c>
       <c r="E7" t="s">
         <v>1</v>
@@ -7743,16 +9119,16 @@
     </row>
     <row r="8" spans="1:5" ht="21" x14ac:dyDescent="0.65">
       <c r="A8" s="1" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="B8" t="s">
-        <v>362</v>
+        <v>321</v>
       </c>
       <c r="C8">
         <v>64</v>
       </c>
       <c r="D8" t="s">
-        <v>369</v>
+        <v>328</v>
       </c>
       <c r="E8" t="s">
         <v>0</v>
@@ -7760,16 +9136,16 @@
     </row>
     <row r="9" spans="1:5" ht="21" x14ac:dyDescent="0.65">
       <c r="A9" s="1" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="B9" t="s">
-        <v>364</v>
+        <v>323</v>
       </c>
       <c r="C9">
         <v>64</v>
       </c>
       <c r="D9" t="s">
-        <v>369</v>
+        <v>328</v>
       </c>
       <c r="E9" t="s">
         <v>0</v>
@@ -7777,16 +9153,16 @@
     </row>
     <row r="10" spans="1:5" ht="21" x14ac:dyDescent="0.65">
       <c r="A10" s="1" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="B10" t="s">
-        <v>363</v>
+        <v>322</v>
       </c>
       <c r="C10">
         <v>64</v>
       </c>
       <c r="D10" t="s">
-        <v>369</v>
+        <v>328</v>
       </c>
       <c r="E10" t="s">
         <v>0</v>
@@ -7794,16 +9170,16 @@
     </row>
     <row r="11" spans="1:5" ht="21" x14ac:dyDescent="0.65">
       <c r="A11" s="1" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="B11" t="s">
-        <v>365</v>
+        <v>324</v>
       </c>
       <c r="C11">
         <v>64</v>
       </c>
       <c r="D11" t="s">
-        <v>368</v>
+        <v>327</v>
       </c>
       <c r="E11" t="s">
         <v>0</v>
@@ -7811,16 +9187,16 @@
     </row>
     <row r="12" spans="1:5" ht="21" x14ac:dyDescent="0.65">
       <c r="A12" s="1" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="B12" t="s">
-        <v>366</v>
+        <v>325</v>
       </c>
       <c r="C12">
         <v>64</v>
       </c>
       <c r="D12" t="s">
-        <v>368</v>
+        <v>327</v>
       </c>
       <c r="E12" t="s">
         <v>0</v>
@@ -7828,16 +9204,16 @@
     </row>
     <row r="13" spans="1:5" ht="21" x14ac:dyDescent="0.65">
       <c r="A13" s="1" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="B13" t="s">
-        <v>367</v>
+        <v>326</v>
       </c>
       <c r="C13">
         <v>64</v>
       </c>
       <c r="D13" t="s">
-        <v>368</v>
+        <v>327</v>
       </c>
       <c r="E13" t="s">
         <v>0</v>
@@ -7845,16 +9221,16 @@
     </row>
     <row r="14" spans="1:5" ht="21" x14ac:dyDescent="0.65">
       <c r="A14" s="1" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="B14" t="s">
-        <v>292</v>
+        <v>251</v>
       </c>
       <c r="C14">
         <v>64</v>
       </c>
       <c r="D14" t="s">
-        <v>293</v>
+        <v>252</v>
       </c>
       <c r="E14" t="s">
         <v>0</v>
@@ -7862,16 +9238,16 @@
     </row>
     <row r="15" spans="1:5" ht="21" x14ac:dyDescent="0.65">
       <c r="A15" s="1" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="B15" t="s">
-        <v>294</v>
+        <v>253</v>
       </c>
       <c r="C15">
         <v>64</v>
       </c>
       <c r="D15" t="s">
-        <v>293</v>
+        <v>252</v>
       </c>
       <c r="E15" t="s">
         <v>0</v>
@@ -7879,16 +9255,16 @@
     </row>
     <row r="16" spans="1:5" ht="21" x14ac:dyDescent="0.65">
       <c r="A16" s="1" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="B16" t="s">
-        <v>374</v>
+        <v>333</v>
       </c>
       <c r="C16">
         <v>64</v>
       </c>
       <c r="D16" t="s">
-        <v>370</v>
+        <v>329</v>
       </c>
       <c r="E16" t="s">
         <v>0</v>
@@ -7896,16 +9272,16 @@
     </row>
     <row r="17" spans="1:5" ht="21" x14ac:dyDescent="0.65">
       <c r="A17" s="1" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="B17" t="s">
-        <v>375</v>
+        <v>334</v>
       </c>
       <c r="C17">
         <v>64</v>
       </c>
       <c r="D17" t="s">
-        <v>370</v>
+        <v>329</v>
       </c>
       <c r="E17" t="s">
         <v>0</v>
@@ -7913,16 +9289,16 @@
     </row>
     <row r="18" spans="1:5" ht="21" x14ac:dyDescent="0.65">
       <c r="A18" s="1" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="B18" t="s">
-        <v>376</v>
+        <v>335</v>
       </c>
       <c r="C18">
         <v>64</v>
       </c>
       <c r="D18" t="s">
-        <v>370</v>
+        <v>329</v>
       </c>
       <c r="E18" t="s">
         <v>0</v>
@@ -7930,16 +9306,16 @@
     </row>
     <row r="19" spans="1:5" ht="21" x14ac:dyDescent="0.65">
       <c r="A19" s="1" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="B19" t="s">
-        <v>373</v>
+        <v>332</v>
       </c>
       <c r="C19">
         <v>64</v>
       </c>
       <c r="D19" t="s">
-        <v>370</v>
+        <v>329</v>
       </c>
       <c r="E19" t="s">
         <v>0</v>
@@ -7947,16 +9323,16 @@
     </row>
     <row r="20" spans="1:5" ht="21" x14ac:dyDescent="0.65">
       <c r="A20" s="1" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="B20" t="s">
-        <v>372</v>
+        <v>331</v>
       </c>
       <c r="C20">
         <v>64</v>
       </c>
       <c r="D20" t="s">
-        <v>370</v>
+        <v>329</v>
       </c>
       <c r="E20" t="s">
         <v>0</v>
@@ -7964,118 +9340,118 @@
     </row>
     <row r="21" spans="1:5" ht="21" x14ac:dyDescent="0.65">
       <c r="A21" s="1" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="B21" t="s">
-        <v>371</v>
+        <v>330</v>
       </c>
       <c r="C21">
         <v>64</v>
       </c>
       <c r="D21" t="s">
-        <v>370</v>
+        <v>329</v>
       </c>
       <c r="E21" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="21" x14ac:dyDescent="0.65">
-      <c r="A22" s="34" t="s">
-        <v>191</v>
-      </c>
-      <c r="B22" s="35" t="s">
-        <v>295</v>
+      <c r="A22" s="31" t="s">
+        <v>172</v>
+      </c>
+      <c r="B22" s="32" t="s">
+        <v>254</v>
       </c>
       <c r="C22">
         <v>64</v>
       </c>
-      <c r="D22" s="35" t="s">
-        <v>296</v>
+      <c r="D22" s="32" t="s">
+        <v>255</v>
       </c>
       <c r="E22" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="21" x14ac:dyDescent="0.65">
-      <c r="A23" s="34" t="s">
-        <v>192</v>
-      </c>
-      <c r="B23" s="35" t="s">
-        <v>297</v>
+      <c r="A23" s="31" t="s">
+        <v>173</v>
+      </c>
+      <c r="B23" s="32" t="s">
+        <v>256</v>
       </c>
       <c r="C23">
         <v>64</v>
       </c>
-      <c r="D23" s="35" t="s">
-        <v>296</v>
+      <c r="D23" s="32" t="s">
+        <v>255</v>
       </c>
       <c r="E23" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="21" x14ac:dyDescent="0.65">
-      <c r="A24" s="34" t="s">
-        <v>193</v>
-      </c>
-      <c r="B24" s="35" t="s">
-        <v>298</v>
+      <c r="A24" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="B24" s="32" t="s">
+        <v>257</v>
       </c>
       <c r="C24">
         <v>64</v>
       </c>
-      <c r="D24" s="35" t="s">
-        <v>296</v>
+      <c r="D24" s="32" t="s">
+        <v>255</v>
       </c>
       <c r="E24" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="21" x14ac:dyDescent="0.65">
-      <c r="A25" s="34" t="s">
-        <v>194</v>
-      </c>
-      <c r="B25" s="35" t="s">
-        <v>299</v>
+      <c r="A25" s="31" t="s">
+        <v>175</v>
+      </c>
+      <c r="B25" s="32" t="s">
+        <v>258</v>
       </c>
       <c r="C25">
         <v>64</v>
       </c>
-      <c r="D25" s="35" t="s">
-        <v>296</v>
+      <c r="D25" s="32" t="s">
+        <v>255</v>
       </c>
       <c r="E25" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="21" x14ac:dyDescent="0.65">
-      <c r="A26" s="34" t="s">
-        <v>195</v>
-      </c>
-      <c r="B26" s="35" t="s">
-        <v>300</v>
+      <c r="A26" s="31" t="s">
+        <v>176</v>
+      </c>
+      <c r="B26" s="32" t="s">
+        <v>259</v>
       </c>
       <c r="C26">
         <v>64</v>
       </c>
-      <c r="D26" s="35" t="s">
-        <v>296</v>
+      <c r="D26" s="32" t="s">
+        <v>255</v>
       </c>
       <c r="E26" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="21" x14ac:dyDescent="0.65">
-      <c r="A27" s="34" t="s">
-        <v>196</v>
-      </c>
-      <c r="B27" s="35" t="s">
-        <v>301</v>
+      <c r="A27" s="31" t="s">
+        <v>177</v>
+      </c>
+      <c r="B27" s="32" t="s">
+        <v>260</v>
       </c>
       <c r="C27">
         <v>64</v>
       </c>
-      <c r="D27" s="35" t="s">
-        <v>296</v>
+      <c r="D27" s="32" t="s">
+        <v>255</v>
       </c>
       <c r="E27" t="s">
         <v>1</v>
@@ -8083,16 +9459,16 @@
     </row>
     <row r="28" spans="1:5" ht="21" x14ac:dyDescent="0.65">
       <c r="A28" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="B28" s="35" t="s">
-        <v>302</v>
+        <v>204</v>
+      </c>
+      <c r="B28" s="32" t="s">
+        <v>261</v>
       </c>
       <c r="C28">
         <v>64</v>
       </c>
-      <c r="D28" s="35" t="s">
-        <v>296</v>
+      <c r="D28" s="32" t="s">
+        <v>255</v>
       </c>
       <c r="E28" t="s">
         <v>1</v>
@@ -8100,16 +9476,16 @@
     </row>
     <row r="29" spans="1:5" ht="21" x14ac:dyDescent="0.65">
       <c r="A29" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="B29" s="35" t="s">
-        <v>303</v>
+        <v>205</v>
+      </c>
+      <c r="B29" s="32" t="s">
+        <v>262</v>
       </c>
       <c r="C29">
         <v>64</v>
       </c>
-      <c r="D29" s="35" t="s">
-        <v>296</v>
+      <c r="D29" s="32" t="s">
+        <v>255</v>
       </c>
       <c r="E29" t="s">
         <v>1</v>
@@ -8126,100 +9502,187 @@
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1875" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="31.8125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.8125" customWidth="1"/>
-    <col min="3" max="3" width="23.5" customWidth="1"/>
-    <col min="4" max="4" width="19.8125" customWidth="1"/>
-    <col min="5" max="5" width="24.6875" customWidth="1"/>
-    <col min="6" max="6" width="17.8125" customWidth="1"/>
-    <col min="7" max="7" width="27" customWidth="1"/>
-    <col min="8" max="8" width="21.6875" customWidth="1"/>
+    <col min="2" max="3" width="20.8125" customWidth="1"/>
+    <col min="4" max="4" width="23.5" customWidth="1"/>
+    <col min="5" max="5" width="19.8125" customWidth="1"/>
+    <col min="6" max="6" width="31.375" customWidth="1"/>
+    <col min="7" max="7" width="29.1875" customWidth="1"/>
+    <col min="8" max="10" width="19.8125" customWidth="1"/>
+    <col min="11" max="11" width="24.6875" customWidth="1"/>
+    <col min="12" max="12" width="29.8125" customWidth="1"/>
+    <col min="13" max="13" width="17.8125" customWidth="1"/>
+    <col min="14" max="14" width="29.5" customWidth="1"/>
+    <col min="15" max="15" width="17.8125" customWidth="1"/>
+    <col min="16" max="16" width="27" customWidth="1"/>
+    <col min="17" max="17" width="21.6875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30.75" x14ac:dyDescent="0.9">
+    <row r="1" spans="1:17" ht="30.75" x14ac:dyDescent="0.9">
       <c r="A1" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B1" s="10" t="s">
+        <v>384</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>385</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>386</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>389</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>390</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>391</v>
+      </c>
+      <c r="M1" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="N1" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="O1" s="11" t="s">
+        <v>393</v>
+      </c>
+      <c r="P1" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="Q1" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.65">
+    </row>
+    <row r="2" spans="1:17" ht="21" x14ac:dyDescent="0.65">
       <c r="A2" s="1" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="B2" t="s">
-        <v>307</v>
-      </c>
-      <c r="C2" s="40" t="s">
-        <v>380</v>
-      </c>
-      <c r="D2" s="40">
+        <v>266</v>
+      </c>
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>339</v>
+      </c>
+      <c r="E2" s="37">
         <v>200</v>
       </c>
-      <c r="E2" s="40">
+      <c r="F2" s="37" t="b">
+        <v>0</v>
+      </c>
+      <c r="G2" s="37">
+        <v>0</v>
+      </c>
+      <c r="H2" s="37" t="s">
+        <v>394</v>
+      </c>
+      <c r="I2" s="37" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" s="37" t="s">
+        <v>396</v>
+      </c>
+      <c r="K2" s="37">
         <v>90</v>
       </c>
-      <c r="F2" s="40">
+      <c r="L2" s="37" t="b">
+        <v>1</v>
+      </c>
+      <c r="M2" s="37">
         <v>30</v>
       </c>
-      <c r="G2" s="40" t="s">
-        <v>308</v>
-      </c>
-      <c r="H2" s="40" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.65">
+      <c r="N2" s="37">
+        <v>10</v>
+      </c>
+      <c r="O2" s="37">
+        <v>74</v>
+      </c>
+      <c r="P2" s="37" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q2" s="37" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="21" x14ac:dyDescent="0.65">
       <c r="A3" s="1" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="B3" t="s">
-        <v>377</v>
-      </c>
-      <c r="C3" s="40" t="s">
-        <v>381</v>
-      </c>
-      <c r="D3" s="40">
+        <v>336</v>
+      </c>
+      <c r="C3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>340</v>
+      </c>
+      <c r="E3" s="37">
         <v>100</v>
       </c>
-      <c r="E3" s="40">
+      <c r="F3" s="37" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" s="37">
+        <v>50</v>
+      </c>
+      <c r="H3" s="37" t="s">
+        <v>395</v>
+      </c>
+      <c r="I3" s="37" t="b">
+        <v>1</v>
+      </c>
+      <c r="J3" s="37" t="s">
+        <v>396</v>
+      </c>
+      <c r="K3" s="37">
         <v>80</v>
       </c>
-      <c r="F3" s="40">
+      <c r="L3" s="37" t="b">
+        <v>0</v>
+      </c>
+      <c r="M3" s="37">
         <v>40</v>
       </c>
-      <c r="G3" s="40" t="s">
-        <v>378</v>
-      </c>
-      <c r="H3" s="40" t="s">
-        <v>379</v>
+      <c r="N3" s="37">
+        <v>20</v>
+      </c>
+      <c r="O3" s="37">
+        <v>84</v>
+      </c>
+      <c r="P3" s="37" t="s">
+        <v>337</v>
+      </c>
+      <c r="Q3" s="37" t="s">
+        <v>338</v>
       </c>
     </row>
   </sheetData>
@@ -8232,10 +9695,10 @@
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1875" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -8244,88 +9707,136 @@
     <col min="2" max="2" width="20.8125" customWidth="1"/>
     <col min="3" max="3" width="23.5" customWidth="1"/>
     <col min="4" max="4" width="19.8125" customWidth="1"/>
-    <col min="5" max="5" width="24.6875" customWidth="1"/>
-    <col min="6" max="6" width="17.8125" customWidth="1"/>
-    <col min="7" max="7" width="27" customWidth="1"/>
-    <col min="8" max="8" width="21.6875" customWidth="1"/>
+    <col min="5" max="5" width="35.5625" customWidth="1"/>
+    <col min="6" max="6" width="28.625" customWidth="1"/>
+    <col min="7" max="9" width="19.8125" customWidth="1"/>
+    <col min="10" max="10" width="24.6875" customWidth="1"/>
+    <col min="11" max="11" width="17.8125" customWidth="1"/>
+    <col min="12" max="12" width="27" customWidth="1"/>
+    <col min="13" max="13" width="21.6875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30.75" x14ac:dyDescent="0.9">
+    <row r="1" spans="1:13" ht="30.75" x14ac:dyDescent="0.9">
       <c r="A1" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B1" s="10" t="s">
+        <v>384</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>386</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>389</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>390</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="L1" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="M1" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.65">
+    </row>
+    <row r="2" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A2" s="1" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="B2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C2" s="40" t="s">
-        <v>380</v>
-      </c>
-      <c r="D2" s="40">
+        <v>95</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>339</v>
+      </c>
+      <c r="D2" s="37">
         <v>200</v>
       </c>
-      <c r="E2" s="40">
+      <c r="E2" s="37" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2" s="37">
+        <v>0</v>
+      </c>
+      <c r="G2" s="37" t="s">
+        <v>394</v>
+      </c>
+      <c r="H2" s="37" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" s="37" t="s">
+        <v>396</v>
+      </c>
+      <c r="J2" s="37">
         <v>90</v>
       </c>
-      <c r="F2" s="40">
+      <c r="K2" s="37">
         <v>30</v>
       </c>
-      <c r="G2" s="40" t="s">
-        <v>308</v>
-      </c>
-      <c r="H2" s="40" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.65">
+      <c r="L2" s="37" t="s">
+        <v>267</v>
+      </c>
+      <c r="M2" s="37" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A3" s="1" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="B3" t="s">
-        <v>288</v>
-      </c>
-      <c r="C3" s="40" t="s">
-        <v>381</v>
-      </c>
-      <c r="D3" s="40">
+        <v>247</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>340</v>
+      </c>
+      <c r="D3" s="37">
         <v>100</v>
       </c>
-      <c r="E3" s="40">
+      <c r="E3" s="37" t="b">
+        <v>1</v>
+      </c>
+      <c r="F3" s="37">
+        <v>50</v>
+      </c>
+      <c r="G3" s="37" t="s">
+        <v>395</v>
+      </c>
+      <c r="H3" s="37" t="b">
+        <v>1</v>
+      </c>
+      <c r="I3" s="37" t="s">
+        <v>396</v>
+      </c>
+      <c r="J3" s="37">
         <v>80</v>
       </c>
-      <c r="F3" s="40">
+      <c r="K3" s="37">
         <v>40</v>
       </c>
-      <c r="G3" s="40" t="s">
-        <v>378</v>
-      </c>
-      <c r="H3" s="40" t="s">
-        <v>379</v>
+      <c r="L3" s="37" t="s">
+        <v>337</v>
+      </c>
+      <c r="M3" s="37" t="s">
+        <v>338</v>
       </c>
     </row>
   </sheetData>
@@ -8340,8 +9851,8 @@
   </sheetPr>
   <dimension ref="A1:J1"/>
   <sheetViews>
-    <sheetView topLeftCell="D17" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1875" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -8359,34 +9870,34 @@
   <sheetData>
     <row r="1" spans="1:10" ht="30.75" x14ac:dyDescent="0.9">
       <c r="A1" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D1" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="I1" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="J1" s="11" t="s">
         <v>41</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="J1" s="11" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/Generate_IxNetwork_Config-original.xlsx
+++ b/Generate_IxNetwork_Config-original.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moharedd\Downloads\Cisco-cafy\latestcode\tgn_1812_latest\tgn_1812\Bulk-config\Anish\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moharedd\Downloads\Cisco-cafy\latestcode\tgn_1812_latest\tgn_1812\Bulk-config\Mohan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B98DE1CA-B01D-4665-917C-138F7E06D4B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{596A9641-B5DF-4C42-AD5F-C38342E072A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" firstSheet="3" activeTab="3" xr2:uid="{7E5D92D4-6857-044F-AF5A-65E71E62F3C3}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" firstSheet="16" activeTab="18" xr2:uid="{7E5D92D4-6857-044F-AF5A-65E71E62F3C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Build_Information" sheetId="1" r:id="rId1"/>
@@ -29,8 +29,12 @@
     <sheet name="Network_Group" sheetId="4" r:id="rId14"/>
     <sheet name="IGMP_Host" sheetId="13" r:id="rId15"/>
     <sheet name="IGMP_Querier" sheetId="14" r:id="rId16"/>
-    <sheet name="Traffic" sheetId="9" r:id="rId17"/>
-    <sheet name="packet_editor" sheetId="17" r:id="rId18"/>
+    <sheet name="DHCP_Ipv4" sheetId="21" r:id="rId17"/>
+    <sheet name="DHCP_Ipv6" sheetId="20" r:id="rId18"/>
+    <sheet name="DHCP_Serverv4" sheetId="22" r:id="rId19"/>
+    <sheet name="DHCP_Serverv6" sheetId="23" r:id="rId20"/>
+    <sheet name="Traffic" sheetId="9" r:id="rId21"/>
+    <sheet name="packet_editor" sheetId="17" r:id="rId22"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Devicegroup!$A$1:$D$38</definedName>
@@ -328,7 +332,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1327" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1430" uniqueCount="566">
   <si>
     <t>yes</t>
   </si>
@@ -1858,6 +1862,174 @@
   </si>
   <si>
     <t>SI-FANOUT-SW12_GroupG_Server;FE-FANOUT-SW32_GroupG_Server</t>
+  </si>
+  <si>
+    <t>127.0.0.1</t>
+  </si>
+  <si>
+    <t>20.0.0.1</t>
+  </si>
+  <si>
+    <t>mohan</t>
+  </si>
+  <si>
+    <t>Manual Gateway Ip</t>
+  </si>
+  <si>
+    <t>0.0.0.0</t>
+  </si>
+  <si>
+    <t>Manual Gateway Mac</t>
+  </si>
+  <si>
+    <t>TLV Profile</t>
+  </si>
+  <si>
+    <t>Renew Timer</t>
+  </si>
+  <si>
+    <t>Rapid Commit</t>
+  </si>
+  <si>
+    <t>Use First Server</t>
+  </si>
+  <si>
+    <t>Broadcast</t>
+  </si>
+  <si>
+    <t>Server Address</t>
+  </si>
+  <si>
+    <t>10.10.0.1</t>
+  </si>
+  <si>
+    <t>30.10.0.1</t>
+  </si>
+  <si>
+    <t>00:00:00:00:00:00</t>
+  </si>
+  <si>
+    <t>00:00:00:00:00:33</t>
+  </si>
+  <si>
+    <t>Manual Gateway Ipv6</t>
+  </si>
+  <si>
+    <t>IANA Count</t>
+  </si>
+  <si>
+    <t>IAPD Count</t>
+  </si>
+  <si>
+    <t>Custom Link Local Address</t>
+  </si>
+  <si>
+    <t>IA Type</t>
+  </si>
+  <si>
+    <t>IA ID</t>
+  </si>
+  <si>
+    <t>IA ID Incremet</t>
+  </si>
+  <si>
+    <t>fe80::2:1:0:1</t>
+  </si>
+  <si>
+    <t>fe80::2:1:0:2</t>
+  </si>
+  <si>
+    <t>iana</t>
+  </si>
+  <si>
+    <t>iapd</t>
+  </si>
+  <si>
+    <t>Start Pool Address</t>
+  </si>
+  <si>
+    <t>Pool Address Increment</t>
+  </si>
+  <si>
+    <t>Pool Size</t>
+  </si>
+  <si>
+    <t>100.1.1.3</t>
+  </si>
+  <si>
+    <t>Pool Count</t>
+  </si>
+  <si>
+    <t>IP Prefix</t>
+  </si>
+  <si>
+    <t>Lease Time</t>
+  </si>
+  <si>
+    <t>Assign Ip on Specific Subnet</t>
+  </si>
+  <si>
+    <t>Subnet</t>
+  </si>
+  <si>
+    <t>3000:0:1:1::1:2</t>
+  </si>
+  <si>
+    <t>4000:0:1:1::1:2</t>
+  </si>
+  <si>
+    <t>::0.0.0.1</t>
+  </si>
+  <si>
+    <t>::0.0.0.2</t>
+  </si>
+  <si>
+    <t>Start Pool Prefix</t>
+  </si>
+  <si>
+    <t>Pool Prefix Increment</t>
+  </si>
+  <si>
+    <t>a1a1::</t>
+  </si>
+  <si>
+    <t>b1b1::</t>
+  </si>
+  <si>
+    <t>0:0:0:1::</t>
+  </si>
+  <si>
+    <t>0:0:0:3::</t>
+  </si>
+  <si>
+    <t>Pool Prefix Size</t>
+  </si>
+  <si>
+    <t>Prefix Length</t>
+  </si>
+  <si>
+    <t>DHCP V4 Configuration</t>
+  </si>
+  <si>
+    <t>DHCP_Ipv4</t>
+  </si>
+  <si>
+    <t>DHCP_Ipv6</t>
+  </si>
+  <si>
+    <t>DHCP V6 Configuration</t>
+  </si>
+  <si>
+    <t>DHCP Server V4 Configuration</t>
+  </si>
+  <si>
+    <t>DHCP Server V6 Configuration</t>
+  </si>
+  <si>
+    <t>DHCP_Serverv4</t>
+  </si>
+  <si>
+    <t>DHCP_Serverv6</t>
   </si>
 </sst>
 </file>
@@ -2089,7 +2261,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -2153,65 +2325,23 @@
       <top style="thin">
         <color rgb="FF8EA9DB"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF8EA9DB"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF8EA9DB"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF8EA9DB"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF8EA9DB"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF8EA9DB"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF8EA9DB"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF8EA9DB"/>
-      </top>
       <bottom style="thin">
         <color rgb="FF8EA9DB"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
-        <color rgb="FF8EA9DB"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF8EA9DB"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2219,13 +2349,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2243,36 +2369,21 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="12" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="13" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="14" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="14" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="15" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="15" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2289,14 +2400,55 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="14" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="15" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="13" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="12" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="5">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="24"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -2315,6 +2467,24 @@
           <bgColor theme="2"/>
         </patternFill>
       </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -2329,6 +2499,26 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="30" formatCode="@"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -2343,19 +2533,24 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="24"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -2389,12 +2584,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{745DACF6-0076-3A46-9842-FCF5B835F442}" name="Table55" displayName="Table55" ref="B1:D13" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
-  <autoFilter ref="B1:D13" xr:uid="{51982F0C-E04B-7348-BA22-E3F6150ACF16}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{745DACF6-0076-3A46-9842-FCF5B835F442}" name="Table55" displayName="Table55" ref="B1:D15" totalsRowShown="0" headerRowDxfId="0" dataDxfId="4">
+  <autoFilter ref="B1:D15" xr:uid="{51982F0C-E04B-7348-BA22-E3F6150ACF16}"/>
   <tableColumns count="3">
-    <tableColumn id="4" xr3:uid="{7A362E5A-1040-7149-8DBB-EC9D1844E05A}" name="Description" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{D2425230-F6DB-144C-83EF-00D07B561F22}" name="Worksheet" dataDxfId="1"/>
-    <tableColumn id="1" xr3:uid="{E820C1AA-CB48-9E41-91AD-7A0AFBE94D0F}" name="Status" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{7A362E5A-1040-7149-8DBB-EC9D1844E05A}" name="Description" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{D2425230-F6DB-144C-83EF-00D07B561F22}" name="Worksheet" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{E820C1AA-CB48-9E41-91AD-7A0AFBE94D0F}" name="Status" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2700,10 +2895,10 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1875" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -2715,254 +2910,310 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="30.75" x14ac:dyDescent="0.9">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="28" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="30.75" x14ac:dyDescent="0.9">
-      <c r="A2" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="16" t="s">
+      <c r="A2" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="25" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="30.75" x14ac:dyDescent="0.9">
-      <c r="A3" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="16" t="s">
+      <c r="A3" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="25" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="30.75" x14ac:dyDescent="0.9">
-      <c r="A4" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="16" t="s">
+      <c r="A4" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="25" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="30.75" x14ac:dyDescent="0.9">
-      <c r="A5" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="15" t="s">
+      <c r="A5" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="25" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="30.75" x14ac:dyDescent="0.9">
-      <c r="A6" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="15" t="s">
+      <c r="A6" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="25" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="30.75" x14ac:dyDescent="0.9">
-      <c r="A7" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="3" t="s">
+      <c r="A7" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="26" t="s">
         <v>180</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="26" t="s">
         <v>179</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="25" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="30.75" x14ac:dyDescent="0.9">
-      <c r="A8" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="3" t="s">
+      <c r="A8" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="26" t="s">
         <v>182</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="26" t="s">
         <v>183</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="25" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="30.75" x14ac:dyDescent="0.9">
-      <c r="A9" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" s="3" t="s">
+      <c r="A9" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="26" t="s">
         <v>188</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="26" t="s">
         <v>187</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="25" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="30.75" x14ac:dyDescent="0.9">
-      <c r="A10" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="3" t="s">
+      <c r="A10" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="25" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="30.75" x14ac:dyDescent="0.9">
-      <c r="A11" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="3" t="s">
+      <c r="A11" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="26" t="s">
         <v>345</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="26" t="s">
         <v>379</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="25" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="30.75" x14ac:dyDescent="0.9">
-      <c r="A12" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="3" t="s">
+      <c r="A12" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="26" t="s">
         <v>346</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="26" t="s">
         <v>380</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="25" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="30.75" x14ac:dyDescent="0.9">
-      <c r="A13" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="3" t="s">
+      <c r="A13" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="25" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="30.75" x14ac:dyDescent="0.9">
-      <c r="A14" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="25" t="s">
+      <c r="A14" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="26" t="s">
+        <v>558</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>559</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="30.75" x14ac:dyDescent="0.9">
+      <c r="A15" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>561</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>560</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="30.75" x14ac:dyDescent="0.9">
+      <c r="A16" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="26" t="s">
+        <v>562</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>564</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="30.75" x14ac:dyDescent="0.9">
+      <c r="A17" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="26" t="s">
+        <v>563</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>565</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="30.75" x14ac:dyDescent="0.9">
+      <c r="A18" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C18" s="30" t="s">
         <v>487</v>
       </c>
-      <c r="D14" s="20" t="s">
+      <c r="D18" s="31" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="30.75" x14ac:dyDescent="0.9">
-      <c r="A15" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" s="27" t="s">
+    <row r="19" spans="1:4" ht="30.75" x14ac:dyDescent="0.9">
+      <c r="A19" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="32" t="s">
         <v>457</v>
       </c>
-      <c r="C15" s="28" t="s">
+      <c r="C19" s="32" t="s">
         <v>455</v>
       </c>
-      <c r="D15" s="20" t="s">
+      <c r="D19" s="31" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="30.75" x14ac:dyDescent="0.9">
-      <c r="A16" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" s="27" t="s">
+    <row r="20" spans="1:4" ht="30.75" x14ac:dyDescent="0.9">
+      <c r="A20" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="32" t="s">
         <v>458</v>
       </c>
-      <c r="C16" s="28" t="s">
+      <c r="C20" s="32" t="s">
         <v>456</v>
       </c>
-      <c r="D16" s="24" t="s">
+      <c r="D20" s="33" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="30.75" x14ac:dyDescent="0.9">
-      <c r="A17" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" s="13" t="s">
+    <row r="21" spans="1:4" ht="30.75" x14ac:dyDescent="0.9">
+      <c r="A21" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C21" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="34" t="s">
+      <c r="D21" s="25" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="30.75" x14ac:dyDescent="0.9">
-      <c r="A18" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" s="22" t="s">
+    <row r="22" spans="1:4" ht="30.75" x14ac:dyDescent="0.9">
+      <c r="A22" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="C18" s="23" t="s">
+      <c r="C22" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="D18" s="24" t="s">
+      <c r="D22" s="33" t="s">
         <v>78</v>
       </c>
     </row>
@@ -2997,34 +3248,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="30.75" x14ac:dyDescent="0.9">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="5" t="s">
         <v>63</v>
       </c>
     </row>
@@ -3043,7 +3294,7 @@
   </sheetPr>
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="H1" workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
@@ -3058,40 +3309,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="30.75" x14ac:dyDescent="0.9">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="7" t="s">
         <v>41</v>
       </c>
     </row>
@@ -3424,7 +3675,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" ht="21" x14ac:dyDescent="0.65">
-      <c r="A22" s="31" t="s">
+      <c r="A22" s="13" t="s">
         <v>172</v>
       </c>
       <c r="B22" t="s">
@@ -3435,7 +3686,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="21" x14ac:dyDescent="0.65">
-      <c r="A23" s="31" t="s">
+      <c r="A23" s="13" t="s">
         <v>173</v>
       </c>
       <c r="B23" t="s">
@@ -3446,7 +3697,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" ht="21" x14ac:dyDescent="0.65">
-      <c r="A24" s="31" t="s">
+      <c r="A24" s="13" t="s">
         <v>174</v>
       </c>
       <c r="B24" t="s">
@@ -3457,7 +3708,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" ht="21" x14ac:dyDescent="0.65">
-      <c r="A25" s="31" t="s">
+      <c r="A25" s="13" t="s">
         <v>175</v>
       </c>
       <c r="B25" t="s">
@@ -3468,7 +3719,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" ht="21" x14ac:dyDescent="0.65">
-      <c r="A26" s="31" t="s">
+      <c r="A26" s="13" t="s">
         <v>176</v>
       </c>
       <c r="B26" t="s">
@@ -3479,7 +3730,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" ht="21" x14ac:dyDescent="0.65">
-      <c r="A27" s="31" t="s">
+      <c r="A27" s="13" t="s">
         <v>177</v>
       </c>
       <c r="B27" t="s">
@@ -3539,37 +3790,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="30.75" x14ac:dyDescent="0.9">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="8" t="s">
         <v>344</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="8" t="s">
         <v>343</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="7" t="s">
         <v>41</v>
       </c>
     </row>
@@ -3881,7 +4132,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" ht="21" x14ac:dyDescent="0.65">
-      <c r="A22" s="31" t="s">
+      <c r="A22" s="13" t="s">
         <v>172</v>
       </c>
       <c r="B22" t="s">
@@ -3892,7 +4143,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="21" x14ac:dyDescent="0.65">
-      <c r="A23" s="31" t="s">
+      <c r="A23" s="13" t="s">
         <v>173</v>
       </c>
       <c r="B23" t="s">
@@ -3903,7 +4154,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" ht="21" x14ac:dyDescent="0.65">
-      <c r="A24" s="31" t="s">
+      <c r="A24" s="13" t="s">
         <v>174</v>
       </c>
       <c r="B24" t="s">
@@ -3914,7 +4165,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" ht="21" x14ac:dyDescent="0.65">
-      <c r="A25" s="31" t="s">
+      <c r="A25" s="13" t="s">
         <v>175</v>
       </c>
       <c r="B25" t="s">
@@ -3925,7 +4176,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" ht="21" x14ac:dyDescent="0.65">
-      <c r="A26" s="31" t="s">
+      <c r="A26" s="13" t="s">
         <v>176</v>
       </c>
       <c r="B26" t="s">
@@ -3936,7 +4187,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" ht="21" x14ac:dyDescent="0.65">
-      <c r="A27" s="31" t="s">
+      <c r="A27" s="13" t="s">
         <v>177</v>
       </c>
       <c r="B27" t="s">
@@ -3982,7 +4233,7 @@
   </sheetPr>
   <dimension ref="A1:T10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="P1" workbookViewId="0">
       <selection activeCell="A6" sqref="A6:A9"/>
     </sheetView>
   </sheetViews>
@@ -4004,64 +4255,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="30.75" x14ac:dyDescent="0.9">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="24" t="s">
         <v>408</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="12" t="s">
         <v>398</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="12" t="s">
         <v>399</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="12" t="s">
         <v>400</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="H1" s="12" t="s">
         <v>401</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="I1" s="12" t="s">
         <v>402</v>
       </c>
-      <c r="J1" s="30" t="s">
+      <c r="J1" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="K1" s="29" t="s">
+      <c r="K1" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="L1" s="29" t="s">
+      <c r="L1" s="11" t="s">
         <v>411</v>
       </c>
-      <c r="M1" s="29" t="s">
+      <c r="M1" s="11" t="s">
         <v>403</v>
       </c>
-      <c r="N1" s="29" t="s">
+      <c r="N1" s="11" t="s">
         <v>404</v>
       </c>
-      <c r="O1" s="29" t="s">
+      <c r="O1" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="P1" s="30" t="s">
+      <c r="P1" s="12" t="s">
         <v>405</v>
       </c>
-      <c r="Q1" s="30" t="s">
+      <c r="Q1" s="12" t="s">
         <v>406</v>
       </c>
-      <c r="R1" s="30" t="s">
+      <c r="R1" s="12" t="s">
         <v>416</v>
       </c>
-      <c r="S1" s="11" t="s">
+      <c r="S1" s="7" t="s">
         <v>407</v>
       </c>
-      <c r="T1" s="11" t="s">
+      <c r="T1" s="7" t="s">
         <v>41</v>
       </c>
     </row>
@@ -4650,37 +4901,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="30.75" x14ac:dyDescent="0.9">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="6" t="s">
         <v>462</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="7" t="s">
         <v>459</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="7" t="s">
         <v>464</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="7" t="s">
         <v>463</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="7" t="s">
         <v>465</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="7" t="s">
         <v>466</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="7" t="s">
         <v>461</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="7" t="s">
         <v>460</v>
       </c>
     </row>
@@ -4903,8 +5154,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3896283-34F3-AB41-894D-003D59D0ADEE}">
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1875" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -4918,40 +5169,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="30.75" x14ac:dyDescent="0.9">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="5" t="s">
         <v>417</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="6" t="s">
         <v>418</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="6" t="s">
         <v>419</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="7" t="s">
         <v>420</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="7" t="s">
         <v>421</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="7" t="s">
         <v>422</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="7" t="s">
         <v>423</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="7" t="s">
         <v>424</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="7" t="s">
         <v>425</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="7" t="s">
         <v>426</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="7" t="s">
         <v>427</v>
       </c>
     </row>
@@ -5133,28 +5384,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30.75" x14ac:dyDescent="0.9">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="5" t="s">
         <v>417</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="6" t="s">
         <v>428</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="6" t="s">
         <v>429</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="7" t="s">
         <v>430</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="7" t="s">
         <v>431</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="7" t="s">
         <v>432</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="7" t="s">
         <v>433</v>
       </c>
     </row>
@@ -5268,6 +5519,621 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FCC51B1-C11F-4C30-8C8B-A2E7A6EB3269}">
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.1875" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="1" max="1" width="37.3125" customWidth="1"/>
+    <col min="2" max="2" width="18.5" customWidth="1"/>
+    <col min="3" max="3" width="28.9375" customWidth="1"/>
+    <col min="4" max="4" width="25.75" customWidth="1"/>
+    <col min="5" max="5" width="22.9375" customWidth="1"/>
+    <col min="6" max="6" width="21.6875" customWidth="1"/>
+    <col min="7" max="8" width="44.8125" customWidth="1"/>
+    <col min="9" max="9" width="38.8125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="30.75" x14ac:dyDescent="0.9">
+      <c r="A1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>513</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>515</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>516</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.65">
+      <c r="A2" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B2" t="s">
+        <v>514</v>
+      </c>
+      <c r="C2" t="s">
+        <v>524</v>
+      </c>
+      <c r="D2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>522</v>
+      </c>
+      <c r="I2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="21" x14ac:dyDescent="0.65">
+      <c r="A3" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B3" t="s">
+        <v>514</v>
+      </c>
+      <c r="C3" t="s">
+        <v>525</v>
+      </c>
+      <c r="D3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>20</v>
+      </c>
+      <c r="F3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>523</v>
+      </c>
+      <c r="I3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{118B69DD-6F47-4236-9EAC-8456553696FA}">
+  <dimension ref="A1:L3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="A4:XFD4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.1875" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="1" max="1" width="37.3125" customWidth="1"/>
+    <col min="2" max="2" width="40.25" customWidth="1"/>
+    <col min="3" max="3" width="42.0625" customWidth="1"/>
+    <col min="4" max="4" width="25.75" customWidth="1"/>
+    <col min="5" max="5" width="22.9375" customWidth="1"/>
+    <col min="6" max="6" width="28.25" customWidth="1"/>
+    <col min="7" max="8" width="44.8125" customWidth="1"/>
+    <col min="9" max="10" width="20.0625" customWidth="1"/>
+    <col min="11" max="11" width="27.75" customWidth="1"/>
+    <col min="12" max="12" width="44.8125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="30.75" x14ac:dyDescent="0.9">
+      <c r="A1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>526</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>515</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>516</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="21" x14ac:dyDescent="0.65">
+      <c r="A2" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B2" t="s">
+        <v>514</v>
+      </c>
+      <c r="C2" t="s">
+        <v>524</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>535</v>
+      </c>
+      <c r="J2">
+        <v>10</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="21" x14ac:dyDescent="0.65">
+      <c r="A3" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B3" t="s">
+        <v>514</v>
+      </c>
+      <c r="C3" t="s">
+        <v>525</v>
+      </c>
+      <c r="D3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>20</v>
+      </c>
+      <c r="F3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>3</v>
+      </c>
+      <c r="H3">
+        <v>3</v>
+      </c>
+      <c r="I3" t="s">
+        <v>536</v>
+      </c>
+      <c r="J3">
+        <v>30</v>
+      </c>
+      <c r="K3">
+        <v>3</v>
+      </c>
+      <c r="L3" t="s">
+        <v>534</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{503026BC-0640-4254-BE5B-FF37C6FC99E2}">
+  <dimension ref="A1:J3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.1875" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="1" max="1" width="37.3125" customWidth="1"/>
+    <col min="2" max="2" width="40.25" customWidth="1"/>
+    <col min="3" max="3" width="42.0625" customWidth="1"/>
+    <col min="4" max="4" width="21.3125" customWidth="1"/>
+    <col min="5" max="5" width="25.75" customWidth="1"/>
+    <col min="6" max="6" width="22.9375" customWidth="1"/>
+    <col min="7" max="7" width="28.25" customWidth="1"/>
+    <col min="8" max="8" width="27.1875" customWidth="1"/>
+    <col min="9" max="9" width="52.125" customWidth="1"/>
+    <col min="10" max="10" width="20.0625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="30.75" x14ac:dyDescent="0.9">
+      <c r="A1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>538</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>542</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>539</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="21" x14ac:dyDescent="0.65">
+      <c r="A2" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B2" t="s">
+        <v>540</v>
+      </c>
+      <c r="C2" t="s">
+        <v>441</v>
+      </c>
+      <c r="D2">
+        <v>24</v>
+      </c>
+      <c r="E2">
+        <v>20</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <v>85400</v>
+      </c>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="21" x14ac:dyDescent="0.65">
+      <c r="A3" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B3" t="s">
+        <v>540</v>
+      </c>
+      <c r="C3" t="s">
+        <v>441</v>
+      </c>
+      <c r="D3">
+        <v>24</v>
+      </c>
+      <c r="E3">
+        <v>30</v>
+      </c>
+      <c r="F3">
+        <v>4</v>
+      </c>
+      <c r="G3">
+        <v>85000</v>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A90AED96-443E-4548-AC6C-EE9B7B187F8B}">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.1875" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="1" max="1" width="34.8125" customWidth="1"/>
+    <col min="2" max="2" width="24.3125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="25.5" x14ac:dyDescent="0.75">
+      <c r="A1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="25.5" x14ac:dyDescent="0.75">
+      <c r="A2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="25.5" x14ac:dyDescent="0.75">
+      <c r="A3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="9">
+        <v>11009</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="25.5" x14ac:dyDescent="0.75">
+      <c r="A4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="25.5" x14ac:dyDescent="0.75">
+      <c r="A5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="25.5" x14ac:dyDescent="0.75">
+      <c r="A6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="25.5" x14ac:dyDescent="0.75">
+      <c r="A7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="25.5" x14ac:dyDescent="0.75">
+      <c r="A8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="25.5" x14ac:dyDescent="0.75">
+      <c r="A9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="25.5" x14ac:dyDescent="0.75">
+      <c r="A10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>264</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F803AC43-3B0B-40F2-9C09-A6F6972B791C}">
+  <dimension ref="A1:L3"/>
+  <sheetViews>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.1875" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="1" max="1" width="37.3125" customWidth="1"/>
+    <col min="2" max="2" width="40.25" customWidth="1"/>
+    <col min="3" max="3" width="42.0625" customWidth="1"/>
+    <col min="4" max="4" width="21.3125" customWidth="1"/>
+    <col min="5" max="5" width="25.75" customWidth="1"/>
+    <col min="6" max="6" width="22.9375" customWidth="1"/>
+    <col min="7" max="7" width="28.25" customWidth="1"/>
+    <col min="8" max="8" width="27.1875" customWidth="1"/>
+    <col min="9" max="9" width="31.9375" customWidth="1"/>
+    <col min="10" max="10" width="42.125" customWidth="1"/>
+    <col min="11" max="11" width="28.375" customWidth="1"/>
+    <col min="12" max="12" width="27.1875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="30.75" x14ac:dyDescent="0.9">
+      <c r="A1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>538</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>542</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>539</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="21" x14ac:dyDescent="0.65">
+      <c r="A2" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B2" t="s">
+        <v>547</v>
+      </c>
+      <c r="C2" t="s">
+        <v>549</v>
+      </c>
+      <c r="D2">
+        <v>64</v>
+      </c>
+      <c r="E2">
+        <v>20</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <v>85400</v>
+      </c>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
+        <v>553</v>
+      </c>
+      <c r="J2" t="s">
+        <v>555</v>
+      </c>
+      <c r="K2">
+        <v>64</v>
+      </c>
+      <c r="L2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="21" x14ac:dyDescent="0.65">
+      <c r="A3" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B3" t="s">
+        <v>546</v>
+      </c>
+      <c r="C3" t="s">
+        <v>548</v>
+      </c>
+      <c r="D3">
+        <v>64</v>
+      </c>
+      <c r="E3">
+        <v>30</v>
+      </c>
+      <c r="F3">
+        <v>4</v>
+      </c>
+      <c r="G3">
+        <v>85000</v>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="s">
+        <v>552</v>
+      </c>
+      <c r="J3" t="s">
+        <v>554</v>
+      </c>
+      <c r="K3">
+        <v>64</v>
+      </c>
+      <c r="L3">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA67F99B-7122-014C-8188-F4470CB29FE9}">
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
@@ -5291,28 +6157,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30.75" x14ac:dyDescent="0.9">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F1" s="35" t="s">
+      <c r="F1" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="10" t="s">
         <v>51</v>
       </c>
     </row>
@@ -5338,7 +6204,7 @@
       <c r="G2">
         <v>128</v>
       </c>
-      <c r="H2" s="33" t="s">
+      <c r="H2" s="15" t="s">
         <v>151</v>
       </c>
     </row>
@@ -5364,7 +6230,7 @@
       <c r="G3">
         <v>128</v>
       </c>
-      <c r="H3" s="33" t="s">
+      <c r="H3" s="15" t="s">
         <v>151</v>
       </c>
     </row>
@@ -5390,7 +6256,7 @@
       <c r="G4">
         <v>128</v>
       </c>
-      <c r="H4" s="33" t="s">
+      <c r="H4" s="15" t="s">
         <v>151</v>
       </c>
     </row>
@@ -5416,7 +6282,7 @@
       <c r="G5">
         <v>128</v>
       </c>
-      <c r="H5" s="33" t="s">
+      <c r="H5" s="15" t="s">
         <v>151</v>
       </c>
     </row>
@@ -5442,7 +6308,7 @@
       <c r="G6">
         <v>128</v>
       </c>
-      <c r="H6" s="33" t="s">
+      <c r="H6" s="15" t="s">
         <v>151</v>
       </c>
     </row>
@@ -5468,7 +6334,7 @@
       <c r="G7">
         <v>128</v>
       </c>
-      <c r="H7" s="33" t="s">
+      <c r="H7" s="15" t="s">
         <v>151</v>
       </c>
     </row>
@@ -5494,7 +6360,7 @@
       <c r="G8">
         <v>128</v>
       </c>
-      <c r="H8" s="33" t="s">
+      <c r="H8" s="15" t="s">
         <v>151</v>
       </c>
     </row>
@@ -5520,7 +6386,7 @@
       <c r="G9">
         <v>128</v>
       </c>
-      <c r="H9" s="33" t="s">
+      <c r="H9" s="15" t="s">
         <v>151</v>
       </c>
     </row>
@@ -5546,7 +6412,7 @@
       <c r="G10">
         <v>128</v>
       </c>
-      <c r="H10" s="33" t="s">
+      <c r="H10" s="15" t="s">
         <v>151</v>
       </c>
     </row>
@@ -5572,7 +6438,7 @@
       <c r="G11">
         <v>128</v>
       </c>
-      <c r="H11" s="33" t="s">
+      <c r="H11" s="15" t="s">
         <v>151</v>
       </c>
     </row>
@@ -5598,7 +6464,7 @@
       <c r="G12">
         <v>128</v>
       </c>
-      <c r="H12" s="33" t="s">
+      <c r="H12" s="15" t="s">
         <v>151</v>
       </c>
     </row>
@@ -5624,7 +6490,7 @@
       <c r="G13">
         <v>128</v>
       </c>
-      <c r="H13" s="33" t="s">
+      <c r="H13" s="15" t="s">
         <v>151</v>
       </c>
     </row>
@@ -5650,7 +6516,7 @@
       <c r="G14">
         <v>128</v>
       </c>
-      <c r="H14" s="33" t="s">
+      <c r="H14" s="15" t="s">
         <v>151</v>
       </c>
     </row>
@@ -5676,7 +6542,7 @@
       <c r="G15">
         <v>128</v>
       </c>
-      <c r="H15" s="33" t="s">
+      <c r="H15" s="15" t="s">
         <v>151</v>
       </c>
     </row>
@@ -5693,7 +6559,7 @@
       <c r="D16" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="E16" s="40" t="s">
+      <c r="E16" s="21" t="s">
         <v>495</v>
       </c>
       <c r="F16">
@@ -5702,7 +6568,7 @@
       <c r="G16">
         <v>128</v>
       </c>
-      <c r="H16" s="33" t="s">
+      <c r="H16" s="15" t="s">
         <v>151</v>
       </c>
     </row>
@@ -5719,7 +6585,7 @@
       <c r="D17" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="E17" s="40" t="s">
+      <c r="E17" s="21" t="s">
         <v>497</v>
       </c>
       <c r="F17">
@@ -5728,7 +6594,7 @@
       <c r="G17">
         <v>128</v>
       </c>
-      <c r="H17" s="33" t="s">
+      <c r="H17" s="15" t="s">
         <v>151</v>
       </c>
     </row>
@@ -5745,7 +6611,7 @@
       <c r="D18" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="E18" s="40" t="s">
+      <c r="E18" s="21" t="s">
         <v>499</v>
       </c>
       <c r="F18">
@@ -5754,7 +6620,7 @@
       <c r="G18">
         <v>128</v>
       </c>
-      <c r="H18" s="33" t="s">
+      <c r="H18" s="15" t="s">
         <v>151</v>
       </c>
     </row>
@@ -5771,7 +6637,7 @@
       <c r="D19" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="E19" s="40" t="s">
+      <c r="E19" s="21" t="s">
         <v>498</v>
       </c>
       <c r="F19">
@@ -5780,7 +6646,7 @@
       <c r="G19">
         <v>128</v>
       </c>
-      <c r="H19" s="33" t="s">
+      <c r="H19" s="15" t="s">
         <v>151</v>
       </c>
     </row>
@@ -5797,7 +6663,7 @@
       <c r="D20" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="E20" s="40" t="s">
+      <c r="E20" s="21" t="s">
         <v>500</v>
       </c>
       <c r="F20">
@@ -5806,7 +6672,7 @@
       <c r="G20">
         <v>128</v>
       </c>
-      <c r="H20" s="33" t="s">
+      <c r="H20" s="15" t="s">
         <v>151</v>
       </c>
     </row>
@@ -5823,7 +6689,7 @@
       <c r="D21" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="E21" s="40" t="s">
+      <c r="E21" s="21" t="s">
         <v>501</v>
       </c>
       <c r="F21">
@@ -5832,7 +6698,7 @@
       <c r="G21">
         <v>128</v>
       </c>
-      <c r="H21" s="33" t="s">
+      <c r="H21" s="15" t="s">
         <v>151</v>
       </c>
     </row>
@@ -5849,7 +6715,7 @@
       <c r="D22" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E22" s="40" t="s">
+      <c r="E22" s="21" t="s">
         <v>494</v>
       </c>
       <c r="F22">
@@ -5858,7 +6724,7 @@
       <c r="G22">
         <v>128</v>
       </c>
-      <c r="H22" s="33" t="s">
+      <c r="H22" s="15" t="s">
         <v>151</v>
       </c>
     </row>
@@ -5875,7 +6741,7 @@
       <c r="D23" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="E23" s="40" t="s">
+      <c r="E23" s="21" t="s">
         <v>496</v>
       </c>
       <c r="F23">
@@ -5884,7 +6750,7 @@
       <c r="G23">
         <v>128</v>
       </c>
-      <c r="H23" s="33" t="s">
+      <c r="H23" s="15" t="s">
         <v>151</v>
       </c>
     </row>
@@ -5901,7 +6767,7 @@
       <c r="D24" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="E24" s="40" t="s">
+      <c r="E24" s="21" t="s">
         <v>495</v>
       </c>
       <c r="F24">
@@ -5910,7 +6776,7 @@
       <c r="G24">
         <v>128</v>
       </c>
-      <c r="H24" s="33" t="s">
+      <c r="H24" s="15" t="s">
         <v>151</v>
       </c>
     </row>
@@ -5927,7 +6793,7 @@
       <c r="D25" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="E25" s="40" t="s">
+      <c r="E25" s="21" t="s">
         <v>497</v>
       </c>
       <c r="F25">
@@ -5936,7 +6802,7 @@
       <c r="G25">
         <v>128</v>
       </c>
-      <c r="H25" s="33" t="s">
+      <c r="H25" s="15" t="s">
         <v>151</v>
       </c>
     </row>
@@ -5953,7 +6819,7 @@
       <c r="D26" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="E26" s="40" t="s">
+      <c r="E26" s="21" t="s">
         <v>502</v>
       </c>
       <c r="F26">
@@ -5962,7 +6828,7 @@
       <c r="G26">
         <v>128</v>
       </c>
-      <c r="H26" s="33" t="s">
+      <c r="H26" s="15" t="s">
         <v>151</v>
       </c>
     </row>
@@ -5979,7 +6845,7 @@
       <c r="D27" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="E27" s="40" t="s">
+      <c r="E27" s="21" t="s">
         <v>498</v>
       </c>
       <c r="F27">
@@ -5988,7 +6854,7 @@
       <c r="G27">
         <v>128</v>
       </c>
-      <c r="H27" s="33" t="s">
+      <c r="H27" s="15" t="s">
         <v>151</v>
       </c>
     </row>
@@ -6005,7 +6871,7 @@
       <c r="D28" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="E28" s="40" t="s">
+      <c r="E28" s="21" t="s">
         <v>500</v>
       </c>
       <c r="F28">
@@ -6014,7 +6880,7 @@
       <c r="G28">
         <v>128</v>
       </c>
-      <c r="H28" s="33" t="s">
+      <c r="H28" s="15" t="s">
         <v>151</v>
       </c>
     </row>
@@ -6031,7 +6897,7 @@
       <c r="D29" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="E29" s="40" t="s">
+      <c r="E29" s="21" t="s">
         <v>501</v>
       </c>
       <c r="F29">
@@ -6040,7 +6906,7 @@
       <c r="G29">
         <v>128</v>
       </c>
-      <c r="H29" s="33" t="s">
+      <c r="H29" s="15" t="s">
         <v>151</v>
       </c>
     </row>
@@ -6057,7 +6923,7 @@
       <c r="D30" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="E30" s="40" t="s">
+      <c r="E30" s="21" t="s">
         <v>504</v>
       </c>
       <c r="F30">
@@ -6066,7 +6932,7 @@
       <c r="G30">
         <v>128</v>
       </c>
-      <c r="H30" s="33" t="s">
+      <c r="H30" s="15" t="s">
         <v>151</v>
       </c>
     </row>
@@ -6083,7 +6949,7 @@
       <c r="D31" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="E31" s="40" t="s">
+      <c r="E31" s="21" t="s">
         <v>503</v>
       </c>
       <c r="F31">
@@ -6092,7 +6958,7 @@
       <c r="G31">
         <v>128</v>
       </c>
-      <c r="H31" s="33" t="s">
+      <c r="H31" s="15" t="s">
         <v>151</v>
       </c>
     </row>
@@ -6109,7 +6975,7 @@
       <c r="D32" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="E32" s="40" t="s">
+      <c r="E32" s="21" t="s">
         <v>505</v>
       </c>
       <c r="F32">
@@ -6118,7 +6984,7 @@
       <c r="G32">
         <v>128</v>
       </c>
-      <c r="H32" s="33" t="s">
+      <c r="H32" s="15" t="s">
         <v>151</v>
       </c>
     </row>
@@ -6135,7 +7001,7 @@
       <c r="D33" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="E33" s="40" t="s">
+      <c r="E33" s="21" t="s">
         <v>506</v>
       </c>
       <c r="F33">
@@ -6144,7 +7010,7 @@
       <c r="G33">
         <v>128</v>
       </c>
-      <c r="H33" s="33" t="s">
+      <c r="H33" s="15" t="s">
         <v>151</v>
       </c>
     </row>
@@ -6161,7 +7027,7 @@
       <c r="D34" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="E34" s="40" t="s">
+      <c r="E34" s="21" t="s">
         <v>507</v>
       </c>
       <c r="F34">
@@ -6170,7 +7036,7 @@
       <c r="G34">
         <v>128</v>
       </c>
-      <c r="H34" s="33" t="s">
+      <c r="H34" s="15" t="s">
         <v>151</v>
       </c>
     </row>
@@ -6187,7 +7053,7 @@
       <c r="D35" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="E35" s="40" t="s">
+      <c r="E35" s="21" t="s">
         <v>508</v>
       </c>
       <c r="F35">
@@ -6196,7 +7062,7 @@
       <c r="G35">
         <v>128</v>
       </c>
-      <c r="H35" s="33" t="s">
+      <c r="H35" s="15" t="s">
         <v>151</v>
       </c>
     </row>
@@ -6213,7 +7079,7 @@
       <c r="D36" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="E36" s="41" t="s">
+      <c r="E36" s="22" t="s">
         <v>504</v>
       </c>
       <c r="F36">
@@ -6222,7 +7088,7 @@
       <c r="G36">
         <v>128</v>
       </c>
-      <c r="H36" s="33" t="s">
+      <c r="H36" s="15" t="s">
         <v>151</v>
       </c>
     </row>
@@ -6239,7 +7105,7 @@
       <c r="D37" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="E37" s="41" t="s">
+      <c r="E37" s="22" t="s">
         <v>503</v>
       </c>
       <c r="F37">
@@ -6248,7 +7114,7 @@
       <c r="G37">
         <v>128</v>
       </c>
-      <c r="H37" s="33" t="s">
+      <c r="H37" s="15" t="s">
         <v>151</v>
       </c>
     </row>
@@ -6265,7 +7131,7 @@
       <c r="D38" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="E38" s="41" t="s">
+      <c r="E38" s="22" t="s">
         <v>505</v>
       </c>
       <c r="F38">
@@ -6274,7 +7140,7 @@
       <c r="G38">
         <v>128</v>
       </c>
-      <c r="H38" s="33" t="s">
+      <c r="H38" s="15" t="s">
         <v>151</v>
       </c>
     </row>
@@ -6291,7 +7157,7 @@
       <c r="D39" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="E39" s="41" t="s">
+      <c r="E39" s="22" t="s">
         <v>506</v>
       </c>
       <c r="F39">
@@ -6300,7 +7166,7 @@
       <c r="G39">
         <v>128</v>
       </c>
-      <c r="H39" s="33" t="s">
+      <c r="H39" s="15" t="s">
         <v>151</v>
       </c>
     </row>
@@ -6317,7 +7183,7 @@
       <c r="D40" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="E40" s="41" t="s">
+      <c r="E40" s="22" t="s">
         <v>507</v>
       </c>
       <c r="F40">
@@ -6326,7 +7192,7 @@
       <c r="G40">
         <v>128</v>
       </c>
-      <c r="H40" s="33" t="s">
+      <c r="H40" s="15" t="s">
         <v>151</v>
       </c>
     </row>
@@ -6343,7 +7209,7 @@
       <c r="D41" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="E41" s="41" t="s">
+      <c r="E41" s="22" t="s">
         <v>508</v>
       </c>
       <c r="F41">
@@ -6352,7 +7218,7 @@
       <c r="G41">
         <v>128</v>
       </c>
-      <c r="H41" s="33" t="s">
+      <c r="H41" s="15" t="s">
         <v>151</v>
       </c>
     </row>
@@ -6366,10 +7232,10 @@
       <c r="C42" t="s">
         <v>0</v>
       </c>
-      <c r="D42" s="31" t="s">
+      <c r="D42" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="E42" s="40" t="s">
+      <c r="E42" s="21" t="s">
         <v>509</v>
       </c>
       <c r="F42">
@@ -6378,7 +7244,7 @@
       <c r="G42">
         <v>128</v>
       </c>
-      <c r="H42" s="33" t="s">
+      <c r="H42" s="15" t="s">
         <v>151</v>
       </c>
     </row>
@@ -6392,10 +7258,10 @@
       <c r="C43" t="s">
         <v>0</v>
       </c>
-      <c r="D43" s="31" t="s">
+      <c r="D43" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="E43" s="40" t="s">
+      <c r="E43" s="21" t="s">
         <v>509</v>
       </c>
       <c r="F43">
@@ -6404,7 +7270,7 @@
       <c r="G43">
         <v>128</v>
       </c>
-      <c r="H43" s="33" t="s">
+      <c r="H43" s="15" t="s">
         <v>151</v>
       </c>
     </row>
@@ -6418,10 +7284,10 @@
       <c r="C44" t="s">
         <v>0</v>
       </c>
-      <c r="D44" s="31" t="s">
+      <c r="D44" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="E44" s="40" t="s">
+      <c r="E44" s="21" t="s">
         <v>509</v>
       </c>
       <c r="F44">
@@ -6430,7 +7296,7 @@
       <c r="G44">
         <v>128</v>
       </c>
-      <c r="H44" s="33" t="s">
+      <c r="H44" s="15" t="s">
         <v>151</v>
       </c>
     </row>
@@ -6444,10 +7310,10 @@
       <c r="C45" t="s">
         <v>0</v>
       </c>
-      <c r="D45" s="31" t="s">
+      <c r="D45" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="E45" s="40" t="s">
+      <c r="E45" s="21" t="s">
         <v>509</v>
       </c>
       <c r="F45">
@@ -6456,7 +7322,7 @@
       <c r="G45">
         <v>128</v>
       </c>
-      <c r="H45" s="33" t="s">
+      <c r="H45" s="15" t="s">
         <v>151</v>
       </c>
     </row>
@@ -6470,10 +7336,10 @@
       <c r="C46" t="s">
         <v>0</v>
       </c>
-      <c r="D46" s="31" t="s">
+      <c r="D46" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="E46" s="40" t="s">
+      <c r="E46" s="21" t="s">
         <v>509</v>
       </c>
       <c r="F46">
@@ -6482,7 +7348,7 @@
       <c r="G46">
         <v>128</v>
       </c>
-      <c r="H46" s="33" t="s">
+      <c r="H46" s="15" t="s">
         <v>151</v>
       </c>
     </row>
@@ -6496,10 +7362,10 @@
       <c r="C47" t="s">
         <v>0</v>
       </c>
-      <c r="D47" s="31" t="s">
+      <c r="D47" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="E47" s="40" t="s">
+      <c r="E47" s="21" t="s">
         <v>509</v>
       </c>
       <c r="F47">
@@ -6508,7 +7374,7 @@
       <c r="G47">
         <v>128</v>
       </c>
-      <c r="H47" s="33" t="s">
+      <c r="H47" s="15" t="s">
         <v>151</v>
       </c>
     </row>
@@ -6522,10 +7388,10 @@
       <c r="C48" t="s">
         <v>0</v>
       </c>
-      <c r="D48" s="31" t="s">
+      <c r="D48" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="E48" s="40" t="s">
+      <c r="E48" s="21" t="s">
         <v>509</v>
       </c>
       <c r="F48">
@@ -6534,7 +7400,7 @@
       <c r="G48">
         <v>128</v>
       </c>
-      <c r="H48" s="33" t="s">
+      <c r="H48" s="15" t="s">
         <v>151</v>
       </c>
     </row>
@@ -6548,10 +7414,10 @@
       <c r="C49" t="s">
         <v>0</v>
       </c>
-      <c r="D49" s="31" t="s">
+      <c r="D49" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="E49" s="40" t="s">
+      <c r="E49" s="21" t="s">
         <v>509</v>
       </c>
       <c r="F49">
@@ -6560,7 +7426,7 @@
       <c r="G49">
         <v>128</v>
       </c>
-      <c r="H49" s="33" t="s">
+      <c r="H49" s="15" t="s">
         <v>151</v>
       </c>
     </row>
@@ -6574,10 +7440,10 @@
       <c r="C50" t="s">
         <v>0</v>
       </c>
-      <c r="D50" s="31" t="s">
+      <c r="D50" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="E50" s="40" t="s">
+      <c r="E50" s="21" t="s">
         <v>509</v>
       </c>
       <c r="F50">
@@ -6586,7 +7452,7 @@
       <c r="G50">
         <v>128</v>
       </c>
-      <c r="H50" s="33" t="s">
+      <c r="H50" s="15" t="s">
         <v>151</v>
       </c>
     </row>
@@ -6600,10 +7466,10 @@
       <c r="C51" t="s">
         <v>0</v>
       </c>
-      <c r="D51" s="31" t="s">
+      <c r="D51" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="E51" s="40" t="s">
+      <c r="E51" s="21" t="s">
         <v>509</v>
       </c>
       <c r="F51">
@@ -6612,7 +7478,7 @@
       <c r="G51">
         <v>128</v>
       </c>
-      <c r="H51" s="33" t="s">
+      <c r="H51" s="15" t="s">
         <v>151</v>
       </c>
     </row>
@@ -6626,10 +7492,10 @@
       <c r="C52" t="s">
         <v>0</v>
       </c>
-      <c r="D52" s="31" t="s">
+      <c r="D52" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="E52" s="40" t="s">
+      <c r="E52" s="21" t="s">
         <v>509</v>
       </c>
       <c r="F52">
@@ -6638,7 +7504,7 @@
       <c r="G52">
         <v>128</v>
       </c>
-      <c r="H52" s="33" t="s">
+      <c r="H52" s="15" t="s">
         <v>151</v>
       </c>
     </row>
@@ -6652,10 +7518,10 @@
       <c r="C53" t="s">
         <v>0</v>
       </c>
-      <c r="D53" s="31" t="s">
+      <c r="D53" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="E53" s="40" t="s">
+      <c r="E53" s="21" t="s">
         <v>509</v>
       </c>
       <c r="F53">
@@ -6664,7 +7530,7 @@
       <c r="G53">
         <v>128</v>
       </c>
-      <c r="H53" s="33" t="s">
+      <c r="H53" s="15" t="s">
         <v>151</v>
       </c>
     </row>
@@ -6675,7 +7541,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{305CDDC8-ED70-6A46-BC08-9987C1043545}">
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
@@ -6696,19 +7562,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="30.75" x14ac:dyDescent="0.9">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="E1" s="38" t="s">
+      <c r="E1" s="19" t="s">
         <v>181</v>
       </c>
     </row>
@@ -7438,108 +8304,6 @@
       </c>
       <c r="D53">
         <v>123</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A90AED96-443E-4548-AC6C-EE9B7B187F8B}">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
-  <dimension ref="A1:B10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1875" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
-  <cols>
-    <col min="1" max="1" width="34.8125" customWidth="1"/>
-    <col min="2" max="2" width="24.3125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="25.5" x14ac:dyDescent="0.75">
-      <c r="A1" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="25.5" x14ac:dyDescent="0.75">
-      <c r="A2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="25.5" x14ac:dyDescent="0.75">
-      <c r="A3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="18">
-        <v>11009</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="25.5" x14ac:dyDescent="0.75">
-      <c r="A4" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="25.5" x14ac:dyDescent="0.75">
-      <c r="A5" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="25.5" x14ac:dyDescent="0.75">
-      <c r="A6" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="36" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="25.5" x14ac:dyDescent="0.75">
-      <c r="A7" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="25.5" x14ac:dyDescent="0.75">
-      <c r="A8" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="25.5" x14ac:dyDescent="0.75">
-      <c r="A9" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="18" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="25.5" x14ac:dyDescent="0.75">
-      <c r="A10" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>264</v>
       </c>
     </row>
   </sheetData>
@@ -7568,30 +8332,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="30.75" x14ac:dyDescent="0.9">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="7" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="23.25" x14ac:dyDescent="0.7">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="17" t="s">
         <v>265</v>
       </c>
-      <c r="B2" s="31">
+      <c r="B2" s="13">
         <v>11</v>
       </c>
-      <c r="C2" s="31">
+      <c r="C2" s="13">
         <v>17</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -7602,13 +8366,13 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="23.25" x14ac:dyDescent="0.7">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="17" t="s">
         <v>265</v>
       </c>
-      <c r="B3" s="31">
+      <c r="B3" s="13">
         <v>11</v>
       </c>
-      <c r="C3" s="31">
+      <c r="C3" s="13">
         <v>18</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -7619,13 +8383,13 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="23.25" x14ac:dyDescent="0.7">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="17" t="s">
         <v>265</v>
       </c>
-      <c r="B4" s="31">
+      <c r="B4" s="13">
         <v>11</v>
       </c>
-      <c r="C4" s="31">
+      <c r="C4" s="13">
         <v>19</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -7636,13 +8400,13 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="23.25" x14ac:dyDescent="0.7">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="17" t="s">
         <v>265</v>
       </c>
-      <c r="B5" s="31">
+      <c r="B5" s="13">
         <v>11</v>
       </c>
-      <c r="C5" s="31">
+      <c r="C5" s="13">
         <v>20</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -7653,13 +8417,13 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="23.25" x14ac:dyDescent="0.7">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="17" t="s">
         <v>265</v>
       </c>
-      <c r="B6" s="31">
+      <c r="B6" s="13">
         <v>11</v>
       </c>
-      <c r="C6" s="31">
+      <c r="C6" s="13">
         <v>21</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -7670,13 +8434,13 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="23.25" x14ac:dyDescent="0.7">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="17" t="s">
         <v>265</v>
       </c>
-      <c r="B7" s="31">
+      <c r="B7" s="13">
         <v>11</v>
       </c>
-      <c r="C7" s="31">
+      <c r="C7" s="13">
         <v>22</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -7687,13 +8451,13 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="23.25" x14ac:dyDescent="0.7">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="17" t="s">
         <v>265</v>
       </c>
-      <c r="B8" s="31">
+      <c r="B8" s="13">
         <v>11</v>
       </c>
-      <c r="C8" s="31">
+      <c r="C8" s="13">
         <v>23</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -7704,13 +8468,13 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="23.25" x14ac:dyDescent="0.7">
-      <c r="A9" s="36" t="s">
+      <c r="A9" s="17" t="s">
         <v>265</v>
       </c>
-      <c r="B9" s="31">
+      <c r="B9" s="13">
         <v>11</v>
       </c>
-      <c r="C9" s="31">
+      <c r="C9" s="13">
         <v>24</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -7721,23 +8485,23 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="23.25" x14ac:dyDescent="0.7">
-      <c r="A10" s="36"/>
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
+      <c r="A10" s="17"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" ht="23.25" x14ac:dyDescent="0.7">
-      <c r="A11" s="36"/>
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
+      <c r="A11" s="17"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" ht="23.25" x14ac:dyDescent="0.7">
-      <c r="A12" s="36"/>
-      <c r="B12" s="31"/>
-      <c r="C12" s="31"/>
+      <c r="A12" s="17"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
@@ -7754,8 +8518,8 @@
   </sheetPr>
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1875" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -7768,19 +8532,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="30.75" x14ac:dyDescent="0.9">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="6" t="s">
         <v>462</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="7"/>
+      <c r="E1" s="3"/>
     </row>
     <row r="2" spans="1:5" ht="21" x14ac:dyDescent="0.65">
       <c r="A2" s="1" t="s">
@@ -8066,7 +8830,7 @@
       <c r="A22" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B22" s="31" t="s">
+      <c r="B22" s="13" t="s">
         <v>172</v>
       </c>
       <c r="C22">
@@ -8080,7 +8844,7 @@
       <c r="A23" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B23" s="31" t="s">
+      <c r="B23" s="13" t="s">
         <v>173</v>
       </c>
       <c r="C23">
@@ -8094,7 +8858,7 @@
       <c r="A24" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="B24" s="31" t="s">
+      <c r="B24" s="13" t="s">
         <v>174</v>
       </c>
       <c r="C24">
@@ -8108,7 +8872,7 @@
       <c r="A25" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="B25" s="31" t="s">
+      <c r="B25" s="13" t="s">
         <v>175</v>
       </c>
       <c r="C25">
@@ -8122,7 +8886,7 @@
       <c r="A26" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="B26" s="31" t="s">
+      <c r="B26" s="13" t="s">
         <v>176</v>
       </c>
       <c r="C26">
@@ -8136,7 +8900,7 @@
       <c r="A27" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="B27" s="31" t="s">
+      <c r="B27" s="13" t="s">
         <v>177</v>
       </c>
       <c r="C27">
@@ -8175,7 +8939,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A30" s="39" t="s">
+      <c r="A30" s="20" t="s">
         <v>90</v>
       </c>
       <c r="B30" t="s">
@@ -8184,12 +8948,12 @@
       <c r="C30">
         <v>1</v>
       </c>
-      <c r="D30" s="32">
+      <c r="D30" s="14">
         <v>2001</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A31" s="39" t="s">
+      <c r="A31" s="20" t="s">
         <v>91</v>
       </c>
       <c r="B31" t="s">
@@ -8198,12 +8962,12 @@
       <c r="C31">
         <v>1</v>
       </c>
-      <c r="D31" s="32">
+      <c r="D31" s="14">
         <v>2001</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A32" s="39" t="s">
+      <c r="A32" s="20" t="s">
         <v>192</v>
       </c>
       <c r="B32" t="s">
@@ -8212,12 +8976,12 @@
       <c r="C32">
         <v>1</v>
       </c>
-      <c r="D32" s="32">
+      <c r="D32" s="14">
         <v>2001</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A33" s="39" t="s">
+      <c r="A33" s="20" t="s">
         <v>194</v>
       </c>
       <c r="B33" t="s">
@@ -8226,12 +8990,12 @@
       <c r="C33">
         <v>1</v>
       </c>
-      <c r="D33" s="32">
+      <c r="D33" s="14">
         <v>2001</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A34" s="39" t="s">
+      <c r="A34" s="20" t="s">
         <v>196</v>
       </c>
       <c r="B34" t="s">
@@ -8240,12 +9004,12 @@
       <c r="C34">
         <v>1</v>
       </c>
-      <c r="D34" s="32">
+      <c r="D34" s="14">
         <v>2001</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A35" s="39" t="s">
+      <c r="A35" s="20" t="s">
         <v>198</v>
       </c>
       <c r="B35" t="s">
@@ -8254,12 +9018,12 @@
       <c r="C35">
         <v>1</v>
       </c>
-      <c r="D35" s="32">
+      <c r="D35" s="14">
         <v>2001</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A36" s="32" t="s">
+      <c r="A36" s="14" t="s">
         <v>90</v>
       </c>
       <c r="B36" t="s">
@@ -8273,7 +9037,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A37" s="32" t="s">
+      <c r="A37" s="14" t="s">
         <v>91</v>
       </c>
       <c r="B37" t="s">
@@ -8287,7 +9051,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A38" s="32" t="s">
+      <c r="A38" s="14" t="s">
         <v>192</v>
       </c>
       <c r="B38" t="s">
@@ -8313,8 +9077,8 @@
   </sheetPr>
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1875" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -8327,19 +9091,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="30.75" x14ac:dyDescent="0.9">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="7" t="s">
         <v>383</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="7" t="s">
         <v>178</v>
       </c>
     </row>
@@ -8347,13 +9111,13 @@
       <c r="A2" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="14" t="s">
         <v>94</v>
       </c>
       <c r="C2">
         <v>27</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="14" t="s">
         <v>93</v>
       </c>
       <c r="E2" t="s">
@@ -8364,13 +9128,13 @@
       <c r="A3" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="14" t="s">
         <v>92</v>
       </c>
       <c r="C3">
         <v>27</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="D3" s="14" t="s">
         <v>93</v>
       </c>
       <c r="E3" t="s">
@@ -8381,13 +9145,13 @@
       <c r="A4" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="14" t="s">
         <v>215</v>
       </c>
       <c r="C4">
         <v>27</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="14" t="s">
         <v>93</v>
       </c>
       <c r="E4" t="s">
@@ -8398,13 +9162,13 @@
       <c r="A5" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="14" t="s">
         <v>216</v>
       </c>
       <c r="C5">
         <v>27</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="D5" s="14" t="s">
         <v>93</v>
       </c>
       <c r="E5" t="s">
@@ -8415,13 +9179,13 @@
       <c r="A6" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="14" t="s">
         <v>217</v>
       </c>
       <c r="C6">
         <v>27</v>
       </c>
-      <c r="D6" s="32" t="s">
+      <c r="D6" s="14" t="s">
         <v>93</v>
       </c>
       <c r="E6" t="s">
@@ -8432,13 +9196,13 @@
       <c r="A7" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="14" t="s">
         <v>218</v>
       </c>
       <c r="C7">
         <v>27</v>
       </c>
-      <c r="D7" s="32" t="s">
+      <c r="D7" s="14" t="s">
         <v>93</v>
       </c>
       <c r="E7" t="s">
@@ -8551,13 +9315,13 @@
       <c r="A14" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="14" t="s">
         <v>219</v>
       </c>
       <c r="C14">
         <v>27</v>
       </c>
-      <c r="D14" s="32" t="s">
+      <c r="D14" s="14" t="s">
         <v>220</v>
       </c>
       <c r="E14" t="s">
@@ -8568,13 +9332,13 @@
       <c r="A15" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B15" s="32" t="s">
+      <c r="B15" s="14" t="s">
         <v>221</v>
       </c>
       <c r="C15">
         <v>27</v>
       </c>
-      <c r="D15" s="32" t="s">
+      <c r="D15" s="14" t="s">
         <v>220</v>
       </c>
       <c r="E15" t="s">
@@ -8684,16 +9448,16 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="21" x14ac:dyDescent="0.65">
-      <c r="A22" s="31" t="s">
+      <c r="A22" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="B22" s="32" t="s">
+      <c r="B22" s="14" t="s">
         <v>222</v>
       </c>
       <c r="C22">
         <v>27</v>
       </c>
-      <c r="D22" s="32" t="s">
+      <c r="D22" s="14" t="s">
         <v>223</v>
       </c>
       <c r="E22" t="s">
@@ -8701,16 +9465,16 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="21" x14ac:dyDescent="0.65">
-      <c r="A23" s="31" t="s">
+      <c r="A23" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="B23" s="32" t="s">
+      <c r="B23" s="14" t="s">
         <v>224</v>
       </c>
       <c r="C23">
         <v>27</v>
       </c>
-      <c r="D23" s="32" t="s">
+      <c r="D23" s="14" t="s">
         <v>223</v>
       </c>
       <c r="E23" t="s">
@@ -8718,16 +9482,16 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="21" x14ac:dyDescent="0.65">
-      <c r="A24" s="31" t="s">
+      <c r="A24" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="B24" s="32" t="s">
+      <c r="B24" s="14" t="s">
         <v>225</v>
       </c>
       <c r="C24">
         <v>27</v>
       </c>
-      <c r="D24" s="32" t="s">
+      <c r="D24" s="14" t="s">
         <v>223</v>
       </c>
       <c r="E24" t="s">
@@ -8735,16 +9499,16 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="21" x14ac:dyDescent="0.65">
-      <c r="A25" s="31" t="s">
+      <c r="A25" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="B25" s="32" t="s">
+      <c r="B25" s="14" t="s">
         <v>226</v>
       </c>
       <c r="C25">
         <v>27</v>
       </c>
-      <c r="D25" s="32" t="s">
+      <c r="D25" s="14" t="s">
         <v>223</v>
       </c>
       <c r="E25" t="s">
@@ -8752,16 +9516,16 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="21" x14ac:dyDescent="0.65">
-      <c r="A26" s="31" t="s">
+      <c r="A26" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="B26" s="32" t="s">
+      <c r="B26" s="14" t="s">
         <v>227</v>
       </c>
       <c r="C26">
         <v>27</v>
       </c>
-      <c r="D26" s="32" t="s">
+      <c r="D26" s="14" t="s">
         <v>223</v>
       </c>
       <c r="E26" t="s">
@@ -8769,16 +9533,16 @@
       </c>
     </row>
     <row r="27" spans="1:5" ht="21" x14ac:dyDescent="0.65">
-      <c r="A27" s="31" t="s">
+      <c r="A27" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="B27" s="32" t="s">
+      <c r="B27" s="14" t="s">
         <v>228</v>
       </c>
       <c r="C27">
         <v>27</v>
       </c>
-      <c r="D27" s="32" t="s">
+      <c r="D27" s="14" t="s">
         <v>223</v>
       </c>
       <c r="E27" t="s">
@@ -8789,13 +9553,13 @@
       <c r="A28" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B28" s="32" t="s">
+      <c r="B28" s="14" t="s">
         <v>229</v>
       </c>
       <c r="C28">
         <v>27</v>
       </c>
-      <c r="D28" s="32" t="s">
+      <c r="D28" s="14" t="s">
         <v>223</v>
       </c>
       <c r="E28" t="s">
@@ -8806,13 +9570,13 @@
       <c r="A29" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="B29" s="32" t="s">
+      <c r="B29" s="14" t="s">
         <v>230</v>
       </c>
       <c r="C29">
         <v>27</v>
       </c>
-      <c r="D29" s="32" t="s">
+      <c r="D29" s="14" t="s">
         <v>223</v>
       </c>
       <c r="E29" t="s">
@@ -8820,16 +9584,16 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A30" s="39" t="s">
+      <c r="A30" s="20" t="s">
         <v>231</v>
       </c>
-      <c r="B30" s="32" t="s">
+      <c r="B30" s="14" t="s">
         <v>232</v>
       </c>
       <c r="C30">
         <v>27</v>
       </c>
-      <c r="D30" s="32" t="s">
+      <c r="D30" s="14" t="s">
         <v>233</v>
       </c>
       <c r="E30" t="s">
@@ -8837,16 +9601,16 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A31" s="39" t="s">
+      <c r="A31" s="20" t="s">
         <v>234</v>
       </c>
-      <c r="B31" s="32" t="s">
+      <c r="B31" s="14" t="s">
         <v>235</v>
       </c>
       <c r="C31">
         <v>27</v>
       </c>
-      <c r="D31" s="32" t="s">
+      <c r="D31" s="14" t="s">
         <v>233</v>
       </c>
       <c r="E31" t="s">
@@ -8854,16 +9618,16 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A32" s="39" t="s">
+      <c r="A32" s="20" t="s">
         <v>236</v>
       </c>
-      <c r="B32" s="32" t="s">
+      <c r="B32" s="14" t="s">
         <v>237</v>
       </c>
       <c r="C32">
         <v>27</v>
       </c>
-      <c r="D32" s="32" t="s">
+      <c r="D32" s="14" t="s">
         <v>233</v>
       </c>
       <c r="E32" t="s">
@@ -8871,16 +9635,16 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A33" s="39" t="s">
+      <c r="A33" s="20" t="s">
         <v>238</v>
       </c>
-      <c r="B33" s="32" t="s">
+      <c r="B33" s="14" t="s">
         <v>239</v>
       </c>
       <c r="C33">
         <v>27</v>
       </c>
-      <c r="D33" s="32" t="s">
+      <c r="D33" s="14" t="s">
         <v>233</v>
       </c>
       <c r="E33" t="s">
@@ -8888,16 +9652,16 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A34" s="39" t="s">
+      <c r="A34" s="20" t="s">
         <v>240</v>
       </c>
-      <c r="B34" s="32" t="s">
+      <c r="B34" s="14" t="s">
         <v>241</v>
       </c>
       <c r="C34">
         <v>27</v>
       </c>
-      <c r="D34" s="32" t="s">
+      <c r="D34" s="14" t="s">
         <v>233</v>
       </c>
       <c r="E34" t="s">
@@ -8905,16 +9669,16 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A35" s="39" t="s">
+      <c r="A35" s="20" t="s">
         <v>242</v>
       </c>
-      <c r="B35" s="32" t="s">
+      <c r="B35" s="14" t="s">
         <v>243</v>
       </c>
       <c r="C35">
         <v>27</v>
       </c>
-      <c r="D35" s="32" t="s">
+      <c r="D35" s="14" t="s">
         <v>233</v>
       </c>
       <c r="E35" t="s">
@@ -8986,7 +9750,7 @@
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1875" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -8999,19 +9763,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="30.75" x14ac:dyDescent="0.9">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="7" t="s">
         <v>383</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="7" t="s">
         <v>178</v>
       </c>
     </row>
@@ -9019,13 +9783,13 @@
       <c r="A2" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="14" t="s">
         <v>97</v>
       </c>
       <c r="C2">
         <v>64</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="14" t="s">
         <v>96</v>
       </c>
       <c r="E2" t="s">
@@ -9036,13 +9800,13 @@
       <c r="A3" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="23" t="s">
         <v>95</v>
       </c>
       <c r="C3">
         <v>64</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="D3" s="14" t="s">
         <v>96</v>
       </c>
       <c r="E3" t="s">
@@ -9053,13 +9817,13 @@
       <c r="A4" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="14" t="s">
         <v>247</v>
       </c>
       <c r="C4">
         <v>64</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="14" t="s">
         <v>96</v>
       </c>
       <c r="E4" t="s">
@@ -9070,13 +9834,13 @@
       <c r="A5" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="14" t="s">
         <v>248</v>
       </c>
       <c r="C5">
         <v>64</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="D5" s="14" t="s">
         <v>96</v>
       </c>
       <c r="E5" t="s">
@@ -9087,13 +9851,13 @@
       <c r="A6" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="14" t="s">
         <v>249</v>
       </c>
       <c r="C6">
         <v>64</v>
       </c>
-      <c r="D6" s="32" t="s">
+      <c r="D6" s="14" t="s">
         <v>96</v>
       </c>
       <c r="E6" t="s">
@@ -9104,13 +9868,13 @@
       <c r="A7" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="14" t="s">
         <v>250</v>
       </c>
       <c r="C7">
         <v>64</v>
       </c>
-      <c r="D7" s="32" t="s">
+      <c r="D7" s="14" t="s">
         <v>96</v>
       </c>
       <c r="E7" t="s">
@@ -9356,16 +10120,16 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="21" x14ac:dyDescent="0.65">
-      <c r="A22" s="31" t="s">
+      <c r="A22" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="B22" s="32" t="s">
+      <c r="B22" s="14" t="s">
         <v>254</v>
       </c>
       <c r="C22">
         <v>64</v>
       </c>
-      <c r="D22" s="32" t="s">
+      <c r="D22" s="14" t="s">
         <v>255</v>
       </c>
       <c r="E22" t="s">
@@ -9373,16 +10137,16 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="21" x14ac:dyDescent="0.65">
-      <c r="A23" s="31" t="s">
+      <c r="A23" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="B23" s="32" t="s">
+      <c r="B23" s="14" t="s">
         <v>256</v>
       </c>
       <c r="C23">
         <v>64</v>
       </c>
-      <c r="D23" s="32" t="s">
+      <c r="D23" s="14" t="s">
         <v>255</v>
       </c>
       <c r="E23" t="s">
@@ -9390,16 +10154,16 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="21" x14ac:dyDescent="0.65">
-      <c r="A24" s="31" t="s">
+      <c r="A24" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="B24" s="32" t="s">
+      <c r="B24" s="14" t="s">
         <v>257</v>
       </c>
       <c r="C24">
         <v>64</v>
       </c>
-      <c r="D24" s="32" t="s">
+      <c r="D24" s="14" t="s">
         <v>255</v>
       </c>
       <c r="E24" t="s">
@@ -9407,16 +10171,16 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="21" x14ac:dyDescent="0.65">
-      <c r="A25" s="31" t="s">
+      <c r="A25" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="B25" s="32" t="s">
+      <c r="B25" s="14" t="s">
         <v>258</v>
       </c>
       <c r="C25">
         <v>64</v>
       </c>
-      <c r="D25" s="32" t="s">
+      <c r="D25" s="14" t="s">
         <v>255</v>
       </c>
       <c r="E25" t="s">
@@ -9424,16 +10188,16 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="21" x14ac:dyDescent="0.65">
-      <c r="A26" s="31" t="s">
+      <c r="A26" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="B26" s="32" t="s">
+      <c r="B26" s="14" t="s">
         <v>259</v>
       </c>
       <c r="C26">
         <v>64</v>
       </c>
-      <c r="D26" s="32" t="s">
+      <c r="D26" s="14" t="s">
         <v>255</v>
       </c>
       <c r="E26" t="s">
@@ -9441,16 +10205,16 @@
       </c>
     </row>
     <row r="27" spans="1:5" ht="21" x14ac:dyDescent="0.65">
-      <c r="A27" s="31" t="s">
+      <c r="A27" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="B27" s="32" t="s">
+      <c r="B27" s="14" t="s">
         <v>260</v>
       </c>
       <c r="C27">
         <v>64</v>
       </c>
-      <c r="D27" s="32" t="s">
+      <c r="D27" s="14" t="s">
         <v>255</v>
       </c>
       <c r="E27" t="s">
@@ -9461,13 +10225,13 @@
       <c r="A28" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B28" s="32" t="s">
+      <c r="B28" s="14" t="s">
         <v>261</v>
       </c>
       <c r="C28">
         <v>64</v>
       </c>
-      <c r="D28" s="32" t="s">
+      <c r="D28" s="14" t="s">
         <v>255</v>
       </c>
       <c r="E28" t="s">
@@ -9478,13 +10242,13 @@
       <c r="A29" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="B29" s="32" t="s">
+      <c r="B29" s="14" t="s">
         <v>262</v>
       </c>
       <c r="C29">
         <v>64</v>
       </c>
-      <c r="D29" s="32" t="s">
+      <c r="D29" s="14" t="s">
         <v>255</v>
       </c>
       <c r="E29" t="s">
@@ -9505,7 +10269,7 @@
   <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1875" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -9527,55 +10291,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="30.75" x14ac:dyDescent="0.9">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="7" t="s">
         <v>390</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="7" t="s">
         <v>391</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="M1" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="N1" s="7" t="s">
         <v>392</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="O1" s="7" t="s">
         <v>393</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="P1" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="Q1" s="11" t="s">
+      <c r="Q1" s="7" t="s">
         <v>41</v>
       </c>
     </row>
@@ -9589,46 +10353,46 @@
       <c r="C2" t="b">
         <v>1</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="18" t="s">
         <v>339</v>
       </c>
-      <c r="E2" s="37">
+      <c r="E2" s="18">
         <v>200</v>
       </c>
-      <c r="F2" s="37" t="b">
-        <v>0</v>
-      </c>
-      <c r="G2" s="37">
-        <v>0</v>
-      </c>
-      <c r="H2" s="37" t="s">
+      <c r="F2" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="G2" s="18">
+        <v>0</v>
+      </c>
+      <c r="H2" s="18" t="s">
         <v>394</v>
       </c>
-      <c r="I2" s="37" t="b">
-        <v>0</v>
-      </c>
-      <c r="J2" s="37" t="s">
+      <c r="I2" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" s="18" t="s">
         <v>396</v>
       </c>
-      <c r="K2" s="37">
+      <c r="K2" s="18">
         <v>90</v>
       </c>
-      <c r="L2" s="37" t="b">
+      <c r="L2" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="M2" s="37">
+      <c r="M2" s="18">
         <v>30</v>
       </c>
-      <c r="N2" s="37">
+      <c r="N2" s="18">
         <v>10</v>
       </c>
-      <c r="O2" s="37">
+      <c r="O2" s="18">
         <v>74</v>
       </c>
-      <c r="P2" s="37" t="s">
+      <c r="P2" s="18" t="s">
         <v>267</v>
       </c>
-      <c r="Q2" s="37" t="s">
+      <c r="Q2" s="18" t="s">
         <v>268</v>
       </c>
     </row>
@@ -9642,46 +10406,46 @@
       <c r="C3" t="b">
         <v>0</v>
       </c>
-      <c r="D3" s="37" t="s">
+      <c r="D3" s="18" t="s">
         <v>340</v>
       </c>
-      <c r="E3" s="37">
+      <c r="E3" s="18">
         <v>100</v>
       </c>
-      <c r="F3" s="37" t="b">
+      <c r="F3" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="G3" s="37">
+      <c r="G3" s="18">
         <v>50</v>
       </c>
-      <c r="H3" s="37" t="s">
+      <c r="H3" s="18" t="s">
         <v>395</v>
       </c>
-      <c r="I3" s="37" t="b">
+      <c r="I3" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="J3" s="37" t="s">
+      <c r="J3" s="18" t="s">
         <v>396</v>
       </c>
-      <c r="K3" s="37">
+      <c r="K3" s="18">
         <v>80</v>
       </c>
-      <c r="L3" s="37" t="b">
-        <v>0</v>
-      </c>
-      <c r="M3" s="37">
+      <c r="L3" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="M3" s="18">
         <v>40</v>
       </c>
-      <c r="N3" s="37">
+      <c r="N3" s="18">
         <v>20</v>
       </c>
-      <c r="O3" s="37">
+      <c r="O3" s="18">
         <v>84</v>
       </c>
-      <c r="P3" s="37" t="s">
+      <c r="P3" s="18" t="s">
         <v>337</v>
       </c>
-      <c r="Q3" s="37" t="s">
+      <c r="Q3" s="18" t="s">
         <v>338</v>
       </c>
     </row>
@@ -9697,7 +10461,7 @@
   </sheetPr>
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -9717,43 +10481,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="30.75" x14ac:dyDescent="0.9">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="7" t="s">
         <v>390</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="M1" s="7" t="s">
         <v>41</v>
       </c>
     </row>
@@ -9764,37 +10528,37 @@
       <c r="B2" t="s">
         <v>95</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="18" t="s">
         <v>339</v>
       </c>
-      <c r="D2" s="37">
+      <c r="D2" s="18">
         <v>200</v>
       </c>
-      <c r="E2" s="37" t="b">
-        <v>0</v>
-      </c>
-      <c r="F2" s="37">
-        <v>0</v>
-      </c>
-      <c r="G2" s="37" t="s">
+      <c r="E2" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2" s="18">
+        <v>0</v>
+      </c>
+      <c r="G2" s="18" t="s">
         <v>394</v>
       </c>
-      <c r="H2" s="37" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" s="37" t="s">
+      <c r="H2" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" s="18" t="s">
         <v>396</v>
       </c>
-      <c r="J2" s="37">
+      <c r="J2" s="18">
         <v>90</v>
       </c>
-      <c r="K2" s="37">
+      <c r="K2" s="18">
         <v>30</v>
       </c>
-      <c r="L2" s="37" t="s">
+      <c r="L2" s="18" t="s">
         <v>267</v>
       </c>
-      <c r="M2" s="37" t="s">
+      <c r="M2" s="18" t="s">
         <v>268</v>
       </c>
     </row>
@@ -9805,37 +10569,37 @@
       <c r="B3" t="s">
         <v>247</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="18" t="s">
         <v>340</v>
       </c>
-      <c r="D3" s="37">
+      <c r="D3" s="18">
         <v>100</v>
       </c>
-      <c r="E3" s="37" t="b">
+      <c r="E3" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="F3" s="37">
+      <c r="F3" s="18">
         <v>50</v>
       </c>
-      <c r="G3" s="37" t="s">
+      <c r="G3" s="18" t="s">
         <v>395</v>
       </c>
-      <c r="H3" s="37" t="b">
+      <c r="H3" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="I3" s="37" t="s">
+      <c r="I3" s="18" t="s">
         <v>396</v>
       </c>
-      <c r="J3" s="37">
+      <c r="J3" s="18">
         <v>80</v>
       </c>
-      <c r="K3" s="37">
+      <c r="K3" s="18">
         <v>40</v>
       </c>
-      <c r="L3" s="37" t="s">
+      <c r="L3" s="18" t="s">
         <v>337</v>
       </c>
-      <c r="M3" s="37" t="s">
+      <c r="M3" s="18" t="s">
         <v>338</v>
       </c>
     </row>
@@ -9849,10 +10613,10 @@
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1875" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -9869,35 +10633,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="30.75" x14ac:dyDescent="0.9">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="7" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="21" x14ac:dyDescent="0.65">
+      <c r="A2" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B2" t="s">
+        <v>510</v>
+      </c>
+      <c r="C2">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
+        <v>511</v>
+      </c>
+      <c r="E2" t="s">
+        <v>340</v>
+      </c>
+      <c r="F2">
+        <v>300</v>
+      </c>
+      <c r="G2">
+        <v>60</v>
+      </c>
+      <c r="H2">
+        <v>50</v>
+      </c>
+      <c r="I2" t="s">
+        <v>376</v>
+      </c>
+      <c r="J2" t="s">
+        <v>512</v>
       </c>
     </row>
   </sheetData>

--- a/Generate_IxNetwork_Config-original.xlsx
+++ b/Generate_IxNetwork_Config-original.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moharedd\Downloads\Cisco-cafy\latestcode\tgn_1812_latest\tgn_1812\Bulk-config\Mohan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{596A9641-B5DF-4C42-AD5F-C38342E072A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF505539-47B9-45EB-9059-9EACC4AC6D78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" firstSheet="16" activeTab="18" xr2:uid="{7E5D92D4-6857-044F-AF5A-65E71E62F3C3}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" firstSheet="7" activeTab="12" xr2:uid="{7E5D92D4-6857-044F-AF5A-65E71E62F3C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Build_Information" sheetId="1" r:id="rId1"/>
@@ -37,12 +37,20 @@
     <sheet name="packet_editor" sheetId="17" r:id="rId22"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Devicegroup!$A$1:$D$38</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Devicegroup!$A$1:$I$38</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -332,7 +340,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1430" uniqueCount="566">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1478" uniqueCount="613">
   <si>
     <t>yes</t>
   </si>
@@ -433,9 +441,6 @@
     <t>Device Group</t>
   </si>
   <si>
-    <t>Vlan Header</t>
-  </si>
-  <si>
     <t>Gateway IP</t>
   </si>
   <si>
@@ -1357,12 +1362,6 @@
     <t>external</t>
   </si>
   <si>
-    <t>Key Id</t>
-  </si>
-  <si>
-    <t>SA Id</t>
-  </si>
-  <si>
     <t>Authentication Algo</t>
   </si>
   <si>
@@ -1486,12 +1485,6 @@
     <t>Address</t>
   </si>
   <si>
-    <t>Dut IP</t>
-  </si>
-  <si>
-    <t>BGP Id</t>
-  </si>
-  <si>
     <t>Local AS</t>
   </si>
   <si>
@@ -1558,9 +1551,6 @@
     <t>Authentication Type</t>
   </si>
   <si>
-    <t>Enable 3WayHandshake</t>
-  </si>
-  <si>
     <t>level1</t>
   </si>
   <si>
@@ -2030,6 +2020,165 @@
   </si>
   <si>
     <t>DHCP_Serverv6</t>
+  </si>
+  <si>
+    <t>MAC</t>
+  </si>
+  <si>
+    <t>VLAN Count</t>
+  </si>
+  <si>
+    <t>Enable VLANs</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>00:11:01:00:00:01</t>
+  </si>
+  <si>
+    <t>00:11:01:00:00:05</t>
+  </si>
+  <si>
+    <t>00:11:01:00:00:06</t>
+  </si>
+  <si>
+    <t>00:11:01:00:00:07</t>
+  </si>
+  <si>
+    <t>00:11:01:00:00:08</t>
+  </si>
+  <si>
+    <t>00:11:01:00:00:09</t>
+  </si>
+  <si>
+    <t>00:11:01:00:00:10</t>
+  </si>
+  <si>
+    <t>00:11:01:00:00:11</t>
+  </si>
+  <si>
+    <t>00:11:01:00:00:12</t>
+  </si>
+  <si>
+    <t>00:11:01:00:00:13</t>
+  </si>
+  <si>
+    <t>00:11:01:00:00:14</t>
+  </si>
+  <si>
+    <t>00:11:01:00:00:15</t>
+  </si>
+  <si>
+    <t>00:11:01:00:00:16</t>
+  </si>
+  <si>
+    <t>00:11:01:00:00:17</t>
+  </si>
+  <si>
+    <t>00:11:01:00:00:18</t>
+  </si>
+  <si>
+    <t>00:11:01:00:00:19</t>
+  </si>
+  <si>
+    <t>00:11:01:00:00:20</t>
+  </si>
+  <si>
+    <t>00:11:01:00:00:21</t>
+  </si>
+  <si>
+    <t>00:11:01:00:00:22</t>
+  </si>
+  <si>
+    <t>00:11:01:00:00:23</t>
+  </si>
+  <si>
+    <t>00:11:01:00:00:24</t>
+  </si>
+  <si>
+    <t>00:11:01:00:00:25</t>
+  </si>
+  <si>
+    <t>00:11:01:00:00:26</t>
+  </si>
+  <si>
+    <t>00:11:01:00:00:27</t>
+  </si>
+  <si>
+    <t>00:11:01:00:00:28</t>
+  </si>
+  <si>
+    <t>00:11:01:00:00:29</t>
+  </si>
+  <si>
+    <t>00:11:01:00:00:30</t>
+  </si>
+  <si>
+    <t>00:11:01:00:00:31</t>
+  </si>
+  <si>
+    <t>00:11:01:00:00:32</t>
+  </si>
+  <si>
+    <t>00:11:01:00:00:33</t>
+  </si>
+  <si>
+    <t>00:11:01:00:00:34</t>
+  </si>
+  <si>
+    <t>00:11:01:00:00:35</t>
+  </si>
+  <si>
+    <t>00:11:01:00:00:36</t>
+  </si>
+  <si>
+    <t>00:11:01:00:00:37</t>
+  </si>
+  <si>
+    <t>valuelist;00:11:01:00:00:02</t>
+  </si>
+  <si>
+    <t>valuelist;00:11:01:00:00:03</t>
+  </si>
+  <si>
+    <t>valuelist;1600</t>
+  </si>
+  <si>
+    <t>valuelist;2</t>
+  </si>
+  <si>
+    <t>increment;00:11:01:00:00:04;00:00:00:00:00:01</t>
+  </si>
+  <si>
+    <t>increment;1600;1</t>
+  </si>
+  <si>
+    <t>increment;2;1</t>
+  </si>
+  <si>
+    <t>increment;3;1</t>
+  </si>
+  <si>
+    <t>DUT IP</t>
+  </si>
+  <si>
+    <t>BGP ID</t>
+  </si>
+  <si>
+    <t>VLAN ID</t>
+  </si>
+  <si>
+    <t>MD5 Key</t>
+  </si>
+  <si>
+    <t>SA ID</t>
+  </si>
+  <si>
+    <t>MD5 Key ID</t>
+  </si>
+  <si>
+    <t>Enable 3-Way Handshake</t>
   </si>
 </sst>
 </file>
@@ -2911,16 +3060,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="30.75" x14ac:dyDescent="0.9">
       <c r="A1" s="27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B1" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="28" t="s">
-        <v>44</v>
-      </c>
       <c r="D1" s="28" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="30.75" x14ac:dyDescent="0.9">
@@ -2934,7 +3083,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="30.75" x14ac:dyDescent="0.9">
@@ -2948,7 +3097,7 @@
         <v>4</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="30.75" x14ac:dyDescent="0.9">
@@ -2962,7 +3111,7 @@
         <v>30</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="30.75" x14ac:dyDescent="0.9">
@@ -2970,13 +3119,13 @@
         <v>0</v>
       </c>
       <c r="B5" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="29" t="s">
-        <v>83</v>
-      </c>
       <c r="D5" s="25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="30.75" x14ac:dyDescent="0.9">
@@ -2984,13 +3133,13 @@
         <v>0</v>
       </c>
       <c r="B6" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="C6" s="29" t="s">
-        <v>85</v>
-      </c>
       <c r="D6" s="25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="30.75" x14ac:dyDescent="0.9">
@@ -2998,13 +3147,13 @@
         <v>0</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="30.75" x14ac:dyDescent="0.9">
@@ -3012,13 +3161,13 @@
         <v>0</v>
       </c>
       <c r="B8" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="C8" s="26" t="s">
         <v>182</v>
       </c>
-      <c r="C8" s="26" t="s">
-        <v>183</v>
-      </c>
       <c r="D8" s="25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="30.75" x14ac:dyDescent="0.9">
@@ -3026,13 +3175,13 @@
         <v>0</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="30.75" x14ac:dyDescent="0.9">
@@ -3040,13 +3189,13 @@
         <v>0</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="30.75" x14ac:dyDescent="0.9">
@@ -3054,13 +3203,13 @@
         <v>0</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="30.75" x14ac:dyDescent="0.9">
@@ -3068,13 +3217,13 @@
         <v>0</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="30.75" x14ac:dyDescent="0.9">
@@ -3088,7 +3237,7 @@
         <v>8</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="30.75" x14ac:dyDescent="0.9">
@@ -3096,13 +3245,13 @@
         <v>0</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="30.75" x14ac:dyDescent="0.9">
@@ -3110,13 +3259,13 @@
         <v>0</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="30.75" x14ac:dyDescent="0.9">
@@ -3124,13 +3273,13 @@
         <v>0</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="30.75" x14ac:dyDescent="0.9">
@@ -3138,13 +3287,13 @@
         <v>0</v>
       </c>
       <c r="B17" s="26" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="C17" s="26" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="30.75" x14ac:dyDescent="0.9">
@@ -3155,10 +3304,10 @@
         <v>6</v>
       </c>
       <c r="C18" s="30" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="D18" s="31" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="30.75" x14ac:dyDescent="0.9">
@@ -3166,13 +3315,13 @@
         <v>0</v>
       </c>
       <c r="B19" s="32" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="C19" s="32" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="D19" s="31" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="30.75" x14ac:dyDescent="0.9">
@@ -3180,13 +3329,13 @@
         <v>0</v>
       </c>
       <c r="B20" s="32" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="C20" s="32" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="D20" s="33" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="30.75" x14ac:dyDescent="0.9">
@@ -3200,7 +3349,7 @@
         <v>10</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="30.75" x14ac:dyDescent="0.9">
@@ -3208,13 +3357,13 @@
         <v>0</v>
       </c>
       <c r="B22" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="C22" s="36" t="s">
-        <v>66</v>
-      </c>
       <c r="D22" s="33" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -3252,31 +3401,31 @@
         <v>32</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="E1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>62</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="21" x14ac:dyDescent="0.65">
@@ -3295,7 +3444,7 @@
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1875" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -3313,51 +3462,51 @@
         <v>32</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D1" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="I1" s="8" t="s">
-        <v>72</v>
-      </c>
       <c r="J1" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>341</v>
+        <v>611</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>41</v>
+        <v>609</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="21" x14ac:dyDescent="0.65">
       <c r="A2" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="E2">
         <v>20</v>
@@ -3372,30 +3521,30 @@
         <v>1200</v>
       </c>
       <c r="I2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="21" x14ac:dyDescent="0.65">
       <c r="A3" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="E3">
         <v>10</v>
@@ -3410,30 +3559,30 @@
         <v>1300</v>
       </c>
       <c r="I3" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="J3" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="K3">
         <v>2</v>
       </c>
       <c r="L3" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="21" x14ac:dyDescent="0.65">
       <c r="A4" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="E4">
         <v>20</v>
@@ -3448,30 +3597,30 @@
         <v>1300</v>
       </c>
       <c r="I4" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="J4" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="K4">
         <v>3</v>
       </c>
       <c r="L4" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="21" x14ac:dyDescent="0.65">
       <c r="A5" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C5">
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="E5">
         <v>20</v>
@@ -3486,24 +3635,24 @@
         <v>1300</v>
       </c>
       <c r="I5" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="J5" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="K5">
         <v>4</v>
       </c>
       <c r="L5" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="21" x14ac:dyDescent="0.65">
       <c r="A6" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C6">
         <v>4</v>
@@ -3511,10 +3660,10 @@
     </row>
     <row r="7" spans="1:12" ht="21" x14ac:dyDescent="0.65">
       <c r="A7" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C7">
         <v>5</v>
@@ -3522,10 +3671,10 @@
     </row>
     <row r="8" spans="1:12" ht="21" x14ac:dyDescent="0.65">
       <c r="A8" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -3533,10 +3682,10 @@
     </row>
     <row r="9" spans="1:12" ht="21" x14ac:dyDescent="0.65">
       <c r="A9" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B9" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -3544,10 +3693,10 @@
     </row>
     <row r="10" spans="1:12" ht="21" x14ac:dyDescent="0.65">
       <c r="A10" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B10" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -3555,10 +3704,10 @@
     </row>
     <row r="11" spans="1:12" ht="21" x14ac:dyDescent="0.65">
       <c r="A11" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B11" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -3566,10 +3715,10 @@
     </row>
     <row r="12" spans="1:12" ht="21" x14ac:dyDescent="0.65">
       <c r="A12" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B12" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -3577,10 +3726,10 @@
     </row>
     <row r="13" spans="1:12" ht="21" x14ac:dyDescent="0.65">
       <c r="A13" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B13" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -3588,10 +3737,10 @@
     </row>
     <row r="14" spans="1:12" ht="21" x14ac:dyDescent="0.65">
       <c r="A14" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B14" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -3599,10 +3748,10 @@
     </row>
     <row r="15" spans="1:12" ht="21" x14ac:dyDescent="0.65">
       <c r="A15" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B15" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -3610,10 +3759,10 @@
     </row>
     <row r="16" spans="1:12" ht="21" x14ac:dyDescent="0.65">
       <c r="A16" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B16" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -3621,10 +3770,10 @@
     </row>
     <row r="17" spans="1:3" ht="21" x14ac:dyDescent="0.65">
       <c r="A17" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B17" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -3632,10 +3781,10 @@
     </row>
     <row r="18" spans="1:3" ht="21" x14ac:dyDescent="0.65">
       <c r="A18" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B18" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -3643,10 +3792,10 @@
     </row>
     <row r="19" spans="1:3" ht="21" x14ac:dyDescent="0.65">
       <c r="A19" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B19" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -3654,10 +3803,10 @@
     </row>
     <row r="20" spans="1:3" ht="21" x14ac:dyDescent="0.65">
       <c r="A20" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B20" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -3665,10 +3814,10 @@
     </row>
     <row r="21" spans="1:3" ht="21" x14ac:dyDescent="0.65">
       <c r="A21" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B21" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -3676,10 +3825,10 @@
     </row>
     <row r="22" spans="1:3" ht="21" x14ac:dyDescent="0.65">
       <c r="A22" s="13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B22" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -3687,10 +3836,10 @@
     </row>
     <row r="23" spans="1:3" ht="21" x14ac:dyDescent="0.65">
       <c r="A23" s="13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B23" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -3698,10 +3847,10 @@
     </row>
     <row r="24" spans="1:3" ht="21" x14ac:dyDescent="0.65">
       <c r="A24" s="13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B24" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -3709,10 +3858,10 @@
     </row>
     <row r="25" spans="1:3" ht="21" x14ac:dyDescent="0.65">
       <c r="A25" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B25" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -3720,10 +3869,10 @@
     </row>
     <row r="26" spans="1:3" ht="21" x14ac:dyDescent="0.65">
       <c r="A26" s="13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B26" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -3731,10 +3880,10 @@
     </row>
     <row r="27" spans="1:3" ht="21" x14ac:dyDescent="0.65">
       <c r="A27" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B27" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -3742,10 +3891,10 @@
     </row>
     <row r="28" spans="1:3" ht="21" x14ac:dyDescent="0.65">
       <c r="A28" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B28" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -3753,10 +3902,10 @@
     </row>
     <row r="29" spans="1:3" ht="21" x14ac:dyDescent="0.65">
       <c r="A29" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B29" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -3775,8 +3924,8 @@
   </sheetPr>
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1875" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -3794,48 +3943,48 @@
         <v>32</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D1" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="F1" s="8" t="s">
-        <v>69</v>
-      </c>
       <c r="G1" s="8" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="H1" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>610</v>
+      </c>
+      <c r="K1" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="21" x14ac:dyDescent="0.65">
       <c r="A2" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="E2">
         <v>20</v>
@@ -3847,30 +3996,30 @@
         <v>30</v>
       </c>
       <c r="H2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="J2">
         <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="21" x14ac:dyDescent="0.65">
       <c r="A3" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="E3">
         <v>10</v>
@@ -3882,27 +4031,27 @@
         <v>30</v>
       </c>
       <c r="H3" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="J3">
         <v>2</v>
       </c>
       <c r="K3" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="21" x14ac:dyDescent="0.65">
       <c r="A4" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B4" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="E4">
         <v>20</v>
@@ -3914,27 +4063,27 @@
         <v>30</v>
       </c>
       <c r="H4" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="J4">
         <v>3</v>
       </c>
       <c r="K4" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="21" x14ac:dyDescent="0.65">
       <c r="A5" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B5" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C5">
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="E5">
         <v>20</v>
@@ -3946,21 +4095,21 @@
         <v>30</v>
       </c>
       <c r="H5" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="J5">
         <v>4</v>
       </c>
       <c r="K5" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="21" x14ac:dyDescent="0.65">
       <c r="A6" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B6" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -3968,10 +4117,10 @@
     </row>
     <row r="7" spans="1:11" ht="21" x14ac:dyDescent="0.65">
       <c r="A7" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B7" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -3979,10 +4128,10 @@
     </row>
     <row r="8" spans="1:11" ht="21" x14ac:dyDescent="0.65">
       <c r="A8" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B8" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -3990,10 +4139,10 @@
     </row>
     <row r="9" spans="1:11" ht="21" x14ac:dyDescent="0.65">
       <c r="A9" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B9" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -4001,10 +4150,10 @@
     </row>
     <row r="10" spans="1:11" ht="21" x14ac:dyDescent="0.65">
       <c r="A10" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B10" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -4012,10 +4161,10 @@
     </row>
     <row r="11" spans="1:11" ht="21" x14ac:dyDescent="0.65">
       <c r="A11" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B11" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -4023,10 +4172,10 @@
     </row>
     <row r="12" spans="1:11" ht="21" x14ac:dyDescent="0.65">
       <c r="A12" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B12" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -4034,10 +4183,10 @@
     </row>
     <row r="13" spans="1:11" ht="21" x14ac:dyDescent="0.65">
       <c r="A13" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B13" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -4045,10 +4194,10 @@
     </row>
     <row r="14" spans="1:11" ht="21" x14ac:dyDescent="0.65">
       <c r="A14" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B14" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -4056,10 +4205,10 @@
     </row>
     <row r="15" spans="1:11" ht="21" x14ac:dyDescent="0.65">
       <c r="A15" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B15" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -4067,10 +4216,10 @@
     </row>
     <row r="16" spans="1:11" ht="21" x14ac:dyDescent="0.65">
       <c r="A16" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B16" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -4078,10 +4227,10 @@
     </row>
     <row r="17" spans="1:3" ht="21" x14ac:dyDescent="0.65">
       <c r="A17" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B17" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -4089,10 +4238,10 @@
     </row>
     <row r="18" spans="1:3" ht="21" x14ac:dyDescent="0.65">
       <c r="A18" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B18" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -4100,10 +4249,10 @@
     </row>
     <row r="19" spans="1:3" ht="21" x14ac:dyDescent="0.65">
       <c r="A19" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B19" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -4111,10 +4260,10 @@
     </row>
     <row r="20" spans="1:3" ht="21" x14ac:dyDescent="0.65">
       <c r="A20" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B20" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -4122,10 +4271,10 @@
     </row>
     <row r="21" spans="1:3" ht="21" x14ac:dyDescent="0.65">
       <c r="A21" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B21" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -4133,10 +4282,10 @@
     </row>
     <row r="22" spans="1:3" ht="21" x14ac:dyDescent="0.65">
       <c r="A22" s="13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B22" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -4144,10 +4293,10 @@
     </row>
     <row r="23" spans="1:3" ht="21" x14ac:dyDescent="0.65">
       <c r="A23" s="13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B23" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -4155,10 +4304,10 @@
     </row>
     <row r="24" spans="1:3" ht="21" x14ac:dyDescent="0.65">
       <c r="A24" s="13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B24" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -4166,10 +4315,10 @@
     </row>
     <row r="25" spans="1:3" ht="21" x14ac:dyDescent="0.65">
       <c r="A25" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B25" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -4177,10 +4326,10 @@
     </row>
     <row r="26" spans="1:3" ht="21" x14ac:dyDescent="0.65">
       <c r="A26" s="13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B26" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -4188,10 +4337,10 @@
     </row>
     <row r="27" spans="1:3" ht="21" x14ac:dyDescent="0.65">
       <c r="A27" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B27" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -4199,10 +4348,10 @@
     </row>
     <row r="28" spans="1:3" ht="21" x14ac:dyDescent="0.65">
       <c r="A28" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B28" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -4210,10 +4359,10 @@
     </row>
     <row r="29" spans="1:3" ht="21" x14ac:dyDescent="0.65">
       <c r="A29" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B29" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -4233,8 +4382,8 @@
   </sheetPr>
   <dimension ref="A1:T10"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:A9"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1875" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -4259,66 +4408,66 @@
         <v>32</v>
       </c>
       <c r="B1" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>612</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>393</v>
+      </c>
+      <c r="E1" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="C1" s="24" t="s">
-        <v>408</v>
-      </c>
-      <c r="D1" s="12" t="s">
+      <c r="F1" s="12" t="s">
+        <v>394</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>395</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>396</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>397</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>405</v>
+      </c>
+      <c r="M1" s="11" t="s">
         <v>398</v>
       </c>
-      <c r="E1" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="F1" s="12" t="s">
+      <c r="N1" s="11" t="s">
         <v>399</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="O1" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="P1" s="12" t="s">
         <v>400</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="Q1" s="12" t="s">
         <v>401</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="R1" s="12" t="s">
+        <v>410</v>
+      </c>
+      <c r="S1" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="J1" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="K1" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="L1" s="11" t="s">
-        <v>411</v>
-      </c>
-      <c r="M1" s="11" t="s">
-        <v>403</v>
-      </c>
-      <c r="N1" s="11" t="s">
-        <v>404</v>
-      </c>
-      <c r="O1" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="P1" s="12" t="s">
-        <v>405</v>
-      </c>
-      <c r="Q1" s="12" t="s">
-        <v>406</v>
-      </c>
-      <c r="R1" s="12" t="s">
-        <v>416</v>
-      </c>
-      <c r="S1" s="7" t="s">
-        <v>407</v>
-      </c>
       <c r="T1" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="21" x14ac:dyDescent="0.65">
       <c r="A2" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B2">
         <v>10</v>
@@ -4345,10 +4494,10 @@
         <v>10</v>
       </c>
       <c r="J2" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="K2" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="L2">
         <v>1</v>
@@ -4372,15 +4521,15 @@
         <v>30</v>
       </c>
       <c r="S2" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="T2" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="21" x14ac:dyDescent="0.65">
       <c r="A3" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B3">
         <v>20</v>
@@ -4407,10 +4556,10 @@
         <v>20</v>
       </c>
       <c r="J3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="K3" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="L3">
         <v>2</v>
@@ -4434,15 +4583,15 @@
         <v>40</v>
       </c>
       <c r="S3" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="T3" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="21" x14ac:dyDescent="0.65">
       <c r="A4" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B4">
         <v>30</v>
@@ -4469,10 +4618,10 @@
         <v>30</v>
       </c>
       <c r="J4" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="K4" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="L4">
         <v>3</v>
@@ -4496,15 +4645,15 @@
         <v>50</v>
       </c>
       <c r="S4" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="T4" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="21" x14ac:dyDescent="0.65">
       <c r="A5" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B5">
         <v>40</v>
@@ -4531,10 +4680,10 @@
         <v>40</v>
       </c>
       <c r="J5" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="K5" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="L5">
         <v>4</v>
@@ -4558,15 +4707,15 @@
         <v>60</v>
       </c>
       <c r="S5" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="T5" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="21" x14ac:dyDescent="0.65">
       <c r="A6" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B6">
         <v>50</v>
@@ -4593,10 +4742,10 @@
         <v>50</v>
       </c>
       <c r="J6" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="K6" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="L6">
         <v>5</v>
@@ -4620,15 +4769,15 @@
         <v>30</v>
       </c>
       <c r="S6" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="T6" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="21" x14ac:dyDescent="0.65">
       <c r="A7" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B7">
         <v>60</v>
@@ -4655,10 +4804,10 @@
         <v>10</v>
       </c>
       <c r="J7" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="K7" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="L7">
         <v>6</v>
@@ -4682,15 +4831,15 @@
         <v>40</v>
       </c>
       <c r="S7" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="T7" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="21" x14ac:dyDescent="0.65">
       <c r="A8" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B8">
         <v>10</v>
@@ -4717,10 +4866,10 @@
         <v>20</v>
       </c>
       <c r="J8" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="K8" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="L8">
         <v>7</v>
@@ -4744,15 +4893,15 @@
         <v>50</v>
       </c>
       <c r="S8" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="T8" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="21" x14ac:dyDescent="0.65">
       <c r="A9" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B9">
         <v>20</v>
@@ -4779,10 +4928,10 @@
         <v>30</v>
       </c>
       <c r="J9" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="K9" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="L9">
         <v>8</v>
@@ -4806,15 +4955,15 @@
         <v>60</v>
       </c>
       <c r="S9" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="T9" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="21" x14ac:dyDescent="0.65">
       <c r="A10" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B10">
         <v>30</v>
@@ -4841,10 +4990,10 @@
         <v>40</v>
       </c>
       <c r="J10" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="K10" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="L10">
         <v>9</v>
@@ -4868,10 +5017,10 @@
         <v>70</v>
       </c>
       <c r="S10" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="T10" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
     </row>
   </sheetData>
@@ -4905,57 +5054,57 @@
         <v>32</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="E1" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="H1" s="7" t="s">
         <v>459</v>
       </c>
-      <c r="F1" s="7" t="s">
-        <v>464</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>463</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>465</v>
-      </c>
       <c r="I1" s="7" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="21" x14ac:dyDescent="0.65">
       <c r="A2" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C2" t="s">
+        <v>462</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
         <v>468</v>
       </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>474</v>
-      </c>
       <c r="F2" t="s">
+        <v>470</v>
+      </c>
+      <c r="G2" t="s">
         <v>476</v>
-      </c>
-      <c r="G2" t="s">
-        <v>482</v>
       </c>
       <c r="H2">
         <v>32</v>
@@ -4967,30 +5116,30 @@
         <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="21" x14ac:dyDescent="0.65">
       <c r="A3" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="C3" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
       <c r="E3" t="s">
+        <v>466</v>
+      </c>
+      <c r="F3" t="s">
+        <v>471</v>
+      </c>
+      <c r="G3" t="s">
         <v>472</v>
-      </c>
-      <c r="F3" t="s">
-        <v>477</v>
-      </c>
-      <c r="G3" t="s">
-        <v>478</v>
       </c>
       <c r="H3">
         <v>24</v>
@@ -5002,30 +5151,30 @@
         <v>2</v>
       </c>
       <c r="K3" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="21" x14ac:dyDescent="0.65">
       <c r="A4" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C4" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="D4">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="F4" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="G4" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="H4">
         <v>24</v>
@@ -5037,30 +5186,30 @@
         <v>3</v>
       </c>
       <c r="K4" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="21" x14ac:dyDescent="0.65">
       <c r="A5" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C5" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="D5">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="F5" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="G5" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="H5">
         <v>32</v>
@@ -5072,30 +5221,30 @@
         <v>4</v>
       </c>
       <c r="K5" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="21" x14ac:dyDescent="0.65">
       <c r="A6" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="C6" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="D6">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="F6" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="G6" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="H6">
         <v>24</v>
@@ -5107,30 +5256,30 @@
         <v>5</v>
       </c>
       <c r="K6" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="21" x14ac:dyDescent="0.65">
       <c r="A7" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C7" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="D7">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="F7" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="G7" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="H7">
         <v>32</v>
@@ -5142,7 +5291,7 @@
         <v>6</v>
       </c>
       <c r="K7" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
     </row>
   </sheetData>
@@ -5173,45 +5322,45 @@
         <v>32</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="H1" s="7" t="s">
         <v>417</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="I1" s="7" t="s">
         <v>418</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="J1" s="7" t="s">
         <v>419</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="K1" s="7" t="s">
         <v>420</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="L1" s="7" t="s">
         <v>421</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="21" x14ac:dyDescent="0.65">
       <c r="A2" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B2" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -5220,25 +5369,25 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="F2" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="G2">
         <v>10</v>
       </c>
       <c r="H2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s">
+        <v>441</v>
+      </c>
+      <c r="K2" t="s">
         <v>445</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s">
-        <v>447</v>
-      </c>
-      <c r="K2" t="s">
-        <v>451</v>
       </c>
       <c r="L2">
         <v>1</v>
@@ -5246,10 +5395,10 @@
     </row>
     <row r="3" spans="1:12" ht="21" x14ac:dyDescent="0.65">
       <c r="A3" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B3" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -5258,25 +5407,25 @@
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="F3" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="G3">
         <v>11</v>
       </c>
       <c r="H3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="I3">
         <v>2</v>
       </c>
       <c r="J3" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="K3" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="L3">
         <v>2</v>
@@ -5284,10 +5433,10 @@
     </row>
     <row r="4" spans="1:12" ht="21" x14ac:dyDescent="0.65">
       <c r="A4" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B4" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -5296,25 +5445,25 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="F4" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="G4">
         <v>12</v>
       </c>
       <c r="H4" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="I4">
         <v>3</v>
       </c>
       <c r="J4" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="K4" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="L4">
         <v>3</v>
@@ -5322,10 +5471,10 @@
     </row>
     <row r="5" spans="1:12" ht="21" x14ac:dyDescent="0.65">
       <c r="A5" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B5" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -5334,25 +5483,25 @@
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="F5" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="G5">
         <v>13</v>
       </c>
       <c r="H5" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="I5">
         <v>4</v>
       </c>
       <c r="J5" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="K5" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="L5">
         <v>4</v>
@@ -5388,33 +5537,33 @@
         <v>32</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.65">
       <c r="A2" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B2" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="C2">
         <v>2</v>
@@ -5437,10 +5586,10 @@
     </row>
     <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.65">
       <c r="A3" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B3" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="C3">
         <v>3</v>
@@ -5463,10 +5612,10 @@
     </row>
     <row r="4" spans="1:8" ht="21" x14ac:dyDescent="0.65">
       <c r="A4" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B4" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="C4">
         <v>4</v>
@@ -5489,10 +5638,10 @@
     </row>
     <row r="5" spans="1:8" ht="21" x14ac:dyDescent="0.65">
       <c r="A5" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B5" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="C5">
         <v>5</v>
@@ -5543,39 +5692,39 @@
         <v>32</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>509</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>510</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="G1" s="7" t="s">
         <v>513</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="H1" s="7" t="s">
         <v>515</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>516</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>517</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>518</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>519</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>521</v>
-      </c>
       <c r="I1" s="7" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.65">
       <c r="A2" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B2" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="C2" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="D2" t="s">
         <v>0</v>
@@ -5590,7 +5739,7 @@
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="I2" t="b">
         <v>1</v>
@@ -5598,13 +5747,13 @@
     </row>
     <row r="3" spans="1:9" ht="21" x14ac:dyDescent="0.65">
       <c r="A3" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B3" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="C3" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="D3" t="s">
         <v>0</v>
@@ -5619,7 +5768,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="I3" t="b">
         <v>0</v>
@@ -5657,48 +5806,48 @@
         <v>32</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>509</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>510</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>524</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="K1" s="7" t="s">
         <v>526</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>515</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>516</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>517</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>518</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>527</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>528</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>530</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>531</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>532</v>
-      </c>
       <c r="L1" s="7" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="21" x14ac:dyDescent="0.65">
       <c r="A2" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B2" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="C2" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="D2" t="s">
         <v>1</v>
@@ -5716,7 +5865,7 @@
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="J2">
         <v>10</v>
@@ -5725,18 +5874,18 @@
         <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="21" x14ac:dyDescent="0.65">
       <c r="A3" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B3" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="C3" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="D3" t="s">
         <v>0</v>
@@ -5754,7 +5903,7 @@
         <v>3</v>
       </c>
       <c r="I3" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="J3">
         <v>30</v>
@@ -5763,7 +5912,7 @@
         <v>3</v>
       </c>
       <c r="L3" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
     </row>
   </sheetData>
@@ -5775,7 +5924,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{503026BC-0640-4254-BE5B-FF37C6FC99E2}">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -5798,42 +5947,42 @@
         <v>32</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>531</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>532</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>536</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>533</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="G1" s="7" t="s">
         <v>537</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="H1" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="I1" s="7" t="s">
         <v>538</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>542</v>
-      </c>
-      <c r="E1" s="6" t="s">
+      <c r="J1" s="7" t="s">
         <v>539</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>541</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>543</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>518</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>544</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="21" x14ac:dyDescent="0.65">
       <c r="A2" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B2" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="C2" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="D2">
         <v>24</v>
@@ -5856,13 +6005,13 @@
     </row>
     <row r="3" spans="1:10" ht="21" x14ac:dyDescent="0.65">
       <c r="A3" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B3" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="C3" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="D3">
         <v>24</v>
@@ -5910,7 +6059,7 @@
         <v>11</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="25.5" x14ac:dyDescent="0.75">
@@ -5918,7 +6067,7 @@
         <v>12</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="25.5" x14ac:dyDescent="0.75">
@@ -5950,7 +6099,7 @@
         <v>16</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="25.5" x14ac:dyDescent="0.75">
@@ -5982,7 +6131,7 @@
         <v>20</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>
@@ -6019,48 +6168,48 @@
         <v>32</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>531</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>532</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>536</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>533</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="G1" s="7" t="s">
         <v>537</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>538</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>542</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>539</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>541</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>543</v>
-      </c>
       <c r="H1" s="7" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="I1" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="L1" s="7" t="s">
         <v>550</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>551</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>557</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="21" x14ac:dyDescent="0.65">
       <c r="A2" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B2" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="C2" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="D2">
         <v>64</v>
@@ -6078,10 +6227,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="J2" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="K2">
         <v>64</v>
@@ -6092,13 +6241,13 @@
     </row>
     <row r="3" spans="1:12" ht="21" x14ac:dyDescent="0.65">
       <c r="A3" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B3" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="C3" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="D3">
         <v>64</v>
@@ -6116,10 +6265,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="J3" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="K3">
         <v>64</v>
@@ -6158,45 +6307,45 @@
   <sheetData>
     <row r="1" spans="1:8" ht="30.75" x14ac:dyDescent="0.9">
       <c r="A1" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C1" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" s="10" t="s">
         <v>50</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.65">
       <c r="A2" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E2" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="F2">
         <v>1000</v>
@@ -6205,24 +6354,24 @@
         <v>128</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.65">
       <c r="A3" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E3" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="F3">
         <v>1000</v>
@@ -6231,24 +6380,24 @@
         <v>128</v>
       </c>
       <c r="H3" s="15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="21" x14ac:dyDescent="0.65">
       <c r="A4" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C4" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E4" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="F4">
         <v>1000</v>
@@ -6257,24 +6406,24 @@
         <v>128</v>
       </c>
       <c r="H4" s="15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="21" x14ac:dyDescent="0.65">
       <c r="A5" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C5" t="s">
         <v>0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E5" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="F5">
         <v>1000</v>
@@ -6283,24 +6432,24 @@
         <v>128</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="21" x14ac:dyDescent="0.65">
       <c r="A6" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C6" t="s">
         <v>0</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E6" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="F6">
         <v>1000</v>
@@ -6309,24 +6458,24 @@
         <v>128</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="21" x14ac:dyDescent="0.65">
       <c r="A7" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C7" t="s">
         <v>0</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E7" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="F7">
         <v>1000</v>
@@ -6335,24 +6484,24 @@
         <v>128</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="21" x14ac:dyDescent="0.65">
       <c r="A8" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C8" t="s">
         <v>0</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E8" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="F8">
         <v>1000</v>
@@ -6361,24 +6510,24 @@
         <v>128</v>
       </c>
       <c r="H8" s="15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="21" x14ac:dyDescent="0.65">
       <c r="A9" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C9" t="s">
         <v>0</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E9" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="F9">
         <v>1000</v>
@@ -6387,24 +6536,24 @@
         <v>128</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="21" x14ac:dyDescent="0.65">
       <c r="A10" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C10" t="s">
         <v>0</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E10" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="F10">
         <v>1000</v>
@@ -6413,24 +6562,24 @@
         <v>128</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="21" x14ac:dyDescent="0.65">
       <c r="A11" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C11" t="s">
         <v>0</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E11" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="F11">
         <v>1000</v>
@@ -6439,24 +6588,24 @@
         <v>128</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="21" x14ac:dyDescent="0.65">
       <c r="A12" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C12" t="s">
         <v>0</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E12" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="F12">
         <v>1000</v>
@@ -6465,24 +6614,24 @@
         <v>128</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="21" x14ac:dyDescent="0.65">
       <c r="A13" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B13" t="s">
         <v>109</v>
       </c>
-      <c r="B13" t="s">
-        <v>110</v>
-      </c>
       <c r="C13" t="s">
         <v>0</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E13" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="F13">
         <v>1000</v>
@@ -6491,24 +6640,24 @@
         <v>128</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="21" x14ac:dyDescent="0.65">
       <c r="A14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C14" t="s">
         <v>0</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E14" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="F14">
         <v>1000</v>
@@ -6517,24 +6666,24 @@
         <v>128</v>
       </c>
       <c r="H14" s="15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="21" x14ac:dyDescent="0.65">
       <c r="A15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C15" t="s">
         <v>0</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E15" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="F15">
         <v>1000</v>
@@ -6543,24 +6692,24 @@
         <v>128</v>
       </c>
       <c r="H15" s="15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="21" x14ac:dyDescent="0.65">
       <c r="A16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C16" t="s">
         <v>0</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="F16">
         <v>1000</v>
@@ -6569,24 +6718,24 @@
         <v>128</v>
       </c>
       <c r="H16" s="15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="21" x14ac:dyDescent="0.65">
       <c r="A17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C17" t="s">
         <v>0</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="F17">
         <v>1000</v>
@@ -6595,24 +6744,24 @@
         <v>128</v>
       </c>
       <c r="H17" s="15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="21" x14ac:dyDescent="0.65">
       <c r="A18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C18" t="s">
         <v>0</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="F18">
         <v>1000</v>
@@ -6621,24 +6770,24 @@
         <v>128</v>
       </c>
       <c r="H18" s="15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="21" x14ac:dyDescent="0.65">
       <c r="A19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C19" t="s">
         <v>0</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="F19">
         <v>1000</v>
@@ -6647,24 +6796,24 @@
         <v>128</v>
       </c>
       <c r="H19" s="15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="21" x14ac:dyDescent="0.65">
       <c r="A20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C20" t="s">
         <v>0</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E20" s="21" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="F20">
         <v>1000</v>
@@ -6673,24 +6822,24 @@
         <v>128</v>
       </c>
       <c r="H20" s="15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="21" x14ac:dyDescent="0.65">
       <c r="A21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C21" t="s">
         <v>0</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E21" s="21" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="F21">
         <v>1000</v>
@@ -6699,24 +6848,24 @@
         <v>128</v>
       </c>
       <c r="H21" s="15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="21" x14ac:dyDescent="0.65">
       <c r="A22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C22" t="s">
         <v>0</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E22" s="21" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="F22">
         <v>1000</v>
@@ -6725,24 +6874,24 @@
         <v>128</v>
       </c>
       <c r="H22" s="15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="21" x14ac:dyDescent="0.65">
       <c r="A23" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B23" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C23" t="s">
         <v>0</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="F23">
         <v>1000</v>
@@ -6751,24 +6900,24 @@
         <v>128</v>
       </c>
       <c r="H23" s="15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="21" x14ac:dyDescent="0.65">
       <c r="A24" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C24" t="s">
         <v>0</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E24" s="21" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="F24">
         <v>1000</v>
@@ -6777,24 +6926,24 @@
         <v>128</v>
       </c>
       <c r="H24" s="15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="21" x14ac:dyDescent="0.65">
       <c r="A25" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B25" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C25" t="s">
         <v>0</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E25" s="21" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="F25">
         <v>1000</v>
@@ -6803,24 +6952,24 @@
         <v>128</v>
       </c>
       <c r="H25" s="15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="21" x14ac:dyDescent="0.65">
       <c r="A26" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B26" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C26" t="s">
         <v>0</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E26" s="21" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="F26">
         <v>1000</v>
@@ -6829,24 +6978,24 @@
         <v>128</v>
       </c>
       <c r="H26" s="15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="21" x14ac:dyDescent="0.65">
       <c r="A27" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B27" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C27" t="s">
         <v>0</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E27" s="21" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="F27">
         <v>1000</v>
@@ -6855,24 +7004,24 @@
         <v>128</v>
       </c>
       <c r="H27" s="15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="21" x14ac:dyDescent="0.65">
       <c r="A28" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C28" t="s">
         <v>0</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="F28">
         <v>1000</v>
@@ -6881,24 +7030,24 @@
         <v>128</v>
       </c>
       <c r="H28" s="15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="22.05" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A29" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B29" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C29" t="s">
         <v>0</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E29" s="21" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="F29">
         <v>1000</v>
@@ -6907,24 +7056,24 @@
         <v>128</v>
       </c>
       <c r="H29" s="15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="21" x14ac:dyDescent="0.65">
       <c r="A30" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B30" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C30" t="s">
         <v>0</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E30" s="21" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="F30">
         <v>1000</v>
@@ -6933,24 +7082,24 @@
         <v>128</v>
       </c>
       <c r="H30" s="15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="21" x14ac:dyDescent="0.65">
       <c r="A31" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B31" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C31" t="s">
         <v>0</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E31" s="21" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="F31">
         <v>1000</v>
@@ -6959,24 +7108,24 @@
         <v>128</v>
       </c>
       <c r="H31" s="15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="21" x14ac:dyDescent="0.65">
       <c r="A32" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B32" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C32" t="s">
         <v>0</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E32" s="21" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="F32">
         <v>1000</v>
@@ -6985,24 +7134,24 @@
         <v>128</v>
       </c>
       <c r="H32" s="15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="21" x14ac:dyDescent="0.65">
       <c r="A33" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B33" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C33" t="s">
         <v>0</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E33" s="21" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="F33">
         <v>1000</v>
@@ -7011,24 +7160,24 @@
         <v>128</v>
       </c>
       <c r="H33" s="15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="21" x14ac:dyDescent="0.65">
       <c r="A34" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C34" t="s">
         <v>0</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E34" s="21" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="F34">
         <v>1000</v>
@@ -7037,24 +7186,24 @@
         <v>128</v>
       </c>
       <c r="H34" s="15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="21" x14ac:dyDescent="0.65">
       <c r="A35" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B35" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C35" t="s">
         <v>0</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E35" s="21" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="F35">
         <v>1000</v>
@@ -7063,24 +7212,24 @@
         <v>128</v>
       </c>
       <c r="H35" s="15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="21" x14ac:dyDescent="0.65">
       <c r="A36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B36" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C36" t="s">
         <v>0</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E36" s="22" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="F36">
         <v>1000</v>
@@ -7089,24 +7238,24 @@
         <v>128</v>
       </c>
       <c r="H36" s="15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="21" x14ac:dyDescent="0.65">
       <c r="A37" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B37" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C37" t="s">
         <v>0</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E37" s="22" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="F37">
         <v>1000</v>
@@ -7115,24 +7264,24 @@
         <v>128</v>
       </c>
       <c r="H37" s="15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="21" x14ac:dyDescent="0.65">
       <c r="A38" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B38" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C38" t="s">
         <v>0</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E38" s="22" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="F38">
         <v>1000</v>
@@ -7141,24 +7290,24 @@
         <v>128</v>
       </c>
       <c r="H38" s="15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="21" x14ac:dyDescent="0.65">
       <c r="A39" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B39" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C39" t="s">
         <v>0</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E39" s="22" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="F39">
         <v>1000</v>
@@ -7167,24 +7316,24 @@
         <v>128</v>
       </c>
       <c r="H39" s="15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="21" x14ac:dyDescent="0.65">
       <c r="A40" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B40" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C40" t="s">
         <v>0</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E40" s="22" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="F40">
         <v>1000</v>
@@ -7193,24 +7342,24 @@
         <v>128</v>
       </c>
       <c r="H40" s="15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="21" x14ac:dyDescent="0.65">
       <c r="A41" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B41" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C41" t="s">
         <v>0</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E41" s="22" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="F41">
         <v>1000</v>
@@ -7219,24 +7368,24 @@
         <v>128</v>
       </c>
       <c r="H41" s="15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="21" x14ac:dyDescent="0.65">
       <c r="A42" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B42" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C42" t="s">
         <v>0</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E42" s="21" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="F42">
         <v>1000</v>
@@ -7245,24 +7394,24 @@
         <v>128</v>
       </c>
       <c r="H42" s="15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="21" x14ac:dyDescent="0.65">
       <c r="A43" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B43" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C43" t="s">
         <v>0</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E43" s="21" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="F43">
         <v>1000</v>
@@ -7271,24 +7420,24 @@
         <v>128</v>
       </c>
       <c r="H43" s="15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="21" x14ac:dyDescent="0.65">
       <c r="A44" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B44" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C44" t="s">
         <v>0</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E44" s="21" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="F44">
         <v>1000</v>
@@ -7297,24 +7446,24 @@
         <v>128</v>
       </c>
       <c r="H44" s="15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="21" x14ac:dyDescent="0.65">
       <c r="A45" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B45" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C45" t="s">
         <v>0</v>
       </c>
       <c r="D45" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E45" s="21" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="F45">
         <v>1000</v>
@@ -7323,24 +7472,24 @@
         <v>128</v>
       </c>
       <c r="H45" s="15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="21" x14ac:dyDescent="0.65">
       <c r="A46" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B46" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C46" t="s">
         <v>0</v>
       </c>
       <c r="D46" s="13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E46" s="21" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="F46">
         <v>1000</v>
@@ -7349,24 +7498,24 @@
         <v>128</v>
       </c>
       <c r="H46" s="15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="21" x14ac:dyDescent="0.65">
       <c r="A47" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B47" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C47" t="s">
         <v>0</v>
       </c>
       <c r="D47" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E47" s="21" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="F47">
         <v>1000</v>
@@ -7375,24 +7524,24 @@
         <v>128</v>
       </c>
       <c r="H47" s="15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="21" x14ac:dyDescent="0.65">
       <c r="A48" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C48" t="s">
         <v>0</v>
       </c>
       <c r="D48" s="13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E48" s="21" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="F48">
         <v>1000</v>
@@ -7401,24 +7550,24 @@
         <v>128</v>
       </c>
       <c r="H48" s="15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="21" x14ac:dyDescent="0.65">
       <c r="A49" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B49" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C49" t="s">
         <v>0</v>
       </c>
       <c r="D49" s="13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E49" s="21" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="F49">
         <v>1000</v>
@@ -7427,24 +7576,24 @@
         <v>128</v>
       </c>
       <c r="H49" s="15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="21" x14ac:dyDescent="0.65">
       <c r="A50" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B50" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C50" t="s">
         <v>0</v>
       </c>
       <c r="D50" s="13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E50" s="21" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="F50">
         <v>1000</v>
@@ -7453,24 +7602,24 @@
         <v>128</v>
       </c>
       <c r="H50" s="15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="21" x14ac:dyDescent="0.65">
       <c r="A51" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B51" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C51" t="s">
         <v>0</v>
       </c>
       <c r="D51" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E51" s="21" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="F51">
         <v>1000</v>
@@ -7479,24 +7628,24 @@
         <v>128</v>
       </c>
       <c r="H51" s="15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="21" x14ac:dyDescent="0.65">
       <c r="A52" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B52" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C52" t="s">
         <v>0</v>
       </c>
       <c r="D52" s="13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E52" s="21" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="F52">
         <v>1000</v>
@@ -7505,24 +7654,24 @@
         <v>128</v>
       </c>
       <c r="H52" s="15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="21" x14ac:dyDescent="0.65">
       <c r="A53" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B53" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C53" t="s">
         <v>0</v>
       </c>
       <c r="D53" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E53" s="21" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="F53">
         <v>1000</v>
@@ -7531,7 +7680,7 @@
         <v>128</v>
       </c>
       <c r="H53" s="15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -7563,27 +7712,27 @@
   <sheetData>
     <row r="1" spans="1:5" ht="30.75" x14ac:dyDescent="0.9">
       <c r="A1" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C1" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>88</v>
-      </c>
       <c r="E1" s="19" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="21" x14ac:dyDescent="0.65">
       <c r="A2" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C2">
         <v>63</v>
@@ -7594,10 +7743,10 @@
     </row>
     <row r="3" spans="1:5" ht="21" x14ac:dyDescent="0.65">
       <c r="A3" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C3">
         <v>63</v>
@@ -7608,10 +7757,10 @@
     </row>
     <row r="4" spans="1:5" ht="21" x14ac:dyDescent="0.65">
       <c r="A4" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C4">
         <v>63</v>
@@ -7622,10 +7771,10 @@
     </row>
     <row r="5" spans="1:5" ht="21" x14ac:dyDescent="0.65">
       <c r="A5" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C5">
         <v>63</v>
@@ -7636,10 +7785,10 @@
     </row>
     <row r="6" spans="1:5" ht="21" x14ac:dyDescent="0.65">
       <c r="A6" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C6">
         <v>63</v>
@@ -7650,10 +7799,10 @@
     </row>
     <row r="7" spans="1:5" ht="21" x14ac:dyDescent="0.65">
       <c r="A7" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C7">
         <v>63</v>
@@ -7664,10 +7813,10 @@
     </row>
     <row r="8" spans="1:5" ht="21" x14ac:dyDescent="0.65">
       <c r="A8" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C8">
         <v>63</v>
@@ -7678,10 +7827,10 @@
     </row>
     <row r="9" spans="1:5" ht="21" x14ac:dyDescent="0.65">
       <c r="A9" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C9">
         <v>63</v>
@@ -7692,10 +7841,10 @@
     </row>
     <row r="10" spans="1:5" ht="21" x14ac:dyDescent="0.65">
       <c r="A10" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C10">
         <v>63</v>
@@ -7706,10 +7855,10 @@
     </row>
     <row r="11" spans="1:5" ht="21" x14ac:dyDescent="0.65">
       <c r="A11" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C11">
         <v>63</v>
@@ -7720,10 +7869,10 @@
     </row>
     <row r="12" spans="1:5" ht="21" x14ac:dyDescent="0.65">
       <c r="A12" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C12">
         <v>63</v>
@@ -7734,10 +7883,10 @@
     </row>
     <row r="13" spans="1:5" ht="21" x14ac:dyDescent="0.65">
       <c r="A13" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C13">
         <v>63</v>
@@ -7748,10 +7897,10 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C14">
         <v>63</v>
@@ -7762,10 +7911,10 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C15">
         <v>63</v>
@@ -7776,10 +7925,10 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C16">
         <v>63</v>
@@ -7790,10 +7939,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C17">
         <v>63</v>
@@ -7804,10 +7953,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C18">
         <v>63</v>
@@ -7818,10 +7967,10 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C19">
         <v>63</v>
@@ -7832,10 +7981,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C20">
         <v>63</v>
@@ -7846,10 +7995,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C21">
         <v>63</v>
@@ -7860,10 +8009,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C22">
         <v>63</v>
@@ -7874,10 +8023,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A23" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C23">
         <v>63</v>
@@ -7888,10 +8037,10 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A24" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C24">
         <v>63</v>
@@ -7902,10 +8051,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A25" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C25">
         <v>63</v>
@@ -7916,10 +8065,10 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A26" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B26" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C26">
         <v>63</v>
@@ -7930,10 +8079,10 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A27" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C27">
         <v>63</v>
@@ -7944,10 +8093,10 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A28" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B28" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C28">
         <v>63</v>
@@ -7958,10 +8107,10 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A29" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B29" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C29">
         <v>63</v>
@@ -7972,10 +8121,10 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A30" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B30" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C30">
         <v>63</v>
@@ -7986,10 +8135,10 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A31" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B31" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C31">
         <v>63</v>
@@ -8000,10 +8149,10 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A32" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B32" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C32">
         <v>63</v>
@@ -8014,10 +8163,10 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A33" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B33" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C33">
         <v>63</v>
@@ -8028,10 +8177,10 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A34" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B34" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C34">
         <v>63</v>
@@ -8042,10 +8191,10 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A35" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B35" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C35">
         <v>63</v>
@@ -8056,10 +8205,10 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B36" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C36">
         <v>63</v>
@@ -8070,10 +8219,10 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A37" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B37" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C37">
         <v>63</v>
@@ -8084,10 +8233,10 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A38" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B38" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C38">
         <v>63</v>
@@ -8098,10 +8247,10 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A39" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B39" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C39">
         <v>63</v>
@@ -8112,10 +8261,10 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A40" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C40">
         <v>63</v>
@@ -8126,10 +8275,10 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A41" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C41">
         <v>63</v>
@@ -8140,10 +8289,10 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A42" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B42" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C42">
         <v>63</v>
@@ -8154,10 +8303,10 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A43" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B43" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C43">
         <v>63</v>
@@ -8168,10 +8317,10 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A44" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B44" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C44">
         <v>63</v>
@@ -8182,10 +8331,10 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A45" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B45" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C45">
         <v>63</v>
@@ -8196,10 +8345,10 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A46" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B46" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C46">
         <v>63</v>
@@ -8210,10 +8359,10 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A47" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B47" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C47">
         <v>63</v>
@@ -8224,10 +8373,10 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A48" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B48" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C48">
         <v>63</v>
@@ -8238,10 +8387,10 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A49" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B49" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C49">
         <v>63</v>
@@ -8252,10 +8401,10 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A50" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B50" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C50">
         <v>63</v>
@@ -8266,10 +8415,10 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A51" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B51" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C51">
         <v>63</v>
@@ -8280,10 +8429,10 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A52" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B52" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C52">
         <v>63</v>
@@ -8294,10 +8443,10 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A53" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B53" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C53">
         <v>63</v>
@@ -8350,7 +8499,7 @@
     </row>
     <row r="2" spans="1:5" ht="23.25" x14ac:dyDescent="0.7">
       <c r="A2" s="17" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B2" s="13">
         <v>11</v>
@@ -8359,15 +8508,15 @@
         <v>17</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="23.25" x14ac:dyDescent="0.7">
       <c r="A3" s="17" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B3" s="13">
         <v>11</v>
@@ -8376,15 +8525,15 @@
         <v>18</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="23.25" x14ac:dyDescent="0.7">
       <c r="A4" s="17" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B4" s="13">
         <v>11</v>
@@ -8393,15 +8542,15 @@
         <v>19</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>191</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="23.25" x14ac:dyDescent="0.7">
       <c r="A5" s="17" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B5" s="13">
         <v>11</v>
@@ -8410,15 +8559,15 @@
         <v>20</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>193</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="23.25" x14ac:dyDescent="0.7">
       <c r="A6" s="17" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B6" s="13">
         <v>11</v>
@@ -8427,15 +8576,15 @@
         <v>21</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>195</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="23.25" x14ac:dyDescent="0.7">
       <c r="A7" s="17" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B7" s="13">
         <v>11</v>
@@ -8444,15 +8593,15 @@
         <v>22</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>197</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="23.25" x14ac:dyDescent="0.7">
       <c r="A8" s="17" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B8" s="13">
         <v>11</v>
@@ -8461,15 +8610,15 @@
         <v>23</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>199</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="23.25" x14ac:dyDescent="0.7">
       <c r="A9" s="17" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B9" s="13">
         <v>11</v>
@@ -8478,10 +8627,10 @@
         <v>24</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>201</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="23.25" x14ac:dyDescent="0.7">
@@ -8516,10 +8665,10 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1875" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -8527,11 +8676,11 @@
     <col min="1" max="1" width="34" customWidth="1"/>
     <col min="2" max="2" width="46.1875" customWidth="1"/>
     <col min="3" max="3" width="35.5" customWidth="1"/>
-    <col min="4" max="4" width="40.6875" customWidth="1"/>
-    <col min="5" max="5" width="27.8125" customWidth="1"/>
+    <col min="4" max="9" width="40.6875" customWidth="1"/>
+    <col min="10" max="10" width="27.8125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="30.75" x14ac:dyDescent="0.9">
+    <row r="1" spans="1:10" ht="30.75" x14ac:dyDescent="0.9">
       <c r="A1" s="4" t="s">
         <v>31</v>
       </c>
@@ -8539,19 +8688,34 @@
         <v>32</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1" s="3"/>
-    </row>
-    <row r="2" spans="1:5" ht="21" x14ac:dyDescent="0.65">
+        <v>608</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>562</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>561</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>563</v>
+      </c>
+      <c r="J1" s="3"/>
+    </row>
+    <row r="2" spans="1:10" ht="21" x14ac:dyDescent="0.65">
       <c r="A2" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -8559,13 +8723,28 @@
       <c r="D2">
         <v>2000</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="21" x14ac:dyDescent="0.65">
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>564</v>
+      </c>
+      <c r="G2">
+        <v>1600</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="21" x14ac:dyDescent="0.65">
       <c r="A3" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -8573,13 +8752,28 @@
       <c r="D3">
         <v>2000</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="21" x14ac:dyDescent="0.65">
+      <c r="E3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>598</v>
+      </c>
+      <c r="G3" t="s">
+        <v>600</v>
+      </c>
+      <c r="H3" t="s">
+        <v>601</v>
+      </c>
+      <c r="I3" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="21" x14ac:dyDescent="0.65">
       <c r="A4" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -8587,13 +8781,28 @@
       <c r="D4">
         <v>2000</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="21" x14ac:dyDescent="0.65">
+      <c r="E4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>599</v>
+      </c>
+      <c r="G4" t="s">
+        <v>603</v>
+      </c>
+      <c r="H4" t="s">
+        <v>604</v>
+      </c>
+      <c r="I4" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="21" x14ac:dyDescent="0.65">
       <c r="A5" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -8601,13 +8810,28 @@
       <c r="D5">
         <v>2000</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="21" x14ac:dyDescent="0.65">
+      <c r="E5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>602</v>
+      </c>
+      <c r="G5">
+        <v>1600</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="21" x14ac:dyDescent="0.65">
       <c r="A6" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -8615,13 +8839,28 @@
       <c r="D6">
         <v>2000</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="21" x14ac:dyDescent="0.65">
+      <c r="E6" t="b">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>565</v>
+      </c>
+      <c r="G6">
+        <v>1600</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="21" x14ac:dyDescent="0.65">
       <c r="A7" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -8629,97 +8868,202 @@
       <c r="D7">
         <v>2000</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="21" x14ac:dyDescent="0.65">
+      <c r="E7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>566</v>
+      </c>
+      <c r="G7">
+        <v>1600</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="I7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="21" x14ac:dyDescent="0.65">
       <c r="A8" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C8">
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="21" x14ac:dyDescent="0.65">
+        <v>296</v>
+      </c>
+      <c r="E8" t="b">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>567</v>
+      </c>
+      <c r="G8">
+        <v>1600</v>
+      </c>
+      <c r="H8">
+        <v>2</v>
+      </c>
+      <c r="I8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="21" x14ac:dyDescent="0.65">
       <c r="A9" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C9">
         <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="21" x14ac:dyDescent="0.65">
+        <v>296</v>
+      </c>
+      <c r="E9" t="b">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>568</v>
+      </c>
+      <c r="G9">
+        <v>1600</v>
+      </c>
+      <c r="H9">
+        <v>2</v>
+      </c>
+      <c r="I9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="21" x14ac:dyDescent="0.65">
       <c r="A10" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C10">
         <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="21" x14ac:dyDescent="0.65">
+        <v>296</v>
+      </c>
+      <c r="E10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s">
+        <v>569</v>
+      </c>
+      <c r="G10">
+        <v>1600</v>
+      </c>
+      <c r="H10">
+        <v>2</v>
+      </c>
+      <c r="I10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="21" x14ac:dyDescent="0.65">
       <c r="A11" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C11">
         <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="21" x14ac:dyDescent="0.65">
+        <v>297</v>
+      </c>
+      <c r="E11" t="b">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s">
+        <v>570</v>
+      </c>
+      <c r="G11">
+        <v>1600</v>
+      </c>
+      <c r="H11">
+        <v>2</v>
+      </c>
+      <c r="I11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="21" x14ac:dyDescent="0.65">
       <c r="A12" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C12">
         <v>7</v>
       </c>
       <c r="D12" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="21" x14ac:dyDescent="0.65">
+        <v>298</v>
+      </c>
+      <c r="E12" t="b">
+        <v>1</v>
+      </c>
+      <c r="F12" t="s">
+        <v>571</v>
+      </c>
+      <c r="G12">
+        <v>1600</v>
+      </c>
+      <c r="H12">
+        <v>2</v>
+      </c>
+      <c r="I12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="21" x14ac:dyDescent="0.65">
       <c r="A13" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C13">
         <v>7</v>
       </c>
       <c r="D13" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="21" x14ac:dyDescent="0.65">
+        <v>296</v>
+      </c>
+      <c r="E13" t="b">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s">
+        <v>572</v>
+      </c>
+      <c r="G13">
+        <v>1600</v>
+      </c>
+      <c r="H13">
+        <v>2</v>
+      </c>
+      <c r="I13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="21" x14ac:dyDescent="0.65">
       <c r="A14" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -8727,13 +9071,28 @@
       <c r="D14">
         <v>2022</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="21" x14ac:dyDescent="0.65">
+      <c r="E14" t="b">
+        <v>1</v>
+      </c>
+      <c r="F14" t="s">
+        <v>573</v>
+      </c>
+      <c r="G14">
+        <v>1600</v>
+      </c>
+      <c r="H14">
+        <v>2</v>
+      </c>
+      <c r="I14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="21" x14ac:dyDescent="0.65">
       <c r="A15" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -8741,97 +9100,202 @@
       <c r="D15">
         <v>2022</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" ht="21" x14ac:dyDescent="0.65">
+      <c r="E15" t="b">
+        <v>1</v>
+      </c>
+      <c r="F15" t="s">
+        <v>574</v>
+      </c>
+      <c r="G15">
+        <v>1600</v>
+      </c>
+      <c r="H15">
+        <v>2</v>
+      </c>
+      <c r="I15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="21" x14ac:dyDescent="0.65">
       <c r="A16" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C16">
         <v>2</v>
       </c>
       <c r="D16" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="21" x14ac:dyDescent="0.65">
+        <v>299</v>
+      </c>
+      <c r="E16" t="b">
+        <v>1</v>
+      </c>
+      <c r="F16" t="s">
+        <v>575</v>
+      </c>
+      <c r="G16">
+        <v>1600</v>
+      </c>
+      <c r="H16">
+        <v>2</v>
+      </c>
+      <c r="I16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="21" x14ac:dyDescent="0.65">
       <c r="A17" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C17">
         <v>2</v>
       </c>
       <c r="D17" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="21" x14ac:dyDescent="0.65">
+        <v>299</v>
+      </c>
+      <c r="E17" t="b">
+        <v>1</v>
+      </c>
+      <c r="F17" t="s">
+        <v>576</v>
+      </c>
+      <c r="G17">
+        <v>1600</v>
+      </c>
+      <c r="H17">
+        <v>2</v>
+      </c>
+      <c r="I17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="21" x14ac:dyDescent="0.65">
       <c r="A18" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C18">
         <v>2</v>
       </c>
       <c r="D18" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="21" x14ac:dyDescent="0.65">
+        <v>299</v>
+      </c>
+      <c r="E18" t="b">
+        <v>1</v>
+      </c>
+      <c r="F18" t="s">
+        <v>577</v>
+      </c>
+      <c r="G18">
+        <v>1600</v>
+      </c>
+      <c r="H18">
+        <v>2</v>
+      </c>
+      <c r="I18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="21" x14ac:dyDescent="0.65">
       <c r="A19" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C19">
         <v>2</v>
       </c>
       <c r="D19" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="21" x14ac:dyDescent="0.65">
+        <v>299</v>
+      </c>
+      <c r="E19" t="b">
+        <v>1</v>
+      </c>
+      <c r="F19" t="s">
+        <v>578</v>
+      </c>
+      <c r="G19">
+        <v>1600</v>
+      </c>
+      <c r="H19">
+        <v>2</v>
+      </c>
+      <c r="I19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="21" x14ac:dyDescent="0.65">
       <c r="A20" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C20">
         <v>2</v>
       </c>
       <c r="D20" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="21" x14ac:dyDescent="0.65">
+        <v>299</v>
+      </c>
+      <c r="E20" t="b">
+        <v>1</v>
+      </c>
+      <c r="F20" t="s">
+        <v>579</v>
+      </c>
+      <c r="G20">
+        <v>1600</v>
+      </c>
+      <c r="H20">
+        <v>2</v>
+      </c>
+      <c r="I20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="21" x14ac:dyDescent="0.65">
       <c r="A21" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C21">
         <v>2</v>
       </c>
       <c r="D21" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="21" x14ac:dyDescent="0.65">
+        <v>299</v>
+      </c>
+      <c r="E21" t="b">
+        <v>1</v>
+      </c>
+      <c r="F21" t="s">
+        <v>580</v>
+      </c>
+      <c r="G21">
+        <v>1600</v>
+      </c>
+      <c r="H21">
+        <v>2</v>
+      </c>
+      <c r="I21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="21" x14ac:dyDescent="0.65">
       <c r="A22" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -8839,13 +9303,28 @@
       <c r="D22">
         <v>2040</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" ht="21" x14ac:dyDescent="0.65">
+      <c r="E22" t="b">
+        <v>1</v>
+      </c>
+      <c r="F22" t="s">
+        <v>581</v>
+      </c>
+      <c r="G22">
+        <v>1600</v>
+      </c>
+      <c r="H22">
+        <v>2</v>
+      </c>
+      <c r="I22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="21" x14ac:dyDescent="0.65">
       <c r="A23" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -8853,13 +9332,28 @@
       <c r="D23">
         <v>2040</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" ht="21" x14ac:dyDescent="0.65">
+      <c r="E23" t="b">
+        <v>1</v>
+      </c>
+      <c r="F23" t="s">
+        <v>582</v>
+      </c>
+      <c r="G23">
+        <v>1600</v>
+      </c>
+      <c r="H23">
+        <v>2</v>
+      </c>
+      <c r="I23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="21" x14ac:dyDescent="0.65">
       <c r="A24" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -8867,13 +9361,28 @@
       <c r="D24">
         <v>2040</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" ht="21" x14ac:dyDescent="0.65">
+      <c r="E24" t="b">
+        <v>1</v>
+      </c>
+      <c r="F24" t="s">
+        <v>583</v>
+      </c>
+      <c r="G24">
+        <v>1600</v>
+      </c>
+      <c r="H24">
+        <v>2</v>
+      </c>
+      <c r="I24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="21" x14ac:dyDescent="0.65">
       <c r="A25" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -8881,13 +9390,28 @@
       <c r="D25">
         <v>2040</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" ht="21" x14ac:dyDescent="0.65">
+      <c r="E25" t="b">
+        <v>1</v>
+      </c>
+      <c r="F25" t="s">
+        <v>584</v>
+      </c>
+      <c r="G25">
+        <v>1600</v>
+      </c>
+      <c r="H25">
+        <v>2</v>
+      </c>
+      <c r="I25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="21" x14ac:dyDescent="0.65">
       <c r="A26" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -8895,13 +9419,28 @@
       <c r="D26">
         <v>2040</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" ht="21" x14ac:dyDescent="0.65">
+      <c r="E26" t="b">
+        <v>1</v>
+      </c>
+      <c r="F26" t="s">
+        <v>585</v>
+      </c>
+      <c r="G26">
+        <v>1600</v>
+      </c>
+      <c r="H26">
+        <v>2</v>
+      </c>
+      <c r="I26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="21" x14ac:dyDescent="0.65">
       <c r="A27" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -8909,13 +9448,28 @@
       <c r="D27">
         <v>2040</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" ht="21" x14ac:dyDescent="0.65">
+      <c r="E27" t="b">
+        <v>1</v>
+      </c>
+      <c r="F27" t="s">
+        <v>586</v>
+      </c>
+      <c r="G27">
+        <v>1600</v>
+      </c>
+      <c r="H27">
+        <v>2</v>
+      </c>
+      <c r="I27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="21" x14ac:dyDescent="0.65">
       <c r="A28" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -8923,13 +9477,28 @@
       <c r="D28">
         <v>2041</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" ht="21" x14ac:dyDescent="0.65">
+      <c r="E28" t="b">
+        <v>1</v>
+      </c>
+      <c r="F28" t="s">
+        <v>587</v>
+      </c>
+      <c r="G28">
+        <v>1600</v>
+      </c>
+      <c r="H28">
+        <v>2</v>
+      </c>
+      <c r="I28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="21" x14ac:dyDescent="0.65">
       <c r="A29" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -8937,13 +9506,28 @@
       <c r="D29">
         <v>2041</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="E29" t="b">
+        <v>1</v>
+      </c>
+      <c r="F29" t="s">
+        <v>588</v>
+      </c>
+      <c r="G29">
+        <v>1600</v>
+      </c>
+      <c r="H29">
+        <v>2</v>
+      </c>
+      <c r="I29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A30" s="20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B30" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -8951,13 +9535,28 @@
       <c r="D30" s="14">
         <v>2001</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="E30" t="b">
+        <v>1</v>
+      </c>
+      <c r="F30" t="s">
+        <v>589</v>
+      </c>
+      <c r="G30">
+        <v>1600</v>
+      </c>
+      <c r="H30">
+        <v>2</v>
+      </c>
+      <c r="I30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A31" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B31" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -8965,13 +9564,28 @@
       <c r="D31" s="14">
         <v>2001</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="E31" t="b">
+        <v>1</v>
+      </c>
+      <c r="F31" t="s">
+        <v>590</v>
+      </c>
+      <c r="G31">
+        <v>1600</v>
+      </c>
+      <c r="H31">
+        <v>2</v>
+      </c>
+      <c r="I31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A32" s="20" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B32" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -8979,13 +9593,28 @@
       <c r="D32" s="14">
         <v>2001</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="E32" t="b">
+        <v>1</v>
+      </c>
+      <c r="F32" t="s">
+        <v>591</v>
+      </c>
+      <c r="G32">
+        <v>1600</v>
+      </c>
+      <c r="H32">
+        <v>2</v>
+      </c>
+      <c r="I32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A33" s="20" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B33" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -8993,13 +9622,28 @@
       <c r="D33" s="14">
         <v>2001</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="E33" t="b">
+        <v>1</v>
+      </c>
+      <c r="F33" t="s">
+        <v>592</v>
+      </c>
+      <c r="G33">
+        <v>1600</v>
+      </c>
+      <c r="H33">
+        <v>2</v>
+      </c>
+      <c r="I33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A34" s="20" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B34" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -9007,13 +9651,28 @@
       <c r="D34" s="14">
         <v>2001</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="E34" t="b">
+        <v>1</v>
+      </c>
+      <c r="F34" t="s">
+        <v>593</v>
+      </c>
+      <c r="G34">
+        <v>1600</v>
+      </c>
+      <c r="H34">
+        <v>2</v>
+      </c>
+      <c r="I34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A35" s="20" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B35" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -9021,51 +9680,112 @@
       <c r="D35" s="14">
         <v>2001</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="E35" t="b">
+        <v>1</v>
+      </c>
+      <c r="F35" t="s">
+        <v>594</v>
+      </c>
+      <c r="G35">
+        <v>1600</v>
+      </c>
+      <c r="H35">
+        <v>2</v>
+      </c>
+      <c r="I35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A36" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B36" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C36">
         <v>2</v>
       </c>
       <c r="D36" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.5">
+        <v>300</v>
+      </c>
+      <c r="E36" t="b">
+        <v>1</v>
+      </c>
+      <c r="F36" t="s">
+        <v>595</v>
+      </c>
+      <c r="G36">
+        <v>1600</v>
+      </c>
+      <c r="H36">
+        <v>2</v>
+      </c>
+      <c r="I36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A37" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B37" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C37">
         <v>2</v>
       </c>
       <c r="D37" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.5">
+        <v>300</v>
+      </c>
+      <c r="E37" t="b">
+        <v>1</v>
+      </c>
+      <c r="F37" t="s">
+        <v>596</v>
+      </c>
+      <c r="G37">
+        <v>1600</v>
+      </c>
+      <c r="H37">
+        <v>2</v>
+      </c>
+      <c r="I37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A38" s="14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B38" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C38">
         <v>2</v>
       </c>
       <c r="D38" t="s">
-        <v>301</v>
+        <v>300</v>
+      </c>
+      <c r="E38" t="b">
+        <v>1</v>
+      </c>
+      <c r="F38" t="s">
+        <v>597</v>
+      </c>
+      <c r="G38">
+        <v>1600</v>
+      </c>
+      <c r="H38">
+        <v>2</v>
+      </c>
+      <c r="I38">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D38" xr:uid="{3F89EB8E-F105-A945-B350-F42139761036}"/>
+  <autoFilter ref="A1:I38" xr:uid="{3F89EB8E-F105-A945-B350-F42139761036}"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -9095,30 +9815,30 @@
         <v>32</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="21" x14ac:dyDescent="0.65">
       <c r="A2" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C2">
         <v>27</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E2" t="s">
         <v>1</v>
@@ -9126,16 +9846,16 @@
     </row>
     <row r="3" spans="1:5" ht="21" x14ac:dyDescent="0.65">
       <c r="A3" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C3">
         <v>27</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E3" t="s">
         <v>1</v>
@@ -9143,16 +9863,16 @@
     </row>
     <row r="4" spans="1:5" ht="21" x14ac:dyDescent="0.65">
       <c r="A4" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C4">
         <v>27</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E4" t="s">
         <v>1</v>
@@ -9160,16 +9880,16 @@
     </row>
     <row r="5" spans="1:5" ht="21" x14ac:dyDescent="0.65">
       <c r="A5" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C5">
         <v>27</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E5" t="s">
         <v>1</v>
@@ -9177,16 +9897,16 @@
     </row>
     <row r="6" spans="1:5" ht="21" x14ac:dyDescent="0.65">
       <c r="A6" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C6">
         <v>27</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E6" t="s">
         <v>1</v>
@@ -9194,16 +9914,16 @@
     </row>
     <row r="7" spans="1:5" ht="21" x14ac:dyDescent="0.65">
       <c r="A7" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C7">
         <v>27</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E7" t="s">
         <v>1</v>
@@ -9211,16 +9931,16 @@
     </row>
     <row r="8" spans="1:5" ht="21" x14ac:dyDescent="0.65">
       <c r="A8" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C8">
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E8" t="s">
         <v>0</v>
@@ -9228,16 +9948,16 @@
     </row>
     <row r="9" spans="1:5" ht="21" x14ac:dyDescent="0.65">
       <c r="A9" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B9" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C9">
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E9" t="s">
         <v>0</v>
@@ -9245,16 +9965,16 @@
     </row>
     <row r="10" spans="1:5" ht="21" x14ac:dyDescent="0.65">
       <c r="A10" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B10" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C10">
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E10" t="s">
         <v>0</v>
@@ -9262,16 +9982,16 @@
     </row>
     <row r="11" spans="1:5" ht="21" x14ac:dyDescent="0.65">
       <c r="A11" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B11" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C11">
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E11" t="s">
         <v>0</v>
@@ -9279,16 +9999,16 @@
     </row>
     <row r="12" spans="1:5" ht="21" x14ac:dyDescent="0.65">
       <c r="A12" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B12" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C12">
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E12" t="s">
         <v>0</v>
@@ -9296,16 +10016,16 @@
     </row>
     <row r="13" spans="1:5" ht="21" x14ac:dyDescent="0.65">
       <c r="A13" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B13" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C13">
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E13" t="s">
         <v>0</v>
@@ -9313,16 +10033,16 @@
     </row>
     <row r="14" spans="1:5" ht="21" x14ac:dyDescent="0.65">
       <c r="A14" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C14">
         <v>27</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E14" t="s">
         <v>0</v>
@@ -9330,16 +10050,16 @@
     </row>
     <row r="15" spans="1:5" ht="21" x14ac:dyDescent="0.65">
       <c r="A15" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C15">
         <v>27</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E15" t="s">
         <v>0</v>
@@ -9347,16 +10067,16 @@
     </row>
     <row r="16" spans="1:5" ht="21" x14ac:dyDescent="0.65">
       <c r="A16" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B16" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C16">
         <v>27</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E16" t="s">
         <v>0</v>
@@ -9364,16 +10084,16 @@
     </row>
     <row r="17" spans="1:5" ht="21" x14ac:dyDescent="0.65">
       <c r="A17" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B17" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C17">
         <v>27</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E17" t="s">
         <v>0</v>
@@ -9381,16 +10101,16 @@
     </row>
     <row r="18" spans="1:5" ht="21" x14ac:dyDescent="0.65">
       <c r="A18" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B18" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C18">
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E18" t="s">
         <v>0</v>
@@ -9398,16 +10118,16 @@
     </row>
     <row r="19" spans="1:5" ht="21" x14ac:dyDescent="0.65">
       <c r="A19" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B19" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C19">
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E19" t="s">
         <v>0</v>
@@ -9415,16 +10135,16 @@
     </row>
     <row r="20" spans="1:5" ht="21" x14ac:dyDescent="0.65">
       <c r="A20" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B20" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C20">
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E20" t="s">
         <v>0</v>
@@ -9432,16 +10152,16 @@
     </row>
     <row r="21" spans="1:5" ht="21" x14ac:dyDescent="0.65">
       <c r="A21" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B21" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C21">
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E21" t="s">
         <v>0</v>
@@ -9449,16 +10169,16 @@
     </row>
     <row r="22" spans="1:5" ht="21" x14ac:dyDescent="0.65">
       <c r="A22" s="13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C22">
         <v>27</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E22" t="s">
         <v>1</v>
@@ -9466,16 +10186,16 @@
     </row>
     <row r="23" spans="1:5" ht="21" x14ac:dyDescent="0.65">
       <c r="A23" s="13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C23">
         <v>27</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E23" t="s">
         <v>1</v>
@@ -9483,16 +10203,16 @@
     </row>
     <row r="24" spans="1:5" ht="21" x14ac:dyDescent="0.65">
       <c r="A24" s="13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C24">
         <v>27</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E24" t="s">
         <v>1</v>
@@ -9500,16 +10220,16 @@
     </row>
     <row r="25" spans="1:5" ht="21" x14ac:dyDescent="0.65">
       <c r="A25" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C25">
         <v>27</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E25" t="s">
         <v>1</v>
@@ -9517,16 +10237,16 @@
     </row>
     <row r="26" spans="1:5" ht="21" x14ac:dyDescent="0.65">
       <c r="A26" s="13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C26">
         <v>27</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E26" t="s">
         <v>1</v>
@@ -9534,16 +10254,16 @@
     </row>
     <row r="27" spans="1:5" ht="21" x14ac:dyDescent="0.65">
       <c r="A27" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C27">
         <v>27</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E27" t="s">
         <v>1</v>
@@ -9551,16 +10271,16 @@
     </row>
     <row r="28" spans="1:5" ht="21" x14ac:dyDescent="0.65">
       <c r="A28" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C28">
         <v>27</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E28" t="s">
         <v>1</v>
@@ -9568,16 +10288,16 @@
     </row>
     <row r="29" spans="1:5" ht="21" x14ac:dyDescent="0.65">
       <c r="A29" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C29">
         <v>27</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E29" t="s">
         <v>1</v>
@@ -9585,16 +10305,16 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A30" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="B30" s="14" t="s">
         <v>231</v>
-      </c>
-      <c r="B30" s="14" t="s">
-        <v>232</v>
       </c>
       <c r="C30">
         <v>27</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E30" t="s">
         <v>0</v>
@@ -9602,16 +10322,16 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A31" s="20" t="s">
+        <v>233</v>
+      </c>
+      <c r="B31" s="14" t="s">
         <v>234</v>
-      </c>
-      <c r="B31" s="14" t="s">
-        <v>235</v>
       </c>
       <c r="C31">
         <v>27</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E31" t="s">
         <v>0</v>
@@ -9619,16 +10339,16 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A32" s="20" t="s">
+        <v>235</v>
+      </c>
+      <c r="B32" s="14" t="s">
         <v>236</v>
-      </c>
-      <c r="B32" s="14" t="s">
-        <v>237</v>
       </c>
       <c r="C32">
         <v>27</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E32" t="s">
         <v>0</v>
@@ -9636,16 +10356,16 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A33" s="20" t="s">
+        <v>237</v>
+      </c>
+      <c r="B33" s="14" t="s">
         <v>238</v>
-      </c>
-      <c r="B33" s="14" t="s">
-        <v>239</v>
       </c>
       <c r="C33">
         <v>27</v>
       </c>
       <c r="D33" s="14" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E33" t="s">
         <v>0</v>
@@ -9653,16 +10373,16 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A34" s="20" t="s">
+        <v>239</v>
+      </c>
+      <c r="B34" s="14" t="s">
         <v>240</v>
-      </c>
-      <c r="B34" s="14" t="s">
-        <v>241</v>
       </c>
       <c r="C34">
         <v>27</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E34" t="s">
         <v>0</v>
@@ -9670,16 +10390,16 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A35" s="20" t="s">
+        <v>241</v>
+      </c>
+      <c r="B35" s="14" t="s">
         <v>242</v>
-      </c>
-      <c r="B35" s="14" t="s">
-        <v>243</v>
       </c>
       <c r="C35">
         <v>27</v>
       </c>
       <c r="D35" s="14" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E35" t="s">
         <v>0</v>
@@ -9687,16 +10407,16 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A36" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B36" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C36">
         <v>27</v>
       </c>
       <c r="D36" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E36" t="s">
         <v>0</v>
@@ -9704,16 +10424,16 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A37" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B37" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C37">
         <v>27</v>
       </c>
       <c r="D37" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E37" t="s">
         <v>0</v>
@@ -9721,16 +10441,16 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A38" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B38" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C38">
         <v>27</v>
       </c>
       <c r="D38" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E38" t="s">
         <v>0</v>
@@ -9767,30 +10487,30 @@
         <v>32</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="21" x14ac:dyDescent="0.65">
       <c r="A2" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C2">
         <v>64</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E2" t="s">
         <v>1</v>
@@ -9798,16 +10518,16 @@
     </row>
     <row r="3" spans="1:5" ht="21" x14ac:dyDescent="0.65">
       <c r="A3" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C3">
         <v>64</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E3" t="s">
         <v>1</v>
@@ -9815,16 +10535,16 @@
     </row>
     <row r="4" spans="1:5" ht="21" x14ac:dyDescent="0.65">
       <c r="A4" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C4">
         <v>64</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E4" t="s">
         <v>1</v>
@@ -9832,16 +10552,16 @@
     </row>
     <row r="5" spans="1:5" ht="21" x14ac:dyDescent="0.65">
       <c r="A5" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C5">
         <v>64</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E5" t="s">
         <v>1</v>
@@ -9849,16 +10569,16 @@
     </row>
     <row r="6" spans="1:5" ht="21" x14ac:dyDescent="0.65">
       <c r="A6" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C6">
         <v>64</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E6" t="s">
         <v>1</v>
@@ -9866,16 +10586,16 @@
     </row>
     <row r="7" spans="1:5" ht="21" x14ac:dyDescent="0.65">
       <c r="A7" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C7">
         <v>64</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E7" t="s">
         <v>1</v>
@@ -9883,16 +10603,16 @@
     </row>
     <row r="8" spans="1:5" ht="21" x14ac:dyDescent="0.65">
       <c r="A8" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B8" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C8">
         <v>64</v>
       </c>
       <c r="D8" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E8" t="s">
         <v>0</v>
@@ -9900,16 +10620,16 @@
     </row>
     <row r="9" spans="1:5" ht="21" x14ac:dyDescent="0.65">
       <c r="A9" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B9" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C9">
         <v>64</v>
       </c>
       <c r="D9" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E9" t="s">
         <v>0</v>
@@ -9917,16 +10637,16 @@
     </row>
     <row r="10" spans="1:5" ht="21" x14ac:dyDescent="0.65">
       <c r="A10" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B10" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C10">
         <v>64</v>
       </c>
       <c r="D10" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E10" t="s">
         <v>0</v>
@@ -9934,16 +10654,16 @@
     </row>
     <row r="11" spans="1:5" ht="21" x14ac:dyDescent="0.65">
       <c r="A11" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B11" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C11">
         <v>64</v>
       </c>
       <c r="D11" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E11" t="s">
         <v>0</v>
@@ -9951,16 +10671,16 @@
     </row>
     <row r="12" spans="1:5" ht="21" x14ac:dyDescent="0.65">
       <c r="A12" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B12" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C12">
         <v>64</v>
       </c>
       <c r="D12" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E12" t="s">
         <v>0</v>
@@ -9968,16 +10688,16 @@
     </row>
     <row r="13" spans="1:5" ht="21" x14ac:dyDescent="0.65">
       <c r="A13" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B13" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C13">
         <v>64</v>
       </c>
       <c r="D13" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E13" t="s">
         <v>0</v>
@@ -9985,16 +10705,16 @@
     </row>
     <row r="14" spans="1:5" ht="21" x14ac:dyDescent="0.65">
       <c r="A14" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C14">
         <v>64</v>
       </c>
       <c r="D14" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E14" t="s">
         <v>0</v>
@@ -10002,16 +10722,16 @@
     </row>
     <row r="15" spans="1:5" ht="21" x14ac:dyDescent="0.65">
       <c r="A15" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B15" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C15">
         <v>64</v>
       </c>
       <c r="D15" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E15" t="s">
         <v>0</v>
@@ -10019,16 +10739,16 @@
     </row>
     <row r="16" spans="1:5" ht="21" x14ac:dyDescent="0.65">
       <c r="A16" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B16" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C16">
         <v>64</v>
       </c>
       <c r="D16" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E16" t="s">
         <v>0</v>
@@ -10036,16 +10756,16 @@
     </row>
     <row r="17" spans="1:5" ht="21" x14ac:dyDescent="0.65">
       <c r="A17" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B17" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C17">
         <v>64</v>
       </c>
       <c r="D17" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E17" t="s">
         <v>0</v>
@@ -10053,16 +10773,16 @@
     </row>
     <row r="18" spans="1:5" ht="21" x14ac:dyDescent="0.65">
       <c r="A18" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B18" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C18">
         <v>64</v>
       </c>
       <c r="D18" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E18" t="s">
         <v>0</v>
@@ -10070,16 +10790,16 @@
     </row>
     <row r="19" spans="1:5" ht="21" x14ac:dyDescent="0.65">
       <c r="A19" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B19" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C19">
         <v>64</v>
       </c>
       <c r="D19" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E19" t="s">
         <v>0</v>
@@ -10087,16 +10807,16 @@
     </row>
     <row r="20" spans="1:5" ht="21" x14ac:dyDescent="0.65">
       <c r="A20" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B20" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C20">
         <v>64</v>
       </c>
       <c r="D20" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E20" t="s">
         <v>0</v>
@@ -10104,16 +10824,16 @@
     </row>
     <row r="21" spans="1:5" ht="21" x14ac:dyDescent="0.65">
       <c r="A21" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B21" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C21">
         <v>64</v>
       </c>
       <c r="D21" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E21" t="s">
         <v>0</v>
@@ -10121,16 +10841,16 @@
     </row>
     <row r="22" spans="1:5" ht="21" x14ac:dyDescent="0.65">
       <c r="A22" s="13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C22">
         <v>64</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E22" t="s">
         <v>1</v>
@@ -10138,16 +10858,16 @@
     </row>
     <row r="23" spans="1:5" ht="21" x14ac:dyDescent="0.65">
       <c r="A23" s="13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C23">
         <v>64</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E23" t="s">
         <v>1</v>
@@ -10155,16 +10875,16 @@
     </row>
     <row r="24" spans="1:5" ht="21" x14ac:dyDescent="0.65">
       <c r="A24" s="13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C24">
         <v>64</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E24" t="s">
         <v>1</v>
@@ -10172,16 +10892,16 @@
     </row>
     <row r="25" spans="1:5" ht="21" x14ac:dyDescent="0.65">
       <c r="A25" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C25">
         <v>64</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E25" t="s">
         <v>1</v>
@@ -10189,16 +10909,16 @@
     </row>
     <row r="26" spans="1:5" ht="21" x14ac:dyDescent="0.65">
       <c r="A26" s="13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C26">
         <v>64</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E26" t="s">
         <v>1</v>
@@ -10206,16 +10926,16 @@
     </row>
     <row r="27" spans="1:5" ht="21" x14ac:dyDescent="0.65">
       <c r="A27" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C27">
         <v>64</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E27" t="s">
         <v>1</v>
@@ -10223,16 +10943,16 @@
     </row>
     <row r="28" spans="1:5" ht="21" x14ac:dyDescent="0.65">
       <c r="A28" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C28">
         <v>64</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E28" t="s">
         <v>1</v>
@@ -10240,16 +10960,16 @@
     </row>
     <row r="29" spans="1:5" ht="21" x14ac:dyDescent="0.65">
       <c r="A29" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C29">
         <v>64</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E29" t="s">
         <v>1</v>
@@ -10268,8 +10988,8 @@
   </sheetPr>
   <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1875" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -10295,66 +11015,66 @@
         <v>32</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>606</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>607</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="H1" s="7" t="s">
         <v>384</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="I1" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="J1" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1" s="7" t="s">
+      <c r="K1" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="L1" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="M1" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="N1" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="O1" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="H1" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="M1" s="7" t="s">
+      <c r="P1" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="N1" s="7" t="s">
-        <v>392</v>
-      </c>
-      <c r="O1" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="P1" s="7" t="s">
-        <v>40</v>
-      </c>
       <c r="Q1" s="7" t="s">
-        <v>41</v>
+        <v>609</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="21" x14ac:dyDescent="0.65">
       <c r="A2" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C2" t="b">
         <v>1</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E2" s="18">
         <v>200</v>
@@ -10366,13 +11086,13 @@
         <v>0</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="I2" s="18" t="b">
         <v>0</v>
       </c>
       <c r="J2" s="18" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="K2" s="18">
         <v>90</v>
@@ -10390,24 +11110,24 @@
         <v>74</v>
       </c>
       <c r="P2" s="18" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q2" s="18" t="s">
         <v>267</v>
-      </c>
-      <c r="Q2" s="18" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="21" x14ac:dyDescent="0.65">
       <c r="A3" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C3" t="b">
         <v>0</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E3" s="18">
         <v>100</v>
@@ -10419,13 +11139,13 @@
         <v>50</v>
       </c>
       <c r="H3" s="18" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="I3" s="18" t="b">
         <v>1</v>
       </c>
       <c r="J3" s="18" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="K3" s="18">
         <v>80</v>
@@ -10443,10 +11163,10 @@
         <v>84</v>
       </c>
       <c r="P3" s="18" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q3" s="18" t="s">
         <v>337</v>
-      </c>
-      <c r="Q3" s="18" t="s">
-        <v>338</v>
       </c>
     </row>
   </sheetData>
@@ -10461,8 +11181,8 @@
   </sheetPr>
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1875" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -10485,51 +11205,51 @@
         <v>32</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>606</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="G1" s="7" t="s">
         <v>384</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>389</v>
-      </c>
       <c r="H1" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="J1" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="L1" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="L1" s="7" t="s">
-        <v>40</v>
-      </c>
       <c r="M1" s="7" t="s">
-        <v>41</v>
+        <v>609</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A2" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D2" s="18">
         <v>200</v>
@@ -10541,13 +11261,13 @@
         <v>0</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="H2" s="18" t="b">
         <v>0</v>
       </c>
       <c r="I2" s="18" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="J2" s="18">
         <v>90</v>
@@ -10556,21 +11276,21 @@
         <v>30</v>
       </c>
       <c r="L2" s="18" t="s">
+        <v>266</v>
+      </c>
+      <c r="M2" s="18" t="s">
         <v>267</v>
-      </c>
-      <c r="M2" s="18" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A3" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D3" s="18">
         <v>100</v>
@@ -10582,13 +11302,13 @@
         <v>50</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="H3" s="18" t="b">
         <v>1</v>
       </c>
       <c r="I3" s="18" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="J3" s="18">
         <v>80</v>
@@ -10597,10 +11317,10 @@
         <v>40</v>
       </c>
       <c r="L3" s="18" t="s">
+        <v>336</v>
+      </c>
+      <c r="M3" s="18" t="s">
         <v>337</v>
-      </c>
-      <c r="M3" s="18" t="s">
-        <v>338</v>
       </c>
     </row>
   </sheetData>
@@ -10637,48 +11357,48 @@
         <v>32</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D1" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="J1" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="21" x14ac:dyDescent="0.65">
       <c r="A2" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B2" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="C2">
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="E2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F2">
         <v>300</v>
@@ -10690,10 +11410,10 @@
         <v>50</v>
       </c>
       <c r="I2" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="J2" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
     </row>
   </sheetData>

--- a/Generate_IxNetwork_Config-original.xlsx
+++ b/Generate_IxNetwork_Config-original.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moharedd\Downloads\Cisco-cafy\latestcode\tgn_1812_latest\tgn_1812\Bulk-config\Mohan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF505539-47B9-45EB-9059-9EACC4AC6D78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E06F3592-3052-43EE-9A21-1D442F3017DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" firstSheet="7" activeTab="12" xr2:uid="{7E5D92D4-6857-044F-AF5A-65E71E62F3C3}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" firstSheet="11" activeTab="17" xr2:uid="{7E5D92D4-6857-044F-AF5A-65E71E62F3C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Build_Information" sheetId="1" r:id="rId1"/>
@@ -29,12 +29,15 @@
     <sheet name="Network_Group" sheetId="4" r:id="rId14"/>
     <sheet name="IGMP_Host" sheetId="13" r:id="rId15"/>
     <sheet name="IGMP_Querier" sheetId="14" r:id="rId16"/>
-    <sheet name="DHCP_Ipv4" sheetId="21" r:id="rId17"/>
-    <sheet name="DHCP_Ipv6" sheetId="20" r:id="rId18"/>
-    <sheet name="DHCP_Serverv4" sheetId="22" r:id="rId19"/>
-    <sheet name="DHCP_Serverv6" sheetId="23" r:id="rId20"/>
-    <sheet name="Traffic" sheetId="9" r:id="rId21"/>
-    <sheet name="packet_editor" sheetId="17" r:id="rId22"/>
+    <sheet name="MLD_Host" sheetId="25" r:id="rId17"/>
+    <sheet name="MLD_Querier" sheetId="26" r:id="rId18"/>
+    <sheet name="DHCP_Ipv4" sheetId="21" r:id="rId19"/>
+    <sheet name="DHCP_Ipv6" sheetId="20" r:id="rId20"/>
+    <sheet name="DHCP_Serverv4" sheetId="22" r:id="rId21"/>
+    <sheet name="DHCP_Serverv6" sheetId="23" r:id="rId22"/>
+    <sheet name="LDP" sheetId="24" r:id="rId23"/>
+    <sheet name="Traffic" sheetId="9" r:id="rId24"/>
+    <sheet name="packet_editor" sheetId="17" r:id="rId25"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Devicegroup!$A$1:$I$38</definedName>
@@ -340,7 +343,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1478" uniqueCount="613">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1573" uniqueCount="639">
   <si>
     <t>yes</t>
   </si>
@@ -2179,6 +2182,84 @@
   </si>
   <si>
     <t>Enable 3-Way Handshake</t>
+  </si>
+  <si>
+    <t>Basic Hello Interval</t>
+  </si>
+  <si>
+    <t>Basic Hold Time</t>
+  </si>
+  <si>
+    <t>increment;10;1</t>
+  </si>
+  <si>
+    <t>increment;20;1</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>Enable BFD Registration</t>
+  </si>
+  <si>
+    <t>Enable Graceful Restart</t>
+  </si>
+  <si>
+    <t>Recovery Time</t>
+  </si>
+  <si>
+    <t>Reconnect Time</t>
+  </si>
+  <si>
+    <t>Keep Alive Interval</t>
+  </si>
+  <si>
+    <t>Keep Alive Hold Time</t>
+  </si>
+  <si>
+    <t>increment;190;1</t>
+  </si>
+  <si>
+    <t>increment;70;1</t>
+  </si>
+  <si>
+    <t>LDP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LDP Configuration </t>
+  </si>
+  <si>
+    <t>Router ID</t>
+  </si>
+  <si>
+    <t>194.100.0.1</t>
+  </si>
+  <si>
+    <t>increment;194.100.0.1;0.0.0.2</t>
+  </si>
+  <si>
+    <t>MLD Senders group Configuration</t>
+  </si>
+  <si>
+    <t>MLD Receivers Group Configuration</t>
+  </si>
+  <si>
+    <t>MLD_Host</t>
+  </si>
+  <si>
+    <t>MLD_Querier</t>
+  </si>
+  <si>
+    <t>ff04::1</t>
+  </si>
+  <si>
+    <t>ff03::1</t>
+  </si>
+  <si>
+    <t>aaaa::</t>
+  </si>
+  <si>
+    <t>aaaa:0:2::</t>
   </si>
 </sst>
 </file>
@@ -2581,35 +2662,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="24"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="30" formatCode="@"/>
       <fill>
         <patternFill>
@@ -2714,6 +2766,35 @@
         <scheme val="minor"/>
       </font>
     </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="24"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -2733,12 +2814,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{745DACF6-0076-3A46-9842-FCF5B835F442}" name="Table55" displayName="Table55" ref="B1:D15" totalsRowShown="0" headerRowDxfId="0" dataDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{745DACF6-0076-3A46-9842-FCF5B835F442}" name="Table55" displayName="Table55" ref="B1:D15" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
   <autoFilter ref="B1:D15" xr:uid="{51982F0C-E04B-7348-BA22-E3F6150ACF16}"/>
   <tableColumns count="3">
-    <tableColumn id="4" xr3:uid="{7A362E5A-1040-7149-8DBB-EC9D1844E05A}" name="Description" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{D2425230-F6DB-144C-83EF-00D07B561F22}" name="Worksheet" dataDxfId="2"/>
-    <tableColumn id="1" xr3:uid="{E820C1AA-CB48-9E41-91AD-7A0AFBE94D0F}" name="Status" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{7A362E5A-1040-7149-8DBB-EC9D1844E05A}" name="Description" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{D2425230-F6DB-144C-83EF-00D07B561F22}" name="Worksheet" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{E820C1AA-CB48-9E41-91AD-7A0AFBE94D0F}" name="Status" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3044,10 +3125,10 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1875" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -3342,27 +3423,69 @@
       <c r="A21" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="34" t="s">
+      <c r="B21" s="32" t="s">
+        <v>631</v>
+      </c>
+      <c r="C21" s="32" t="s">
+        <v>633</v>
+      </c>
+      <c r="D21" s="31" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="30.75" x14ac:dyDescent="0.9">
+      <c r="A22" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="32" t="s">
+        <v>632</v>
+      </c>
+      <c r="C22" s="32" t="s">
+        <v>634</v>
+      </c>
+      <c r="D22" s="33" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="30.75" x14ac:dyDescent="0.9">
+      <c r="A23" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="32" t="s">
+        <v>627</v>
+      </c>
+      <c r="C23" s="32" t="s">
+        <v>626</v>
+      </c>
+      <c r="D23" s="33" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="30.75" x14ac:dyDescent="0.9">
+      <c r="A24" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="34" t="s">
+      <c r="C24" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="D21" s="25" t="s">
+      <c r="D24" s="25" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="30.75" x14ac:dyDescent="0.9">
-      <c r="A22" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22" s="36" t="s">
+    <row r="25" spans="1:4" ht="30.75" x14ac:dyDescent="0.9">
+      <c r="A25" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="C22" s="36" t="s">
+      <c r="C25" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="D22" s="33" t="s">
+      <c r="D25" s="33" t="s">
         <v>77</v>
       </c>
     </row>
@@ -4382,7 +4505,7 @@
   </sheetPr>
   <dimension ref="A1:T10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+    <sheetView topLeftCell="P1" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -5668,6 +5791,374 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A340CE4-7654-467F-825F-F684889D160A}">
+  <dimension ref="A1:L5"/>
+  <sheetViews>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.1875" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="1" max="1" width="36.9375" customWidth="1"/>
+    <col min="2" max="2" width="23.75" customWidth="1"/>
+    <col min="3" max="3" width="37.6875" customWidth="1"/>
+    <col min="4" max="4" width="36.5625" customWidth="1"/>
+    <col min="5" max="11" width="34.8125" customWidth="1"/>
+    <col min="12" max="12" width="37.3125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="30.75" x14ac:dyDescent="0.9">
+      <c r="A1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="21" x14ac:dyDescent="0.65">
+      <c r="A2" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B2" t="s">
+        <v>428</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>635</v>
+      </c>
+      <c r="F2" t="s">
+        <v>542</v>
+      </c>
+      <c r="G2">
+        <v>10</v>
+      </c>
+      <c r="H2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s">
+        <v>637</v>
+      </c>
+      <c r="K2" t="s">
+        <v>542</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="21" x14ac:dyDescent="0.65">
+      <c r="A3" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B3" t="s">
+        <v>429</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>636</v>
+      </c>
+      <c r="F3" t="s">
+        <v>542</v>
+      </c>
+      <c r="G3">
+        <v>11</v>
+      </c>
+      <c r="H3" t="s">
+        <v>440</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="J3" t="s">
+        <v>638</v>
+      </c>
+      <c r="K3" t="s">
+        <v>542</v>
+      </c>
+      <c r="L3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="21" x14ac:dyDescent="0.65">
+      <c r="A4" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B4" t="s">
+        <v>430</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>635</v>
+      </c>
+      <c r="F4" t="s">
+        <v>542</v>
+      </c>
+      <c r="G4">
+        <v>12</v>
+      </c>
+      <c r="H4" t="s">
+        <v>439</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
+      <c r="J4" t="s">
+        <v>637</v>
+      </c>
+      <c r="K4" t="s">
+        <v>542</v>
+      </c>
+      <c r="L4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="21" x14ac:dyDescent="0.65">
+      <c r="A5" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B5" t="s">
+        <v>429</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>636</v>
+      </c>
+      <c r="F5" t="s">
+        <v>542</v>
+      </c>
+      <c r="G5">
+        <v>13</v>
+      </c>
+      <c r="H5" t="s">
+        <v>440</v>
+      </c>
+      <c r="I5">
+        <v>4</v>
+      </c>
+      <c r="J5" t="s">
+        <v>638</v>
+      </c>
+      <c r="K5" t="s">
+        <v>542</v>
+      </c>
+      <c r="L5">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1CE1584-EA62-4567-9BC4-54EA9DB789C0}">
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.1875" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="1" max="1" width="37.3125" customWidth="1"/>
+    <col min="2" max="2" width="18.5" customWidth="1"/>
+    <col min="3" max="3" width="28.9375" customWidth="1"/>
+    <col min="4" max="4" width="25.75" customWidth="1"/>
+    <col min="5" max="5" width="22.9375" customWidth="1"/>
+    <col min="6" max="6" width="21.6875" customWidth="1"/>
+    <col min="7" max="7" width="44.8125" customWidth="1"/>
+    <col min="8" max="8" width="38.8125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="30.75" x14ac:dyDescent="0.9">
+      <c r="A1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.65">
+      <c r="A2" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B2" t="s">
+        <v>428</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>125</v>
+      </c>
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <v>10000</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.65">
+      <c r="A3" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B3" t="s">
+        <v>429</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>126</v>
+      </c>
+      <c r="E3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+      <c r="G3">
+        <v>11000</v>
+      </c>
+      <c r="H3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="21" x14ac:dyDescent="0.65">
+      <c r="A4" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B4" t="s">
+        <v>430</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>127</v>
+      </c>
+      <c r="E4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>4</v>
+      </c>
+      <c r="G4">
+        <v>12000</v>
+      </c>
+      <c r="H4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="21" x14ac:dyDescent="0.65">
+      <c r="A5" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B5" t="s">
+        <v>428</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>128</v>
+      </c>
+      <c r="E5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="G5">
+        <v>13000</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FCC51B1-C11F-4C30-8C8B-A2E7A6EB3269}">
   <dimension ref="A1:I3"/>
   <sheetViews>
@@ -5769,264 +6260,6 @@
       </c>
       <c r="H3" t="s">
         <v>517</v>
-      </c>
-      <c r="I3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{118B69DD-6F47-4236-9EAC-8456553696FA}">
-  <dimension ref="A1:L3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="A4:XFD4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1875" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
-  <cols>
-    <col min="1" max="1" width="37.3125" customWidth="1"/>
-    <col min="2" max="2" width="40.25" customWidth="1"/>
-    <col min="3" max="3" width="42.0625" customWidth="1"/>
-    <col min="4" max="4" width="25.75" customWidth="1"/>
-    <col min="5" max="5" width="22.9375" customWidth="1"/>
-    <col min="6" max="6" width="28.25" customWidth="1"/>
-    <col min="7" max="8" width="44.8125" customWidth="1"/>
-    <col min="9" max="10" width="20.0625" customWidth="1"/>
-    <col min="11" max="11" width="27.75" customWidth="1"/>
-    <col min="12" max="12" width="44.8125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="30.75" x14ac:dyDescent="0.9">
-      <c r="A1" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>520</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>509</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>510</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>511</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>512</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>521</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>522</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>524</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>525</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>526</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="21" x14ac:dyDescent="0.65">
-      <c r="A2" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B2" t="s">
-        <v>508</v>
-      </c>
-      <c r="C2" t="s">
-        <v>518</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s">
-        <v>529</v>
-      </c>
-      <c r="J2">
-        <v>10</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="21" x14ac:dyDescent="0.65">
-      <c r="A3" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B3" t="s">
-        <v>508</v>
-      </c>
-      <c r="C3" t="s">
-        <v>519</v>
-      </c>
-      <c r="D3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>20</v>
-      </c>
-      <c r="F3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>3</v>
-      </c>
-      <c r="H3">
-        <v>3</v>
-      </c>
-      <c r="I3" t="s">
-        <v>530</v>
-      </c>
-      <c r="J3">
-        <v>30</v>
-      </c>
-      <c r="K3">
-        <v>3</v>
-      </c>
-      <c r="L3" t="s">
-        <v>528</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{503026BC-0640-4254-BE5B-FF37C6FC99E2}">
-  <dimension ref="A1:J3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1875" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
-  <cols>
-    <col min="1" max="1" width="37.3125" customWidth="1"/>
-    <col min="2" max="2" width="40.25" customWidth="1"/>
-    <col min="3" max="3" width="42.0625" customWidth="1"/>
-    <col min="4" max="4" width="21.3125" customWidth="1"/>
-    <col min="5" max="5" width="25.75" customWidth="1"/>
-    <col min="6" max="6" width="22.9375" customWidth="1"/>
-    <col min="7" max="7" width="28.25" customWidth="1"/>
-    <col min="8" max="8" width="27.1875" customWidth="1"/>
-    <col min="9" max="9" width="52.125" customWidth="1"/>
-    <col min="10" max="10" width="20.0625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="30.75" x14ac:dyDescent="0.9">
-      <c r="A1" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>531</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>532</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>536</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>533</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>535</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>537</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>512</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>538</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="21" x14ac:dyDescent="0.65">
-      <c r="A2" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B2" t="s">
-        <v>534</v>
-      </c>
-      <c r="C2" t="s">
-        <v>435</v>
-      </c>
-      <c r="D2">
-        <v>24</v>
-      </c>
-      <c r="E2">
-        <v>20</v>
-      </c>
-      <c r="F2">
-        <v>2</v>
-      </c>
-      <c r="G2">
-        <v>85400</v>
-      </c>
-      <c r="H2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="21" x14ac:dyDescent="0.65">
-      <c r="A3" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B3" t="s">
-        <v>534</v>
-      </c>
-      <c r="C3" t="s">
-        <v>435</v>
-      </c>
-      <c r="D3">
-        <v>24</v>
-      </c>
-      <c r="E3">
-        <v>30</v>
-      </c>
-      <c r="F3">
-        <v>4</v>
-      </c>
-      <c r="G3">
-        <v>85000</v>
-      </c>
-      <c r="H3" t="b">
-        <v>0</v>
       </c>
       <c r="I3" t="b">
         <v>0</v>
@@ -6140,6 +6373,264 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{118B69DD-6F47-4236-9EAC-8456553696FA}">
+  <dimension ref="A1:L3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="A4:XFD4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.1875" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="1" max="1" width="37.3125" customWidth="1"/>
+    <col min="2" max="2" width="40.25" customWidth="1"/>
+    <col min="3" max="3" width="42.0625" customWidth="1"/>
+    <col min="4" max="4" width="25.75" customWidth="1"/>
+    <col min="5" max="5" width="22.9375" customWidth="1"/>
+    <col min="6" max="6" width="28.25" customWidth="1"/>
+    <col min="7" max="8" width="44.8125" customWidth="1"/>
+    <col min="9" max="10" width="20.0625" customWidth="1"/>
+    <col min="11" max="11" width="27.75" customWidth="1"/>
+    <col min="12" max="12" width="44.8125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="30.75" x14ac:dyDescent="0.9">
+      <c r="A1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>509</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>510</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>524</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>526</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="21" x14ac:dyDescent="0.65">
+      <c r="A2" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B2" t="s">
+        <v>508</v>
+      </c>
+      <c r="C2" t="s">
+        <v>518</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>529</v>
+      </c>
+      <c r="J2">
+        <v>10</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="21" x14ac:dyDescent="0.65">
+      <c r="A3" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B3" t="s">
+        <v>508</v>
+      </c>
+      <c r="C3" t="s">
+        <v>519</v>
+      </c>
+      <c r="D3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>20</v>
+      </c>
+      <c r="F3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>3</v>
+      </c>
+      <c r="H3">
+        <v>3</v>
+      </c>
+      <c r="I3" t="s">
+        <v>530</v>
+      </c>
+      <c r="J3">
+        <v>30</v>
+      </c>
+      <c r="K3">
+        <v>3</v>
+      </c>
+      <c r="L3" t="s">
+        <v>528</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{503026BC-0640-4254-BE5B-FF37C6FC99E2}">
+  <dimension ref="A1:J3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.1875" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="1" max="1" width="37.3125" customWidth="1"/>
+    <col min="2" max="2" width="40.25" customWidth="1"/>
+    <col min="3" max="3" width="42.0625" customWidth="1"/>
+    <col min="4" max="4" width="21.3125" customWidth="1"/>
+    <col min="5" max="5" width="25.75" customWidth="1"/>
+    <col min="6" max="6" width="22.9375" customWidth="1"/>
+    <col min="7" max="7" width="28.25" customWidth="1"/>
+    <col min="8" max="8" width="27.1875" customWidth="1"/>
+    <col min="9" max="9" width="52.125" customWidth="1"/>
+    <col min="10" max="10" width="20.0625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="30.75" x14ac:dyDescent="0.9">
+      <c r="A1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>531</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>532</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>536</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>533</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="21" x14ac:dyDescent="0.65">
+      <c r="A2" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B2" t="s">
+        <v>534</v>
+      </c>
+      <c r="C2" t="s">
+        <v>435</v>
+      </c>
+      <c r="D2">
+        <v>24</v>
+      </c>
+      <c r="E2">
+        <v>20</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <v>85400</v>
+      </c>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="21" x14ac:dyDescent="0.65">
+      <c r="A3" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B3" t="s">
+        <v>534</v>
+      </c>
+      <c r="C3" t="s">
+        <v>435</v>
+      </c>
+      <c r="D3">
+        <v>24</v>
+      </c>
+      <c r="E3">
+        <v>30</v>
+      </c>
+      <c r="F3">
+        <v>4</v>
+      </c>
+      <c r="G3">
+        <v>85000</v>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F803AC43-3B0B-40F2-9C09-A6F6972B791C}">
   <dimension ref="A1:L3"/>
   <sheetViews>
@@ -6282,7 +6773,158 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07579DF0-3E1D-4DC9-B8C6-91B7548A1D18}">
+  <dimension ref="A1:M3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.1875" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="1" max="3" width="37.3125" customWidth="1"/>
+    <col min="4" max="4" width="40.25" customWidth="1"/>
+    <col min="5" max="5" width="42.0625" customWidth="1"/>
+    <col min="6" max="6" width="28.6875" customWidth="1"/>
+    <col min="7" max="7" width="25.75" customWidth="1"/>
+    <col min="8" max="8" width="40.125" customWidth="1"/>
+    <col min="9" max="9" width="28.25" customWidth="1"/>
+    <col min="10" max="10" width="27.1875" customWidth="1"/>
+    <col min="11" max="11" width="31.9375" customWidth="1"/>
+    <col min="12" max="12" width="42.125" customWidth="1"/>
+    <col min="13" max="13" width="28.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="30.75" x14ac:dyDescent="0.9">
+      <c r="A1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>628</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>613</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>614</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>609</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>618</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>619</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>620</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>621</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>622</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="21" x14ac:dyDescent="0.65">
+      <c r="A2" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="D2">
+        <v>10</v>
+      </c>
+      <c r="E2">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
+        <v>617</v>
+      </c>
+      <c r="G2" t="s">
+        <v>407</v>
+      </c>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>130000</v>
+      </c>
+      <c r="K2">
+        <v>130000</v>
+      </c>
+      <c r="L2">
+        <v>70</v>
+      </c>
+      <c r="M2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="21" x14ac:dyDescent="0.65">
+      <c r="A3" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="D3" t="s">
+        <v>615</v>
+      </c>
+      <c r="E3" t="s">
+        <v>616</v>
+      </c>
+      <c r="F3" t="s">
+        <v>373</v>
+      </c>
+      <c r="G3" t="s">
+        <v>408</v>
+      </c>
+      <c r="H3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>130000</v>
+      </c>
+      <c r="K3">
+        <v>130000</v>
+      </c>
+      <c r="L3" t="s">
+        <v>625</v>
+      </c>
+      <c r="M3" t="s">
+        <v>624</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA67F99B-7122-014C-8188-F4470CB29FE9}">
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
@@ -7690,7 +8332,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{305CDDC8-ED70-6A46-BC08-9987C1043545}">
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
